--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SGTZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,155 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24568600</v>
+        <v>22306400</v>
       </c>
       <c r="E8" s="3">
-        <v>18553600</v>
+        <v>22094600</v>
       </c>
       <c r="F8" s="3">
-        <v>16119000</v>
+        <v>16685300</v>
       </c>
       <c r="G8" s="3">
-        <v>15831100</v>
+        <v>14495800</v>
       </c>
       <c r="H8" s="3">
-        <v>14062200</v>
+        <v>14237000</v>
       </c>
       <c r="I8" s="3">
-        <v>13227800</v>
+        <v>12646200</v>
       </c>
       <c r="J8" s="3">
+        <v>11895800</v>
+      </c>
+      <c r="K8" s="3">
         <v>13414800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12246000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1801500</v>
+        <v>1735700</v>
       </c>
       <c r="E9" s="3">
-        <v>1882300</v>
+        <v>1620100</v>
       </c>
       <c r="F9" s="3">
-        <v>1772600</v>
+        <v>1692800</v>
       </c>
       <c r="G9" s="3">
-        <v>1822500</v>
+        <v>1594100</v>
       </c>
       <c r="H9" s="3">
-        <v>1685500</v>
+        <v>1638900</v>
       </c>
       <c r="I9" s="3">
-        <v>1521600</v>
+        <v>1515800</v>
       </c>
       <c r="J9" s="3">
+        <v>1368400</v>
+      </c>
+      <c r="K9" s="3">
         <v>5825000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12536100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22767100</v>
+        <v>20570700</v>
       </c>
       <c r="E10" s="3">
-        <v>16671200</v>
+        <v>20474500</v>
       </c>
       <c r="F10" s="3">
-        <v>14346400</v>
+        <v>14992500</v>
       </c>
       <c r="G10" s="3">
-        <v>14008700</v>
+        <v>12901800</v>
       </c>
       <c r="H10" s="3">
-        <v>12376700</v>
+        <v>12598000</v>
       </c>
       <c r="I10" s="3">
-        <v>11706200</v>
+        <v>11130400</v>
       </c>
       <c r="J10" s="3">
+        <v>10527500</v>
+      </c>
+      <c r="K10" s="3">
         <v>7589700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-290000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24400</v>
+        <v>7500</v>
       </c>
       <c r="E14" s="3">
-        <v>17300</v>
+        <v>22000</v>
       </c>
       <c r="F14" s="3">
-        <v>27300</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="3">
-        <v>43800</v>
+        <v>24500</v>
       </c>
       <c r="H14" s="3">
-        <v>122300</v>
+        <v>39400</v>
       </c>
       <c r="I14" s="3">
-        <v>90700</v>
+        <v>110000</v>
       </c>
       <c r="J14" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K14" s="3">
         <v>42300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1052300</v>
+        <v>1009200</v>
       </c>
       <c r="E15" s="3">
-        <v>1046800</v>
+        <v>946300</v>
       </c>
       <c r="F15" s="3">
-        <v>1217700</v>
+        <v>941400</v>
       </c>
       <c r="G15" s="3">
-        <v>1115100</v>
+        <v>1095100</v>
       </c>
       <c r="H15" s="3">
-        <v>1178100</v>
+        <v>1002800</v>
       </c>
       <c r="I15" s="3">
-        <v>765100</v>
+        <v>1059500</v>
       </c>
       <c r="J15" s="3">
+        <v>688100</v>
+      </c>
+      <c r="K15" s="3">
         <v>747600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>620900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18012700</v>
+        <v>16725700</v>
       </c>
       <c r="E17" s="3">
-        <v>14252600</v>
+        <v>16198900</v>
       </c>
       <c r="F17" s="3">
-        <v>12005200</v>
+        <v>12817400</v>
       </c>
       <c r="G17" s="3">
-        <v>11978500</v>
+        <v>10796300</v>
       </c>
       <c r="H17" s="3">
-        <v>11491600</v>
+        <v>10772300</v>
       </c>
       <c r="I17" s="3">
-        <v>9794800</v>
+        <v>10334400</v>
       </c>
       <c r="J17" s="3">
+        <v>8808500</v>
+      </c>
+      <c r="K17" s="3">
         <v>9691600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8326500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6555900</v>
+        <v>5580700</v>
       </c>
       <c r="E18" s="3">
-        <v>4301000</v>
+        <v>5895800</v>
       </c>
       <c r="F18" s="3">
-        <v>4113800</v>
+        <v>3867900</v>
       </c>
       <c r="G18" s="3">
-        <v>3852600</v>
+        <v>3699500</v>
       </c>
       <c r="H18" s="3">
-        <v>2570600</v>
+        <v>3464700</v>
       </c>
       <c r="I18" s="3">
-        <v>3433000</v>
+        <v>2311800</v>
       </c>
       <c r="J18" s="3">
+        <v>3087300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3723100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3919500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10113800</v>
+        <v>-3388000</v>
       </c>
       <c r="E20" s="3">
-        <v>-156700</v>
+        <v>9095300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5114200</v>
+        <v>-141000</v>
       </c>
       <c r="G20" s="3">
-        <v>10916900</v>
+        <v>-4599300</v>
       </c>
       <c r="H20" s="3">
-        <v>14430100</v>
+        <v>9817600</v>
       </c>
       <c r="I20" s="3">
-        <v>2084500</v>
+        <v>12977000</v>
       </c>
       <c r="J20" s="3">
+        <v>1874600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1422600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17730000</v>
+        <v>3194100</v>
       </c>
       <c r="E21" s="3">
-        <v>5199000</v>
+        <v>15930100</v>
       </c>
       <c r="F21" s="3">
-        <v>226500</v>
+        <v>4661000</v>
       </c>
       <c r="G21" s="3">
-        <v>15893200</v>
+        <v>186900</v>
       </c>
       <c r="H21" s="3">
-        <v>18187700</v>
+        <v>14277400</v>
       </c>
       <c r="I21" s="3">
-        <v>6288400</v>
+        <v>16340000</v>
       </c>
       <c r="J21" s="3">
+        <v>5644600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4451500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5963900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265500</v>
+        <v>305000</v>
       </c>
       <c r="E22" s="3">
-        <v>253100</v>
+        <v>238800</v>
       </c>
       <c r="F22" s="3">
-        <v>139500</v>
+        <v>227600</v>
       </c>
       <c r="G22" s="3">
-        <v>250300</v>
+        <v>125500</v>
       </c>
       <c r="H22" s="3">
-        <v>112700</v>
+        <v>225100</v>
       </c>
       <c r="I22" s="3">
-        <v>79400</v>
+        <v>101300</v>
       </c>
       <c r="J22" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K22" s="3">
         <v>83800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16404200</v>
+        <v>1887700</v>
       </c>
       <c r="E23" s="3">
-        <v>3891200</v>
+        <v>14752300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1140000</v>
+        <v>3499300</v>
       </c>
       <c r="G23" s="3">
-        <v>14519300</v>
+        <v>-1025200</v>
       </c>
       <c r="H23" s="3">
-        <v>16888000</v>
+        <v>13057200</v>
       </c>
       <c r="I23" s="3">
-        <v>5438100</v>
+        <v>15187500</v>
       </c>
       <c r="J23" s="3">
+        <v>4890500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3614500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5293900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2977000</v>
+        <v>379700</v>
       </c>
       <c r="E24" s="3">
-        <v>816600</v>
+        <v>2677200</v>
       </c>
       <c r="F24" s="3">
-        <v>-160500</v>
+        <v>734400</v>
       </c>
       <c r="G24" s="3">
-        <v>2494000</v>
+        <v>-144300</v>
       </c>
       <c r="H24" s="3">
-        <v>2916500</v>
+        <v>2242900</v>
       </c>
       <c r="I24" s="3">
-        <v>1031400</v>
+        <v>2622800</v>
       </c>
       <c r="J24" s="3">
+        <v>927500</v>
+      </c>
+      <c r="K24" s="3">
         <v>703900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1059000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13427200</v>
+        <v>1508000</v>
       </c>
       <c r="E26" s="3">
-        <v>3074600</v>
+        <v>12075100</v>
       </c>
       <c r="F26" s="3">
-        <v>-979500</v>
+        <v>2765000</v>
       </c>
       <c r="G26" s="3">
-        <v>12025200</v>
+        <v>-880900</v>
       </c>
       <c r="H26" s="3">
-        <v>13971500</v>
+        <v>10814300</v>
       </c>
       <c r="I26" s="3">
-        <v>4406700</v>
+        <v>12564600</v>
       </c>
       <c r="J26" s="3">
+        <v>3963000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2910600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4234800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12500300</v>
+        <v>1401400</v>
       </c>
       <c r="E27" s="3">
-        <v>2905800</v>
+        <v>11241600</v>
       </c>
       <c r="F27" s="3">
-        <v>-980600</v>
+        <v>2613200</v>
       </c>
       <c r="G27" s="3">
-        <v>11183400</v>
+        <v>-881800</v>
       </c>
       <c r="H27" s="3">
-        <v>12972900</v>
+        <v>10057300</v>
       </c>
       <c r="I27" s="3">
-        <v>4119500</v>
+        <v>11666600</v>
       </c>
       <c r="J27" s="3">
+        <v>3704700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2730100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3979700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10113800</v>
+        <v>3388000</v>
       </c>
       <c r="E32" s="3">
-        <v>156700</v>
+        <v>-9095300</v>
       </c>
       <c r="F32" s="3">
-        <v>5114200</v>
+        <v>141000</v>
       </c>
       <c r="G32" s="3">
-        <v>-10916900</v>
+        <v>4599300</v>
       </c>
       <c r="H32" s="3">
-        <v>-14430100</v>
+        <v>-9817600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2084500</v>
+        <v>-12977000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1874600</v>
+      </c>
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1422600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12500300</v>
+        <v>1401400</v>
       </c>
       <c r="E33" s="3">
-        <v>2905800</v>
+        <v>11241600</v>
       </c>
       <c r="F33" s="3">
-        <v>-980600</v>
+        <v>2613200</v>
       </c>
       <c r="G33" s="3">
-        <v>11183400</v>
+        <v>-881800</v>
       </c>
       <c r="H33" s="3">
-        <v>12972900</v>
+        <v>10057300</v>
       </c>
       <c r="I33" s="3">
-        <v>4119500</v>
+        <v>11666600</v>
       </c>
       <c r="J33" s="3">
+        <v>3704700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2730100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3979700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12500300</v>
+        <v>1401400</v>
       </c>
       <c r="E35" s="3">
-        <v>2905800</v>
+        <v>11241600</v>
       </c>
       <c r="F35" s="3">
-        <v>-980600</v>
+        <v>2613200</v>
       </c>
       <c r="G35" s="3">
-        <v>11183400</v>
+        <v>-881800</v>
       </c>
       <c r="H35" s="3">
-        <v>12972900</v>
+        <v>10057300</v>
       </c>
       <c r="I35" s="3">
-        <v>4119500</v>
+        <v>11666600</v>
       </c>
       <c r="J35" s="3">
+        <v>3704700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2730100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3979700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17359000</v>
+        <v>17351100</v>
       </c>
       <c r="E41" s="3">
-        <v>16532100</v>
+        <v>15677000</v>
       </c>
       <c r="F41" s="3">
-        <v>9052500</v>
+        <v>14930200</v>
       </c>
       <c r="G41" s="3">
-        <v>9993300</v>
+        <v>8175400</v>
       </c>
       <c r="H41" s="3">
-        <v>11926800</v>
+        <v>9024900</v>
       </c>
       <c r="I41" s="3">
-        <v>7521000</v>
+        <v>10771100</v>
       </c>
       <c r="J41" s="3">
+        <v>6792300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5818600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6148000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34400</v>
+        <v>17100</v>
       </c>
       <c r="E42" s="3">
-        <v>42800</v>
+        <v>31100</v>
       </c>
       <c r="F42" s="3">
-        <v>84500</v>
+        <v>38700</v>
       </c>
       <c r="G42" s="3">
-        <v>50300</v>
+        <v>76300</v>
       </c>
       <c r="H42" s="3">
-        <v>76200</v>
+        <v>45400</v>
       </c>
       <c r="I42" s="3">
-        <v>140600</v>
+        <v>68800</v>
       </c>
       <c r="J42" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K42" s="3">
         <v>47000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5541800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2162900</v>
+        <v>1946300</v>
       </c>
       <c r="E43" s="3">
-        <v>1890300</v>
+        <v>1953300</v>
       </c>
       <c r="F43" s="3">
-        <v>2087400</v>
+        <v>1707200</v>
       </c>
       <c r="G43" s="3">
-        <v>1363100</v>
+        <v>1885200</v>
       </c>
       <c r="H43" s="3">
-        <v>1413000</v>
+        <v>1231000</v>
       </c>
       <c r="I43" s="3">
-        <v>1526300</v>
+        <v>1276100</v>
       </c>
       <c r="J43" s="3">
+        <v>1378400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1519600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1432800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1426200</v>
+        <v>1393700</v>
       </c>
       <c r="E44" s="3">
-        <v>1283800</v>
+        <v>1288000</v>
       </c>
       <c r="F44" s="3">
-        <v>1344200</v>
+        <v>1159400</v>
       </c>
       <c r="G44" s="3">
-        <v>1197600</v>
+        <v>1214000</v>
       </c>
       <c r="H44" s="3">
-        <v>1033400</v>
+        <v>1081500</v>
       </c>
       <c r="I44" s="3">
-        <v>868100</v>
+        <v>933300</v>
       </c>
       <c r="J44" s="3">
+        <v>783900</v>
+      </c>
+      <c r="K44" s="3">
         <v>829500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1808500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>411100</v>
+        <v>239600</v>
       </c>
       <c r="E45" s="3">
-        <v>277000</v>
+        <v>371300</v>
       </c>
       <c r="F45" s="3">
-        <v>299200</v>
+        <v>250100</v>
       </c>
       <c r="G45" s="3">
-        <v>363700</v>
+        <v>270200</v>
       </c>
       <c r="H45" s="3">
-        <v>669500</v>
+        <v>328500</v>
       </c>
       <c r="I45" s="3">
-        <v>462300</v>
+        <v>604700</v>
       </c>
       <c r="J45" s="3">
+        <v>417500</v>
+      </c>
+      <c r="K45" s="3">
         <v>453700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>554400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21393600</v>
+        <v>20947800</v>
       </c>
       <c r="E46" s="3">
-        <v>20026000</v>
+        <v>19320700</v>
       </c>
       <c r="F46" s="3">
-        <v>12867900</v>
+        <v>18085600</v>
       </c>
       <c r="G46" s="3">
-        <v>12967900</v>
+        <v>11621000</v>
       </c>
       <c r="H46" s="3">
-        <v>15118900</v>
+        <v>11711400</v>
       </c>
       <c r="I46" s="3">
-        <v>10518300</v>
+        <v>13654000</v>
       </c>
       <c r="J46" s="3">
+        <v>9499100</v>
+      </c>
+      <c r="K46" s="3">
         <v>8668400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8798100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36297800</v>
+        <v>31050000</v>
       </c>
       <c r="E47" s="3">
-        <v>24138000</v>
+        <v>32780700</v>
       </c>
       <c r="F47" s="3">
-        <v>27813500</v>
+        <v>21799100</v>
       </c>
       <c r="G47" s="3">
-        <v>31375300</v>
+        <v>25118400</v>
       </c>
       <c r="H47" s="3">
-        <v>19317900</v>
+        <v>28335100</v>
       </c>
       <c r="I47" s="3">
-        <v>10402400</v>
+        <v>17446100</v>
       </c>
       <c r="J47" s="3">
+        <v>9394400</v>
+      </c>
+      <c r="K47" s="3">
         <v>9291600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15075600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23244500</v>
+        <v>22973000</v>
       </c>
       <c r="E48" s="3">
-        <v>22591700</v>
+        <v>20992200</v>
       </c>
       <c r="F48" s="3">
-        <v>21025900</v>
+        <v>20402600</v>
       </c>
       <c r="G48" s="3">
-        <v>19434200</v>
+        <v>18988500</v>
       </c>
       <c r="H48" s="3">
-        <v>17566000</v>
+        <v>17551100</v>
       </c>
       <c r="I48" s="3">
-        <v>16544700</v>
+        <v>15863900</v>
       </c>
       <c r="J48" s="3">
+        <v>14941600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14534300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21977200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138100</v>
+        <v>132600</v>
       </c>
       <c r="E49" s="3">
-        <v>143400</v>
+        <v>124800</v>
       </c>
       <c r="F49" s="3">
-        <v>146400</v>
+        <v>129500</v>
       </c>
       <c r="G49" s="3">
-        <v>136900</v>
+        <v>132200</v>
       </c>
       <c r="H49" s="3">
-        <v>135300</v>
+        <v>123600</v>
       </c>
       <c r="I49" s="3">
-        <v>128500</v>
+        <v>122200</v>
       </c>
       <c r="J49" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K49" s="3">
         <v>131400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>236200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20100</v>
+        <v>16700</v>
       </c>
       <c r="E52" s="3">
-        <v>45600</v>
+        <v>18100</v>
       </c>
       <c r="F52" s="3">
-        <v>68200</v>
+        <v>41200</v>
       </c>
       <c r="G52" s="3">
-        <v>63000</v>
+        <v>61600</v>
       </c>
       <c r="H52" s="3">
-        <v>65100</v>
+        <v>56900</v>
       </c>
       <c r="I52" s="3">
-        <v>65000</v>
+        <v>58800</v>
       </c>
       <c r="J52" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K52" s="3">
         <v>74800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81094100</v>
+        <v>75120200</v>
       </c>
       <c r="E54" s="3">
-        <v>66944700</v>
+        <v>73236400</v>
       </c>
       <c r="F54" s="3">
-        <v>61921800</v>
+        <v>60458000</v>
       </c>
       <c r="G54" s="3">
-        <v>63977300</v>
+        <v>55921800</v>
       </c>
       <c r="H54" s="3">
-        <v>52203200</v>
+        <v>57778100</v>
       </c>
       <c r="I54" s="3">
-        <v>37658900</v>
+        <v>47144900</v>
       </c>
       <c r="J54" s="3">
+        <v>34009900</v>
+      </c>
+      <c r="K54" s="3">
         <v>32700500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29199200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>184000</v>
+        <v>194400</v>
       </c>
       <c r="E57" s="3">
-        <v>163800</v>
+        <v>166200</v>
       </c>
       <c r="F57" s="3">
-        <v>148700</v>
+        <v>147900</v>
       </c>
       <c r="G57" s="3">
-        <v>162100</v>
+        <v>134300</v>
       </c>
       <c r="H57" s="3">
-        <v>159900</v>
+        <v>146400</v>
       </c>
       <c r="I57" s="3">
-        <v>141900</v>
+        <v>144400</v>
       </c>
       <c r="J57" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K57" s="3">
         <v>579300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1682600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3112800</v>
+        <v>3367800</v>
       </c>
       <c r="E58" s="3">
-        <v>2912700</v>
+        <v>2811200</v>
       </c>
       <c r="F58" s="3">
-        <v>1417100</v>
+        <v>2630400</v>
       </c>
       <c r="G58" s="3">
-        <v>1248600</v>
+        <v>1279800</v>
       </c>
       <c r="H58" s="3">
-        <v>594800</v>
+        <v>1127600</v>
       </c>
       <c r="I58" s="3">
-        <v>349900</v>
+        <v>537200</v>
       </c>
       <c r="J58" s="3">
+        <v>316000</v>
+      </c>
+      <c r="K58" s="3">
         <v>289300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>234400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2587200</v>
+        <v>2123800</v>
       </c>
       <c r="E59" s="3">
-        <v>2035900</v>
+        <v>2336500</v>
       </c>
       <c r="F59" s="3">
-        <v>1788000</v>
+        <v>1838600</v>
       </c>
       <c r="G59" s="3">
-        <v>2080700</v>
+        <v>1614800</v>
       </c>
       <c r="H59" s="3">
-        <v>2053600</v>
+        <v>1879100</v>
       </c>
       <c r="I59" s="3">
-        <v>1415200</v>
+        <v>1854600</v>
       </c>
       <c r="J59" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="K59" s="3">
         <v>680600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>821100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5884000</v>
+        <v>5686100</v>
       </c>
       <c r="E60" s="3">
-        <v>5112300</v>
+        <v>5313900</v>
       </c>
       <c r="F60" s="3">
-        <v>3353800</v>
+        <v>4617000</v>
       </c>
       <c r="G60" s="3">
-        <v>3491500</v>
+        <v>3028800</v>
       </c>
       <c r="H60" s="3">
-        <v>2808300</v>
+        <v>3153200</v>
       </c>
       <c r="I60" s="3">
-        <v>1906900</v>
+        <v>2536200</v>
       </c>
       <c r="J60" s="3">
+        <v>1722200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1549200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1579200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>299000</v>
+        <v>186400</v>
       </c>
       <c r="E61" s="3">
-        <v>60800</v>
+        <v>270000</v>
       </c>
       <c r="F61" s="3">
-        <v>260700</v>
+        <v>54900</v>
       </c>
       <c r="G61" s="3">
-        <v>68700</v>
+        <v>235500</v>
       </c>
       <c r="H61" s="3">
-        <v>208400</v>
+        <v>62000</v>
       </c>
       <c r="I61" s="3">
-        <v>206400</v>
+        <v>188200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>186400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5019200</v>
+        <v>5799600</v>
       </c>
       <c r="E62" s="3">
-        <v>4719200</v>
+        <v>4532800</v>
       </c>
       <c r="F62" s="3">
-        <v>3904300</v>
+        <v>4261900</v>
       </c>
       <c r="G62" s="3">
-        <v>3847500</v>
+        <v>3526000</v>
       </c>
       <c r="H62" s="3">
-        <v>3252600</v>
+        <v>3474700</v>
       </c>
       <c r="I62" s="3">
-        <v>2976100</v>
+        <v>2937500</v>
       </c>
       <c r="J62" s="3">
+        <v>2687800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2518500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1884500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11206700</v>
+        <v>11676500</v>
       </c>
       <c r="E66" s="3">
-        <v>9897000</v>
+        <v>10120800</v>
       </c>
       <c r="F66" s="3">
-        <v>7522600</v>
+        <v>8938000</v>
       </c>
       <c r="G66" s="3">
-        <v>7410600</v>
+        <v>6793700</v>
       </c>
       <c r="H66" s="3">
-        <v>6272000</v>
+        <v>6692500</v>
       </c>
       <c r="I66" s="3">
-        <v>5092100</v>
+        <v>5664300</v>
       </c>
       <c r="J66" s="3">
+        <v>4598700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4070400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3465800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66532900</v>
+        <v>60414100</v>
       </c>
       <c r="E72" s="3">
-        <v>53693100</v>
+        <v>60086000</v>
       </c>
       <c r="F72" s="3">
-        <v>51044600</v>
+        <v>48490400</v>
       </c>
       <c r="G72" s="3">
-        <v>53212100</v>
+        <v>46098600</v>
       </c>
       <c r="H72" s="3">
-        <v>42576600</v>
+        <v>48056100</v>
       </c>
       <c r="I72" s="3">
-        <v>29213600</v>
+        <v>38451100</v>
       </c>
       <c r="J72" s="3">
+        <v>26382900</v>
+      </c>
+      <c r="K72" s="3">
         <v>25276900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22505800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69887400</v>
+        <v>63443700</v>
       </c>
       <c r="E76" s="3">
-        <v>57047700</v>
+        <v>63115600</v>
       </c>
       <c r="F76" s="3">
-        <v>54399200</v>
+        <v>51519900</v>
       </c>
       <c r="G76" s="3">
-        <v>56566700</v>
+        <v>49128100</v>
       </c>
       <c r="H76" s="3">
-        <v>45931200</v>
+        <v>51085600</v>
       </c>
       <c r="I76" s="3">
-        <v>32566800</v>
+        <v>41480600</v>
       </c>
       <c r="J76" s="3">
+        <v>29411200</v>
+      </c>
+      <c r="K76" s="3">
         <v>28630100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25733400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12500300</v>
+        <v>1401400</v>
       </c>
       <c r="E81" s="3">
-        <v>2905800</v>
+        <v>11241600</v>
       </c>
       <c r="F81" s="3">
-        <v>-980600</v>
+        <v>2613200</v>
       </c>
       <c r="G81" s="3">
-        <v>11183400</v>
+        <v>-881800</v>
       </c>
       <c r="H81" s="3">
-        <v>12972900</v>
+        <v>10057300</v>
       </c>
       <c r="I81" s="3">
-        <v>4119500</v>
+        <v>11666600</v>
       </c>
       <c r="J81" s="3">
+        <v>3704700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2730100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3979700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1052300</v>
+        <v>1009200</v>
       </c>
       <c r="E83" s="3">
-        <v>1046800</v>
+        <v>946300</v>
       </c>
       <c r="F83" s="3">
-        <v>1217700</v>
+        <v>941400</v>
       </c>
       <c r="G83" s="3">
-        <v>1115100</v>
+        <v>1095100</v>
       </c>
       <c r="H83" s="3">
-        <v>1178100</v>
+        <v>1002800</v>
       </c>
       <c r="I83" s="3">
-        <v>765100</v>
+        <v>1059500</v>
       </c>
       <c r="J83" s="3">
+        <v>688100</v>
+      </c>
+      <c r="K83" s="3">
         <v>747600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>620900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5534600</v>
+        <v>5953800</v>
       </c>
       <c r="E89" s="3">
-        <v>5622600</v>
+        <v>4977300</v>
       </c>
       <c r="F89" s="3">
-        <v>4143800</v>
+        <v>5056400</v>
       </c>
       <c r="G89" s="3">
-        <v>3142300</v>
+        <v>3726500</v>
       </c>
       <c r="H89" s="3">
-        <v>2860800</v>
+        <v>2825900</v>
       </c>
       <c r="I89" s="3">
-        <v>4066100</v>
+        <v>2572800</v>
       </c>
       <c r="J89" s="3">
+        <v>3656700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3930400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3694400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2388900</v>
+        <v>-2260900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2529300</v>
+        <v>-2148300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2854600</v>
+        <v>-2274600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2697700</v>
+        <v>-2567200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2513000</v>
+        <v>-2426100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2791500</v>
+        <v>-2260000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2510400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2205900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1939700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4566800</v>
+        <v>-3100000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4583800</v>
+        <v>-4106900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3173500</v>
+        <v>-4122200</v>
       </c>
       <c r="G94" s="3">
-        <v>-980300</v>
+        <v>-2853900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2660400</v>
+        <v>-881600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3837600</v>
+        <v>-2392500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3451200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3055500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3296500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-533200</v>
+        <v>-1154900</v>
       </c>
       <c r="E96" s="3">
-        <v>-412000</v>
+        <v>-479500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1171900</v>
+        <v>-370500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1353900</v>
+        <v>-1053900</v>
       </c>
       <c r="H96" s="3">
-        <v>-622400</v>
+        <v>-1217500</v>
       </c>
       <c r="I96" s="3">
-        <v>-460000</v>
+        <v>-559700</v>
       </c>
       <c r="J96" s="3">
+        <v>-413700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-596300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-418100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-308900</v>
+        <v>-905700</v>
       </c>
       <c r="E100" s="3">
-        <v>694300</v>
+        <v>-277800</v>
       </c>
       <c r="F100" s="3">
-        <v>-887300</v>
+        <v>624400</v>
       </c>
       <c r="G100" s="3">
-        <v>-962900</v>
+        <v>-798000</v>
       </c>
       <c r="H100" s="3">
-        <v>-447300</v>
+        <v>-865900</v>
       </c>
       <c r="I100" s="3">
-        <v>-357500</v>
+        <v>-402300</v>
       </c>
       <c r="J100" s="3">
+        <v>-321500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-502200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-487100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17600</v>
+        <v>-18400</v>
       </c>
       <c r="E101" s="3">
-        <v>4500</v>
+        <v>15800</v>
       </c>
       <c r="F101" s="3">
-        <v>-55300</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>29000</v>
+        <v>-49700</v>
       </c>
       <c r="H101" s="3">
-        <v>166800</v>
+        <v>26100</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="J101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>676500</v>
+        <v>1929600</v>
       </c>
       <c r="E102" s="3">
-        <v>1737700</v>
+        <v>608400</v>
       </c>
       <c r="F102" s="3">
-        <v>27700</v>
+        <v>1562700</v>
       </c>
       <c r="G102" s="3">
-        <v>1228100</v>
+        <v>24900</v>
       </c>
       <c r="H102" s="3">
-        <v>-80100</v>
+        <v>1104400</v>
       </c>
       <c r="I102" s="3">
-        <v>-125900</v>
+        <v>-72000</v>
       </c>
       <c r="J102" s="3">
+        <v>-113200</v>
+      </c>
+      <c r="K102" s="3">
         <v>346700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22306400</v>
+        <v>20814100</v>
       </c>
       <c r="E8" s="3">
-        <v>22094600</v>
+        <v>20616500</v>
       </c>
       <c r="F8" s="3">
-        <v>16685300</v>
+        <v>15569000</v>
       </c>
       <c r="G8" s="3">
-        <v>14495800</v>
+        <v>13526000</v>
       </c>
       <c r="H8" s="3">
-        <v>14237000</v>
+        <v>13284500</v>
       </c>
       <c r="I8" s="3">
-        <v>12646200</v>
+        <v>11800100</v>
       </c>
       <c r="J8" s="3">
-        <v>11895800</v>
+        <v>11100000</v>
       </c>
       <c r="K8" s="3">
         <v>13414800</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1735700</v>
+        <v>1619600</v>
       </c>
       <c r="E9" s="3">
-        <v>1620100</v>
+        <v>1511700</v>
       </c>
       <c r="F9" s="3">
-        <v>1692800</v>
+        <v>1579500</v>
       </c>
       <c r="G9" s="3">
-        <v>1594100</v>
+        <v>1487400</v>
       </c>
       <c r="H9" s="3">
-        <v>1638900</v>
+        <v>1529300</v>
       </c>
       <c r="I9" s="3">
-        <v>1515800</v>
+        <v>1414400</v>
       </c>
       <c r="J9" s="3">
-        <v>1368400</v>
+        <v>1276800</v>
       </c>
       <c r="K9" s="3">
         <v>5825000</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20570700</v>
+        <v>19194500</v>
       </c>
       <c r="E10" s="3">
-        <v>20474500</v>
+        <v>19104800</v>
       </c>
       <c r="F10" s="3">
-        <v>14992500</v>
+        <v>13989500</v>
       </c>
       <c r="G10" s="3">
-        <v>12901800</v>
+        <v>12038600</v>
       </c>
       <c r="H10" s="3">
-        <v>12598000</v>
+        <v>11755200</v>
       </c>
       <c r="I10" s="3">
-        <v>11130400</v>
+        <v>10385700</v>
       </c>
       <c r="J10" s="3">
-        <v>10527500</v>
+        <v>9823200</v>
       </c>
       <c r="K10" s="3">
         <v>7589700</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E14" s="3">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="G14" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="H14" s="3">
-        <v>39400</v>
+        <v>36700</v>
       </c>
       <c r="I14" s="3">
-        <v>110000</v>
+        <v>102600</v>
       </c>
       <c r="J14" s="3">
-        <v>81500</v>
+        <v>76100</v>
       </c>
       <c r="K14" s="3">
         <v>42300</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1009200</v>
+        <v>941700</v>
       </c>
       <c r="E15" s="3">
-        <v>946300</v>
+        <v>883000</v>
       </c>
       <c r="F15" s="3">
-        <v>941400</v>
+        <v>878400</v>
       </c>
       <c r="G15" s="3">
-        <v>1095100</v>
+        <v>1021800</v>
       </c>
       <c r="H15" s="3">
-        <v>1002800</v>
+        <v>935800</v>
       </c>
       <c r="I15" s="3">
-        <v>1059500</v>
+        <v>988600</v>
       </c>
       <c r="J15" s="3">
-        <v>688100</v>
+        <v>642000</v>
       </c>
       <c r="K15" s="3">
         <v>747600</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16725700</v>
+        <v>15606800</v>
       </c>
       <c r="E17" s="3">
-        <v>16198900</v>
+        <v>15115100</v>
       </c>
       <c r="F17" s="3">
-        <v>12817400</v>
+        <v>11959900</v>
       </c>
       <c r="G17" s="3">
-        <v>10796300</v>
+        <v>10074000</v>
       </c>
       <c r="H17" s="3">
-        <v>10772300</v>
+        <v>10051600</v>
       </c>
       <c r="I17" s="3">
-        <v>10334400</v>
+        <v>9643000</v>
       </c>
       <c r="J17" s="3">
-        <v>8808500</v>
+        <v>8219200</v>
       </c>
       <c r="K17" s="3">
         <v>9691600</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5580700</v>
+        <v>5207300</v>
       </c>
       <c r="E18" s="3">
-        <v>5895800</v>
+        <v>5501300</v>
       </c>
       <c r="F18" s="3">
-        <v>3867900</v>
+        <v>3609100</v>
       </c>
       <c r="G18" s="3">
-        <v>3699500</v>
+        <v>3452000</v>
       </c>
       <c r="H18" s="3">
-        <v>3464700</v>
+        <v>3232900</v>
       </c>
       <c r="I18" s="3">
-        <v>2311800</v>
+        <v>2157100</v>
       </c>
       <c r="J18" s="3">
-        <v>3087300</v>
+        <v>2880800</v>
       </c>
       <c r="K18" s="3">
         <v>3723100</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3388000</v>
+        <v>-3161400</v>
       </c>
       <c r="E20" s="3">
-        <v>9095300</v>
+        <v>8486900</v>
       </c>
       <c r="F20" s="3">
-        <v>-141000</v>
+        <v>-131500</v>
       </c>
       <c r="G20" s="3">
-        <v>-4599300</v>
+        <v>-4291600</v>
       </c>
       <c r="H20" s="3">
-        <v>9817600</v>
+        <v>9160800</v>
       </c>
       <c r="I20" s="3">
-        <v>12977000</v>
+        <v>12108800</v>
       </c>
       <c r="J20" s="3">
-        <v>1874600</v>
+        <v>1749100</v>
       </c>
       <c r="K20" s="3">
         <v>-24800</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3194100</v>
+        <v>2991900</v>
       </c>
       <c r="E21" s="3">
-        <v>15930100</v>
+        <v>14875200</v>
       </c>
       <c r="F21" s="3">
-        <v>4661000</v>
+        <v>4360000</v>
       </c>
       <c r="G21" s="3">
         <v>186900</v>
       </c>
       <c r="H21" s="3">
-        <v>14277400</v>
+        <v>13333700</v>
       </c>
       <c r="I21" s="3">
-        <v>16340000</v>
+        <v>15259000</v>
       </c>
       <c r="J21" s="3">
-        <v>5644600</v>
+        <v>5274800</v>
       </c>
       <c r="K21" s="3">
         <v>4451500</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>305000</v>
+        <v>284600</v>
       </c>
       <c r="E22" s="3">
-        <v>238800</v>
+        <v>222800</v>
       </c>
       <c r="F22" s="3">
-        <v>227600</v>
+        <v>212400</v>
       </c>
       <c r="G22" s="3">
-        <v>125500</v>
+        <v>117100</v>
       </c>
       <c r="H22" s="3">
-        <v>225100</v>
+        <v>210000</v>
       </c>
       <c r="I22" s="3">
-        <v>101300</v>
+        <v>94500</v>
       </c>
       <c r="J22" s="3">
-        <v>71400</v>
+        <v>66600</v>
       </c>
       <c r="K22" s="3">
         <v>83800</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1887700</v>
+        <v>1761400</v>
       </c>
       <c r="E23" s="3">
-        <v>14752300</v>
+        <v>13765400</v>
       </c>
       <c r="F23" s="3">
-        <v>3499300</v>
+        <v>3265200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1025200</v>
+        <v>-956600</v>
       </c>
       <c r="H23" s="3">
-        <v>13057200</v>
+        <v>12183700</v>
       </c>
       <c r="I23" s="3">
-        <v>15187500</v>
+        <v>14171400</v>
       </c>
       <c r="J23" s="3">
-        <v>4890500</v>
+        <v>4563300</v>
       </c>
       <c r="K23" s="3">
         <v>3614500</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>379700</v>
+        <v>354300</v>
       </c>
       <c r="E24" s="3">
-        <v>2677200</v>
+        <v>2498100</v>
       </c>
       <c r="F24" s="3">
-        <v>734400</v>
+        <v>685200</v>
       </c>
       <c r="G24" s="3">
-        <v>-144300</v>
+        <v>-134700</v>
       </c>
       <c r="H24" s="3">
-        <v>2242900</v>
+        <v>2092800</v>
       </c>
       <c r="I24" s="3">
-        <v>2622800</v>
+        <v>2447400</v>
       </c>
       <c r="J24" s="3">
-        <v>927500</v>
+        <v>865500</v>
       </c>
       <c r="K24" s="3">
         <v>703900</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1508000</v>
+        <v>1407100</v>
       </c>
       <c r="E26" s="3">
-        <v>12075100</v>
+        <v>11267300</v>
       </c>
       <c r="F26" s="3">
-        <v>2765000</v>
+        <v>2580000</v>
       </c>
       <c r="G26" s="3">
-        <v>-880900</v>
+        <v>-821900</v>
       </c>
       <c r="H26" s="3">
-        <v>10814300</v>
+        <v>10090800</v>
       </c>
       <c r="I26" s="3">
-        <v>12564600</v>
+        <v>11724000</v>
       </c>
       <c r="J26" s="3">
-        <v>3963000</v>
+        <v>3697800</v>
       </c>
       <c r="K26" s="3">
         <v>2910600</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1401400</v>
+        <v>1307700</v>
       </c>
       <c r="E27" s="3">
-        <v>11241600</v>
+        <v>10489500</v>
       </c>
       <c r="F27" s="3">
-        <v>2613200</v>
+        <v>2438400</v>
       </c>
       <c r="G27" s="3">
-        <v>-881800</v>
+        <v>-822800</v>
       </c>
       <c r="H27" s="3">
-        <v>10057300</v>
+        <v>9384400</v>
       </c>
       <c r="I27" s="3">
-        <v>11666600</v>
+        <v>10886100</v>
       </c>
       <c r="J27" s="3">
-        <v>3704700</v>
+        <v>3456800</v>
       </c>
       <c r="K27" s="3">
         <v>2730100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3388000</v>
+        <v>3161400</v>
       </c>
       <c r="E32" s="3">
-        <v>-9095300</v>
+        <v>-8486900</v>
       </c>
       <c r="F32" s="3">
-        <v>141000</v>
+        <v>131500</v>
       </c>
       <c r="G32" s="3">
-        <v>4599300</v>
+        <v>4291600</v>
       </c>
       <c r="H32" s="3">
-        <v>-9817600</v>
+        <v>-9160800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12977000</v>
+        <v>-12108800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1874600</v>
+        <v>-1749100</v>
       </c>
       <c r="K32" s="3">
         <v>24800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1401400</v>
+        <v>1307700</v>
       </c>
       <c r="E33" s="3">
-        <v>11241600</v>
+        <v>10489500</v>
       </c>
       <c r="F33" s="3">
-        <v>2613200</v>
+        <v>2438400</v>
       </c>
       <c r="G33" s="3">
-        <v>-881800</v>
+        <v>-822800</v>
       </c>
       <c r="H33" s="3">
-        <v>10057300</v>
+        <v>9384400</v>
       </c>
       <c r="I33" s="3">
-        <v>11666600</v>
+        <v>10886100</v>
       </c>
       <c r="J33" s="3">
-        <v>3704700</v>
+        <v>3456800</v>
       </c>
       <c r="K33" s="3">
         <v>2730100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1401400</v>
+        <v>1307700</v>
       </c>
       <c r="E35" s="3">
-        <v>11241600</v>
+        <v>10489500</v>
       </c>
       <c r="F35" s="3">
-        <v>2613200</v>
+        <v>2438400</v>
       </c>
       <c r="G35" s="3">
-        <v>-881800</v>
+        <v>-822800</v>
       </c>
       <c r="H35" s="3">
-        <v>10057300</v>
+        <v>9384400</v>
       </c>
       <c r="I35" s="3">
-        <v>11666600</v>
+        <v>10886100</v>
       </c>
       <c r="J35" s="3">
-        <v>3704700</v>
+        <v>3456800</v>
       </c>
       <c r="K35" s="3">
         <v>2730100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17351100</v>
+        <v>16122100</v>
       </c>
       <c r="E41" s="3">
-        <v>15677000</v>
+        <v>14566600</v>
       </c>
       <c r="F41" s="3">
-        <v>14930200</v>
+        <v>13872800</v>
       </c>
       <c r="G41" s="3">
-        <v>8175400</v>
+        <v>7596300</v>
       </c>
       <c r="H41" s="3">
-        <v>9024900</v>
+        <v>8385700</v>
       </c>
       <c r="I41" s="3">
-        <v>10771100</v>
+        <v>10008200</v>
       </c>
       <c r="J41" s="3">
-        <v>6792300</v>
+        <v>6311200</v>
       </c>
       <c r="K41" s="3">
         <v>5818600</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="E42" s="3">
-        <v>31100</v>
+        <v>28900</v>
       </c>
       <c r="F42" s="3">
-        <v>38700</v>
+        <v>35900</v>
       </c>
       <c r="G42" s="3">
-        <v>76300</v>
+        <v>70900</v>
       </c>
       <c r="H42" s="3">
-        <v>45400</v>
+        <v>42200</v>
       </c>
       <c r="I42" s="3">
-        <v>68800</v>
+        <v>63900</v>
       </c>
       <c r="J42" s="3">
-        <v>127000</v>
+        <v>118000</v>
       </c>
       <c r="K42" s="3">
         <v>47000</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1946300</v>
+        <v>1808500</v>
       </c>
       <c r="E43" s="3">
-        <v>1953300</v>
+        <v>1815000</v>
       </c>
       <c r="F43" s="3">
-        <v>1707200</v>
+        <v>1586300</v>
       </c>
       <c r="G43" s="3">
-        <v>1885200</v>
+        <v>1751600</v>
       </c>
       <c r="H43" s="3">
-        <v>1231000</v>
+        <v>1143800</v>
       </c>
       <c r="I43" s="3">
-        <v>1276100</v>
+        <v>1185700</v>
       </c>
       <c r="J43" s="3">
-        <v>1378400</v>
+        <v>1280800</v>
       </c>
       <c r="K43" s="3">
         <v>1519600</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1393700</v>
+        <v>1295000</v>
       </c>
       <c r="E44" s="3">
-        <v>1288000</v>
+        <v>1196800</v>
       </c>
       <c r="F44" s="3">
-        <v>1159400</v>
+        <v>1077300</v>
       </c>
       <c r="G44" s="3">
-        <v>1214000</v>
+        <v>1128000</v>
       </c>
       <c r="H44" s="3">
-        <v>1081500</v>
+        <v>1004900</v>
       </c>
       <c r="I44" s="3">
-        <v>933300</v>
+        <v>867200</v>
       </c>
       <c r="J44" s="3">
-        <v>783900</v>
+        <v>728400</v>
       </c>
       <c r="K44" s="3">
         <v>829500</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>239600</v>
+        <v>222600</v>
       </c>
       <c r="E45" s="3">
-        <v>371300</v>
+        <v>345000</v>
       </c>
       <c r="F45" s="3">
-        <v>250100</v>
+        <v>232400</v>
       </c>
       <c r="G45" s="3">
-        <v>270200</v>
+        <v>251100</v>
       </c>
       <c r="H45" s="3">
-        <v>328500</v>
+        <v>305200</v>
       </c>
       <c r="I45" s="3">
-        <v>604700</v>
+        <v>561800</v>
       </c>
       <c r="J45" s="3">
-        <v>417500</v>
+        <v>388000</v>
       </c>
       <c r="K45" s="3">
         <v>453700</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20947800</v>
+        <v>19464100</v>
       </c>
       <c r="E46" s="3">
-        <v>19320700</v>
+        <v>17952200</v>
       </c>
       <c r="F46" s="3">
-        <v>18085600</v>
+        <v>16804600</v>
       </c>
       <c r="G46" s="3">
-        <v>11621000</v>
+        <v>10797900</v>
       </c>
       <c r="H46" s="3">
-        <v>11711400</v>
+        <v>10881900</v>
       </c>
       <c r="I46" s="3">
-        <v>13654000</v>
+        <v>12686900</v>
       </c>
       <c r="J46" s="3">
-        <v>9499100</v>
+        <v>8826300</v>
       </c>
       <c r="K46" s="3">
         <v>8668400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31050000</v>
+        <v>28850800</v>
       </c>
       <c r="E47" s="3">
-        <v>32780700</v>
+        <v>30458900</v>
       </c>
       <c r="F47" s="3">
-        <v>21799100</v>
+        <v>20255100</v>
       </c>
       <c r="G47" s="3">
-        <v>25118400</v>
+        <v>23339400</v>
       </c>
       <c r="H47" s="3">
-        <v>28335100</v>
+        <v>26328200</v>
       </c>
       <c r="I47" s="3">
-        <v>17446100</v>
+        <v>16210400</v>
       </c>
       <c r="J47" s="3">
-        <v>9394400</v>
+        <v>8729000</v>
       </c>
       <c r="K47" s="3">
         <v>9291600</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22973000</v>
+        <v>21345900</v>
       </c>
       <c r="E48" s="3">
-        <v>20992200</v>
+        <v>19505300</v>
       </c>
       <c r="F48" s="3">
-        <v>20402600</v>
+        <v>18957600</v>
       </c>
       <c r="G48" s="3">
-        <v>18988500</v>
+        <v>17643600</v>
       </c>
       <c r="H48" s="3">
-        <v>17551100</v>
+        <v>16308000</v>
       </c>
       <c r="I48" s="3">
-        <v>15863900</v>
+        <v>14740300</v>
       </c>
       <c r="J48" s="3">
-        <v>14941600</v>
+        <v>13883300</v>
       </c>
       <c r="K48" s="3">
         <v>14534300</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132600</v>
+        <v>123300</v>
       </c>
       <c r="E49" s="3">
-        <v>124800</v>
+        <v>115900</v>
       </c>
       <c r="F49" s="3">
-        <v>129500</v>
+        <v>120300</v>
       </c>
       <c r="G49" s="3">
-        <v>132200</v>
+        <v>122800</v>
       </c>
       <c r="H49" s="3">
-        <v>123600</v>
+        <v>114800</v>
       </c>
       <c r="I49" s="3">
-        <v>122200</v>
+        <v>113500</v>
       </c>
       <c r="J49" s="3">
-        <v>116100</v>
+        <v>107900</v>
       </c>
       <c r="K49" s="3">
         <v>131400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="E52" s="3">
-        <v>18100</v>
+        <v>16800</v>
       </c>
       <c r="F52" s="3">
-        <v>41200</v>
+        <v>38200</v>
       </c>
       <c r="G52" s="3">
-        <v>61600</v>
+        <v>57200</v>
       </c>
       <c r="H52" s="3">
-        <v>56900</v>
+        <v>52900</v>
       </c>
       <c r="I52" s="3">
-        <v>58800</v>
+        <v>54600</v>
       </c>
       <c r="J52" s="3">
-        <v>58700</v>
+        <v>54500</v>
       </c>
       <c r="K52" s="3">
         <v>74800</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75120200</v>
+        <v>69799600</v>
       </c>
       <c r="E54" s="3">
-        <v>73236400</v>
+        <v>68049200</v>
       </c>
       <c r="F54" s="3">
-        <v>60458000</v>
+        <v>56175900</v>
       </c>
       <c r="G54" s="3">
-        <v>55921800</v>
+        <v>51961000</v>
       </c>
       <c r="H54" s="3">
-        <v>57778100</v>
+        <v>53685800</v>
       </c>
       <c r="I54" s="3">
-        <v>47144900</v>
+        <v>43805700</v>
       </c>
       <c r="J54" s="3">
-        <v>34009900</v>
+        <v>31601100</v>
       </c>
       <c r="K54" s="3">
         <v>32700500</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>194400</v>
+        <v>180700</v>
       </c>
       <c r="E57" s="3">
-        <v>166200</v>
+        <v>154400</v>
       </c>
       <c r="F57" s="3">
-        <v>147900</v>
+        <v>137500</v>
       </c>
       <c r="G57" s="3">
-        <v>134300</v>
+        <v>124700</v>
       </c>
       <c r="H57" s="3">
-        <v>146400</v>
+        <v>136100</v>
       </c>
       <c r="I57" s="3">
-        <v>144400</v>
+        <v>134200</v>
       </c>
       <c r="J57" s="3">
-        <v>128200</v>
+        <v>119100</v>
       </c>
       <c r="K57" s="3">
         <v>579300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3367800</v>
+        <v>3129300</v>
       </c>
       <c r="E58" s="3">
-        <v>2811200</v>
+        <v>2612100</v>
       </c>
       <c r="F58" s="3">
-        <v>2630400</v>
+        <v>2444100</v>
       </c>
       <c r="G58" s="3">
-        <v>1279800</v>
+        <v>1189100</v>
       </c>
       <c r="H58" s="3">
-        <v>1127600</v>
+        <v>1047800</v>
       </c>
       <c r="I58" s="3">
-        <v>537200</v>
+        <v>499100</v>
       </c>
       <c r="J58" s="3">
-        <v>316000</v>
+        <v>293600</v>
       </c>
       <c r="K58" s="3">
         <v>289300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2123800</v>
+        <v>1973400</v>
       </c>
       <c r="E59" s="3">
-        <v>2336500</v>
+        <v>2171000</v>
       </c>
       <c r="F59" s="3">
-        <v>1838600</v>
+        <v>1708400</v>
       </c>
       <c r="G59" s="3">
-        <v>1614800</v>
+        <v>1500400</v>
       </c>
       <c r="H59" s="3">
-        <v>1879100</v>
+        <v>1746000</v>
       </c>
       <c r="I59" s="3">
-        <v>1854600</v>
+        <v>1723200</v>
       </c>
       <c r="J59" s="3">
-        <v>1278000</v>
+        <v>1187500</v>
       </c>
       <c r="K59" s="3">
         <v>680600</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5686100</v>
+        <v>5283400</v>
       </c>
       <c r="E60" s="3">
-        <v>5313900</v>
+        <v>4937500</v>
       </c>
       <c r="F60" s="3">
-        <v>4617000</v>
+        <v>4290000</v>
       </c>
       <c r="G60" s="3">
-        <v>3028800</v>
+        <v>2814300</v>
       </c>
       <c r="H60" s="3">
-        <v>3153200</v>
+        <v>2929800</v>
       </c>
       <c r="I60" s="3">
-        <v>2536200</v>
+        <v>2356600</v>
       </c>
       <c r="J60" s="3">
-        <v>1722200</v>
+        <v>1600200</v>
       </c>
       <c r="K60" s="3">
         <v>1549200</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>186400</v>
+        <v>173200</v>
       </c>
       <c r="E61" s="3">
-        <v>270000</v>
+        <v>250900</v>
       </c>
       <c r="F61" s="3">
-        <v>54900</v>
+        <v>51000</v>
       </c>
       <c r="G61" s="3">
-        <v>235500</v>
+        <v>218800</v>
       </c>
       <c r="H61" s="3">
-        <v>62000</v>
+        <v>57600</v>
       </c>
       <c r="I61" s="3">
-        <v>188200</v>
+        <v>174900</v>
       </c>
       <c r="J61" s="3">
-        <v>186400</v>
+        <v>173200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5799600</v>
+        <v>5388800</v>
       </c>
       <c r="E62" s="3">
-        <v>4532800</v>
+        <v>4211800</v>
       </c>
       <c r="F62" s="3">
-        <v>4261900</v>
+        <v>3960100</v>
       </c>
       <c r="G62" s="3">
-        <v>3526000</v>
+        <v>3276200</v>
       </c>
       <c r="H62" s="3">
-        <v>3474700</v>
+        <v>3228600</v>
       </c>
       <c r="I62" s="3">
-        <v>2937500</v>
+        <v>2729400</v>
       </c>
       <c r="J62" s="3">
-        <v>2687800</v>
+        <v>2497400</v>
       </c>
       <c r="K62" s="3">
         <v>2518500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11676500</v>
+        <v>10849500</v>
       </c>
       <c r="E66" s="3">
-        <v>10120800</v>
+        <v>9404000</v>
       </c>
       <c r="F66" s="3">
-        <v>8938000</v>
+        <v>8305000</v>
       </c>
       <c r="G66" s="3">
-        <v>6793700</v>
+        <v>6312500</v>
       </c>
       <c r="H66" s="3">
-        <v>6692500</v>
+        <v>6218500</v>
       </c>
       <c r="I66" s="3">
-        <v>5664300</v>
+        <v>5263100</v>
       </c>
       <c r="J66" s="3">
-        <v>4598700</v>
+        <v>4273000</v>
       </c>
       <c r="K66" s="3">
         <v>4070400</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60414100</v>
+        <v>56135100</v>
       </c>
       <c r="E72" s="3">
-        <v>60086000</v>
+        <v>55830300</v>
       </c>
       <c r="F72" s="3">
-        <v>48490400</v>
+        <v>45056000</v>
       </c>
       <c r="G72" s="3">
-        <v>46098600</v>
+        <v>42833500</v>
       </c>
       <c r="H72" s="3">
-        <v>48056100</v>
+        <v>44652400</v>
       </c>
       <c r="I72" s="3">
-        <v>38451100</v>
+        <v>35727700</v>
       </c>
       <c r="J72" s="3">
-        <v>26382900</v>
+        <v>24514200</v>
       </c>
       <c r="K72" s="3">
         <v>25276900</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63443700</v>
+        <v>58950100</v>
       </c>
       <c r="E76" s="3">
-        <v>63115600</v>
+        <v>58645200</v>
       </c>
       <c r="F76" s="3">
-        <v>51519900</v>
+        <v>47870900</v>
       </c>
       <c r="G76" s="3">
-        <v>49128100</v>
+        <v>45648500</v>
       </c>
       <c r="H76" s="3">
-        <v>51085600</v>
+        <v>47467300</v>
       </c>
       <c r="I76" s="3">
-        <v>41480600</v>
+        <v>38542600</v>
       </c>
       <c r="J76" s="3">
-        <v>29411200</v>
+        <v>27328000</v>
       </c>
       <c r="K76" s="3">
         <v>28630100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1401400</v>
+        <v>1307700</v>
       </c>
       <c r="E81" s="3">
-        <v>11241600</v>
+        <v>10489500</v>
       </c>
       <c r="F81" s="3">
-        <v>2613200</v>
+        <v>2438400</v>
       </c>
       <c r="G81" s="3">
-        <v>-881800</v>
+        <v>-822800</v>
       </c>
       <c r="H81" s="3">
-        <v>10057300</v>
+        <v>9384400</v>
       </c>
       <c r="I81" s="3">
-        <v>11666600</v>
+        <v>10886100</v>
       </c>
       <c r="J81" s="3">
-        <v>3704700</v>
+        <v>3456800</v>
       </c>
       <c r="K81" s="3">
         <v>2730100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1009200</v>
+        <v>941700</v>
       </c>
       <c r="E83" s="3">
-        <v>946300</v>
+        <v>883000</v>
       </c>
       <c r="F83" s="3">
-        <v>941400</v>
+        <v>878400</v>
       </c>
       <c r="G83" s="3">
-        <v>1095100</v>
+        <v>1021800</v>
       </c>
       <c r="H83" s="3">
-        <v>1002800</v>
+        <v>935800</v>
       </c>
       <c r="I83" s="3">
-        <v>1059500</v>
+        <v>988600</v>
       </c>
       <c r="J83" s="3">
-        <v>688100</v>
+        <v>642000</v>
       </c>
       <c r="K83" s="3">
         <v>747600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5953800</v>
+        <v>5555500</v>
       </c>
       <c r="E89" s="3">
-        <v>4977300</v>
+        <v>4644300</v>
       </c>
       <c r="F89" s="3">
-        <v>5056400</v>
+        <v>4718100</v>
       </c>
       <c r="G89" s="3">
-        <v>3726500</v>
+        <v>3477200</v>
       </c>
       <c r="H89" s="3">
-        <v>2825900</v>
+        <v>2636800</v>
       </c>
       <c r="I89" s="3">
-        <v>2572800</v>
+        <v>2400600</v>
       </c>
       <c r="J89" s="3">
-        <v>3656700</v>
+        <v>3412000</v>
       </c>
       <c r="K89" s="3">
         <v>3930400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2260900</v>
+        <v>-2109600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2148300</v>
+        <v>-2004600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2274600</v>
+        <v>-2122400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2567200</v>
+        <v>-2395400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2426100</v>
+        <v>-2263700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2260000</v>
+        <v>-2108800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2510400</v>
+        <v>-2342500</v>
       </c>
       <c r="K91" s="3">
         <v>-2205900</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100000</v>
+        <v>-2892600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4106900</v>
+        <v>-3832100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4122200</v>
+        <v>-3846400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2853900</v>
+        <v>-2663000</v>
       </c>
       <c r="H94" s="3">
-        <v>-881600</v>
+        <v>-822600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2392500</v>
+        <v>-2232500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3451200</v>
+        <v>-3220300</v>
       </c>
       <c r="K94" s="3">
         <v>-3055500</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1154900</v>
+        <v>-1077700</v>
       </c>
       <c r="E96" s="3">
-        <v>-479500</v>
+        <v>-447400</v>
       </c>
       <c r="F96" s="3">
-        <v>-370500</v>
+        <v>-345700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1053900</v>
+        <v>-983400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1217500</v>
+        <v>-1136100</v>
       </c>
       <c r="I96" s="3">
-        <v>-559700</v>
+        <v>-522200</v>
       </c>
       <c r="J96" s="3">
-        <v>-413700</v>
+        <v>-386000</v>
       </c>
       <c r="K96" s="3">
         <v>-596300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-905700</v>
+        <v>-845100</v>
       </c>
       <c r="E100" s="3">
-        <v>-277800</v>
+        <v>-259200</v>
       </c>
       <c r="F100" s="3">
-        <v>624400</v>
+        <v>582600</v>
       </c>
       <c r="G100" s="3">
-        <v>-798000</v>
+        <v>-744600</v>
       </c>
       <c r="H100" s="3">
-        <v>-865900</v>
+        <v>-808000</v>
       </c>
       <c r="I100" s="3">
-        <v>-402300</v>
+        <v>-375300</v>
       </c>
       <c r="J100" s="3">
-        <v>-321500</v>
+        <v>-300000</v>
       </c>
       <c r="K100" s="3">
         <v>-502200</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18400</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-49700</v>
+        <v>-46400</v>
       </c>
       <c r="H101" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="I101" s="3">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="J101" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K101" s="3">
         <v>-26100</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1929600</v>
+        <v>1800500</v>
       </c>
       <c r="E102" s="3">
-        <v>608400</v>
+        <v>567700</v>
       </c>
       <c r="F102" s="3">
-        <v>1562700</v>
+        <v>1458100</v>
       </c>
       <c r="G102" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="H102" s="3">
-        <v>1104400</v>
+        <v>1030500</v>
       </c>
       <c r="I102" s="3">
-        <v>-72000</v>
+        <v>-67200</v>
       </c>
       <c r="J102" s="3">
-        <v>-113200</v>
+        <v>-105700</v>
       </c>
       <c r="K102" s="3">
         <v>346700</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20814100</v>
+        <v>20719900</v>
       </c>
       <c r="E8" s="3">
-        <v>20616500</v>
+        <v>20523100</v>
       </c>
       <c r="F8" s="3">
-        <v>15569000</v>
+        <v>15498500</v>
       </c>
       <c r="G8" s="3">
-        <v>13526000</v>
+        <v>13464800</v>
       </c>
       <c r="H8" s="3">
-        <v>13284500</v>
+        <v>13224400</v>
       </c>
       <c r="I8" s="3">
-        <v>11800100</v>
+        <v>11746700</v>
       </c>
       <c r="J8" s="3">
-        <v>11100000</v>
+        <v>11049700</v>
       </c>
       <c r="K8" s="3">
         <v>13414800</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1619600</v>
+        <v>1612300</v>
       </c>
       <c r="E9" s="3">
-        <v>1511700</v>
+        <v>1504900</v>
       </c>
       <c r="F9" s="3">
-        <v>1579500</v>
+        <v>1572400</v>
       </c>
       <c r="G9" s="3">
-        <v>1487400</v>
+        <v>1480700</v>
       </c>
       <c r="H9" s="3">
-        <v>1529300</v>
+        <v>1522400</v>
       </c>
       <c r="I9" s="3">
-        <v>1414400</v>
+        <v>1408000</v>
       </c>
       <c r="J9" s="3">
-        <v>1276800</v>
+        <v>1271000</v>
       </c>
       <c r="K9" s="3">
         <v>5825000</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19194500</v>
+        <v>19107600</v>
       </c>
       <c r="E10" s="3">
-        <v>19104800</v>
+        <v>19018200</v>
       </c>
       <c r="F10" s="3">
-        <v>13989500</v>
+        <v>13926100</v>
       </c>
       <c r="G10" s="3">
-        <v>12038600</v>
+        <v>11984100</v>
       </c>
       <c r="H10" s="3">
-        <v>11755200</v>
+        <v>11702000</v>
       </c>
       <c r="I10" s="3">
-        <v>10385700</v>
+        <v>10338700</v>
       </c>
       <c r="J10" s="3">
-        <v>9823200</v>
+        <v>9778700</v>
       </c>
       <c r="K10" s="3">
         <v>7589700</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="F14" s="3">
         <v>14500</v>
       </c>
       <c r="G14" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="H14" s="3">
-        <v>36700</v>
+        <v>36600</v>
       </c>
       <c r="I14" s="3">
-        <v>102600</v>
+        <v>102200</v>
       </c>
       <c r="J14" s="3">
-        <v>76100</v>
+        <v>75700</v>
       </c>
       <c r="K14" s="3">
         <v>42300</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>941700</v>
+        <v>937400</v>
       </c>
       <c r="E15" s="3">
-        <v>883000</v>
+        <v>879000</v>
       </c>
       <c r="F15" s="3">
-        <v>878400</v>
+        <v>874400</v>
       </c>
       <c r="G15" s="3">
-        <v>1021800</v>
+        <v>1017200</v>
       </c>
       <c r="H15" s="3">
-        <v>935800</v>
+        <v>931500</v>
       </c>
       <c r="I15" s="3">
-        <v>988600</v>
+        <v>984100</v>
       </c>
       <c r="J15" s="3">
-        <v>642000</v>
+        <v>639100</v>
       </c>
       <c r="K15" s="3">
         <v>747600</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15606800</v>
+        <v>15536100</v>
       </c>
       <c r="E17" s="3">
-        <v>15115100</v>
+        <v>15046700</v>
       </c>
       <c r="F17" s="3">
-        <v>11959900</v>
+        <v>11905700</v>
       </c>
       <c r="G17" s="3">
-        <v>10074000</v>
+        <v>10028400</v>
       </c>
       <c r="H17" s="3">
-        <v>10051600</v>
+        <v>10006100</v>
       </c>
       <c r="I17" s="3">
-        <v>9643000</v>
+        <v>9599300</v>
       </c>
       <c r="J17" s="3">
-        <v>8219200</v>
+        <v>8182000</v>
       </c>
       <c r="K17" s="3">
         <v>9691600</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5207300</v>
+        <v>5183800</v>
       </c>
       <c r="E18" s="3">
-        <v>5501300</v>
+        <v>5476400</v>
       </c>
       <c r="F18" s="3">
-        <v>3609100</v>
+        <v>3592800</v>
       </c>
       <c r="G18" s="3">
-        <v>3452000</v>
+        <v>3436400</v>
       </c>
       <c r="H18" s="3">
-        <v>3232900</v>
+        <v>3218200</v>
       </c>
       <c r="I18" s="3">
-        <v>2157100</v>
+        <v>2147300</v>
       </c>
       <c r="J18" s="3">
-        <v>2880800</v>
+        <v>2867700</v>
       </c>
       <c r="K18" s="3">
         <v>3723100</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3161400</v>
+        <v>-3147100</v>
       </c>
       <c r="E20" s="3">
-        <v>8486900</v>
+        <v>8448400</v>
       </c>
       <c r="F20" s="3">
-        <v>-131500</v>
+        <v>-130900</v>
       </c>
       <c r="G20" s="3">
-        <v>-4291600</v>
+        <v>-4272100</v>
       </c>
       <c r="H20" s="3">
-        <v>9160800</v>
+        <v>9119300</v>
       </c>
       <c r="I20" s="3">
-        <v>12108800</v>
+        <v>12054000</v>
       </c>
       <c r="J20" s="3">
-        <v>1749100</v>
+        <v>1741200</v>
       </c>
       <c r="K20" s="3">
         <v>-24800</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2991900</v>
+        <v>2977000</v>
       </c>
       <c r="E21" s="3">
-        <v>14875200</v>
+        <v>14806500</v>
       </c>
       <c r="F21" s="3">
-        <v>4360000</v>
+        <v>4338900</v>
       </c>
       <c r="G21" s="3">
-        <v>186900</v>
+        <v>184600</v>
       </c>
       <c r="H21" s="3">
-        <v>13333700</v>
+        <v>13271900</v>
       </c>
       <c r="I21" s="3">
-        <v>15259000</v>
+        <v>15188400</v>
       </c>
       <c r="J21" s="3">
-        <v>5274800</v>
+        <v>5250000</v>
       </c>
       <c r="K21" s="3">
         <v>4451500</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>284600</v>
+        <v>283300</v>
       </c>
       <c r="E22" s="3">
-        <v>222800</v>
+        <v>221800</v>
       </c>
       <c r="F22" s="3">
-        <v>212400</v>
+        <v>211400</v>
       </c>
       <c r="G22" s="3">
-        <v>117100</v>
+        <v>116500</v>
       </c>
       <c r="H22" s="3">
-        <v>210000</v>
+        <v>209100</v>
       </c>
       <c r="I22" s="3">
-        <v>94500</v>
+        <v>94100</v>
       </c>
       <c r="J22" s="3">
-        <v>66600</v>
+        <v>66300</v>
       </c>
       <c r="K22" s="3">
         <v>83800</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1761400</v>
+        <v>1753400</v>
       </c>
       <c r="E23" s="3">
-        <v>13765400</v>
+        <v>13703000</v>
       </c>
       <c r="F23" s="3">
-        <v>3265200</v>
+        <v>3250500</v>
       </c>
       <c r="G23" s="3">
-        <v>-956600</v>
+        <v>-952300</v>
       </c>
       <c r="H23" s="3">
-        <v>12183700</v>
+        <v>12128500</v>
       </c>
       <c r="I23" s="3">
-        <v>14171400</v>
+        <v>14107200</v>
       </c>
       <c r="J23" s="3">
-        <v>4563300</v>
+        <v>4542600</v>
       </c>
       <c r="K23" s="3">
         <v>3614500</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>354300</v>
+        <v>352700</v>
       </c>
       <c r="E24" s="3">
-        <v>2498100</v>
+        <v>2486800</v>
       </c>
       <c r="F24" s="3">
-        <v>685200</v>
+        <v>682100</v>
       </c>
       <c r="G24" s="3">
-        <v>-134700</v>
+        <v>-134100</v>
       </c>
       <c r="H24" s="3">
-        <v>2092800</v>
+        <v>2083300</v>
       </c>
       <c r="I24" s="3">
-        <v>2447400</v>
+        <v>2436300</v>
       </c>
       <c r="J24" s="3">
-        <v>865500</v>
+        <v>861600</v>
       </c>
       <c r="K24" s="3">
         <v>703900</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1407100</v>
+        <v>1400700</v>
       </c>
       <c r="E26" s="3">
-        <v>11267300</v>
+        <v>11216300</v>
       </c>
       <c r="F26" s="3">
-        <v>2580000</v>
+        <v>2568300</v>
       </c>
       <c r="G26" s="3">
-        <v>-821900</v>
+        <v>-818200</v>
       </c>
       <c r="H26" s="3">
-        <v>10090800</v>
+        <v>10045100</v>
       </c>
       <c r="I26" s="3">
-        <v>11724000</v>
+        <v>11670900</v>
       </c>
       <c r="J26" s="3">
-        <v>3697800</v>
+        <v>3681100</v>
       </c>
       <c r="K26" s="3">
         <v>2910600</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1307700</v>
+        <v>1301700</v>
       </c>
       <c r="E27" s="3">
-        <v>10489500</v>
+        <v>10442000</v>
       </c>
       <c r="F27" s="3">
-        <v>2438400</v>
+        <v>2427300</v>
       </c>
       <c r="G27" s="3">
-        <v>-822800</v>
+        <v>-819100</v>
       </c>
       <c r="H27" s="3">
-        <v>9384400</v>
+        <v>9341900</v>
       </c>
       <c r="I27" s="3">
-        <v>10886100</v>
+        <v>10836800</v>
       </c>
       <c r="J27" s="3">
-        <v>3456800</v>
+        <v>3441200</v>
       </c>
       <c r="K27" s="3">
         <v>2730100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3161400</v>
+        <v>3147100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8486900</v>
+        <v>-8448400</v>
       </c>
       <c r="F32" s="3">
-        <v>131500</v>
+        <v>130900</v>
       </c>
       <c r="G32" s="3">
-        <v>4291600</v>
+        <v>4272100</v>
       </c>
       <c r="H32" s="3">
-        <v>-9160800</v>
+        <v>-9119300</v>
       </c>
       <c r="I32" s="3">
-        <v>-12108800</v>
+        <v>-12054000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1749100</v>
+        <v>-1741200</v>
       </c>
       <c r="K32" s="3">
         <v>24800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1307700</v>
+        <v>1301700</v>
       </c>
       <c r="E33" s="3">
-        <v>10489500</v>
+        <v>10442000</v>
       </c>
       <c r="F33" s="3">
-        <v>2438400</v>
+        <v>2427300</v>
       </c>
       <c r="G33" s="3">
-        <v>-822800</v>
+        <v>-819100</v>
       </c>
       <c r="H33" s="3">
-        <v>9384400</v>
+        <v>9341900</v>
       </c>
       <c r="I33" s="3">
-        <v>10886100</v>
+        <v>10836800</v>
       </c>
       <c r="J33" s="3">
-        <v>3456800</v>
+        <v>3441200</v>
       </c>
       <c r="K33" s="3">
         <v>2730100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1307700</v>
+        <v>1301700</v>
       </c>
       <c r="E35" s="3">
-        <v>10489500</v>
+        <v>10442000</v>
       </c>
       <c r="F35" s="3">
-        <v>2438400</v>
+        <v>2427300</v>
       </c>
       <c r="G35" s="3">
-        <v>-822800</v>
+        <v>-819100</v>
       </c>
       <c r="H35" s="3">
-        <v>9384400</v>
+        <v>9341900</v>
       </c>
       <c r="I35" s="3">
-        <v>10886100</v>
+        <v>10836800</v>
       </c>
       <c r="J35" s="3">
-        <v>3456800</v>
+        <v>3441200</v>
       </c>
       <c r="K35" s="3">
         <v>2730100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16122100</v>
+        <v>16049100</v>
       </c>
       <c r="E41" s="3">
-        <v>14566600</v>
+        <v>14500700</v>
       </c>
       <c r="F41" s="3">
-        <v>13872800</v>
+        <v>13809900</v>
       </c>
       <c r="G41" s="3">
-        <v>7596300</v>
+        <v>7561900</v>
       </c>
       <c r="H41" s="3">
-        <v>8385700</v>
+        <v>8347800</v>
       </c>
       <c r="I41" s="3">
-        <v>10008200</v>
+        <v>9962900</v>
       </c>
       <c r="J41" s="3">
-        <v>6311200</v>
+        <v>6282600</v>
       </c>
       <c r="K41" s="3">
         <v>5818600</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="E42" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="F42" s="3">
-        <v>35900</v>
+        <v>35800</v>
       </c>
       <c r="G42" s="3">
-        <v>70900</v>
+        <v>70600</v>
       </c>
       <c r="H42" s="3">
-        <v>42200</v>
+        <v>42000</v>
       </c>
       <c r="I42" s="3">
-        <v>63900</v>
+        <v>63600</v>
       </c>
       <c r="J42" s="3">
-        <v>118000</v>
+        <v>117500</v>
       </c>
       <c r="K42" s="3">
         <v>47000</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1808500</v>
+        <v>1800300</v>
       </c>
       <c r="E43" s="3">
-        <v>1815000</v>
+        <v>1806800</v>
       </c>
       <c r="F43" s="3">
-        <v>1586300</v>
+        <v>1579100</v>
       </c>
       <c r="G43" s="3">
-        <v>1751600</v>
+        <v>1743700</v>
       </c>
       <c r="H43" s="3">
-        <v>1143800</v>
+        <v>1138600</v>
       </c>
       <c r="I43" s="3">
-        <v>1185700</v>
+        <v>1180400</v>
       </c>
       <c r="J43" s="3">
-        <v>1280800</v>
+        <v>1275000</v>
       </c>
       <c r="K43" s="3">
         <v>1519600</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1295000</v>
+        <v>1289100</v>
       </c>
       <c r="E44" s="3">
-        <v>1196800</v>
+        <v>1191400</v>
       </c>
       <c r="F44" s="3">
-        <v>1077300</v>
+        <v>1072400</v>
       </c>
       <c r="G44" s="3">
-        <v>1128000</v>
+        <v>1122900</v>
       </c>
       <c r="H44" s="3">
-        <v>1004900</v>
+        <v>1000400</v>
       </c>
       <c r="I44" s="3">
-        <v>867200</v>
+        <v>863200</v>
       </c>
       <c r="J44" s="3">
-        <v>728400</v>
+        <v>725100</v>
       </c>
       <c r="K44" s="3">
         <v>829500</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>222600</v>
+        <v>221600</v>
       </c>
       <c r="E45" s="3">
-        <v>345000</v>
+        <v>343400</v>
       </c>
       <c r="F45" s="3">
-        <v>232400</v>
+        <v>231400</v>
       </c>
       <c r="G45" s="3">
-        <v>251100</v>
+        <v>249900</v>
       </c>
       <c r="H45" s="3">
-        <v>305200</v>
+        <v>303800</v>
       </c>
       <c r="I45" s="3">
-        <v>561800</v>
+        <v>559300</v>
       </c>
       <c r="J45" s="3">
-        <v>388000</v>
+        <v>386200</v>
       </c>
       <c r="K45" s="3">
         <v>453700</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19464100</v>
+        <v>19376000</v>
       </c>
       <c r="E46" s="3">
-        <v>17952200</v>
+        <v>17870900</v>
       </c>
       <c r="F46" s="3">
-        <v>16804600</v>
+        <v>16728500</v>
       </c>
       <c r="G46" s="3">
-        <v>10797900</v>
+        <v>10749000</v>
       </c>
       <c r="H46" s="3">
-        <v>10881900</v>
+        <v>10832600</v>
       </c>
       <c r="I46" s="3">
-        <v>12686900</v>
+        <v>12629400</v>
       </c>
       <c r="J46" s="3">
-        <v>8826300</v>
+        <v>8786400</v>
       </c>
       <c r="K46" s="3">
         <v>8668400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28850800</v>
+        <v>28720200</v>
       </c>
       <c r="E47" s="3">
-        <v>30458900</v>
+        <v>30321000</v>
       </c>
       <c r="F47" s="3">
-        <v>20255100</v>
+        <v>20163400</v>
       </c>
       <c r="G47" s="3">
-        <v>23339400</v>
+        <v>23233700</v>
       </c>
       <c r="H47" s="3">
-        <v>26328200</v>
+        <v>26209000</v>
       </c>
       <c r="I47" s="3">
-        <v>16210400</v>
+        <v>16137000</v>
       </c>
       <c r="J47" s="3">
-        <v>8729000</v>
+        <v>8689500</v>
       </c>
       <c r="K47" s="3">
         <v>9291600</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21345900</v>
+        <v>21249300</v>
       </c>
       <c r="E48" s="3">
-        <v>19505300</v>
+        <v>19417000</v>
       </c>
       <c r="F48" s="3">
-        <v>18957600</v>
+        <v>18871700</v>
       </c>
       <c r="G48" s="3">
-        <v>17643600</v>
+        <v>17563700</v>
       </c>
       <c r="H48" s="3">
-        <v>16308000</v>
+        <v>16234100</v>
       </c>
       <c r="I48" s="3">
-        <v>14740300</v>
+        <v>14673600</v>
       </c>
       <c r="J48" s="3">
-        <v>13883300</v>
+        <v>13820500</v>
       </c>
       <c r="K48" s="3">
         <v>14534300</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123300</v>
+        <v>122700</v>
       </c>
       <c r="E49" s="3">
-        <v>115900</v>
+        <v>115400</v>
       </c>
       <c r="F49" s="3">
-        <v>120300</v>
+        <v>119800</v>
       </c>
       <c r="G49" s="3">
-        <v>122800</v>
+        <v>122300</v>
       </c>
       <c r="H49" s="3">
-        <v>114800</v>
+        <v>114300</v>
       </c>
       <c r="I49" s="3">
-        <v>113500</v>
+        <v>113000</v>
       </c>
       <c r="J49" s="3">
-        <v>107900</v>
+        <v>107400</v>
       </c>
       <c r="K49" s="3">
         <v>131400</v>
@@ -2023,19 +2023,19 @@
         <v>16800</v>
       </c>
       <c r="F52" s="3">
-        <v>38200</v>
+        <v>38100</v>
       </c>
       <c r="G52" s="3">
-        <v>57200</v>
+        <v>57000</v>
       </c>
       <c r="H52" s="3">
-        <v>52900</v>
+        <v>52700</v>
       </c>
       <c r="I52" s="3">
-        <v>54600</v>
+        <v>54400</v>
       </c>
       <c r="J52" s="3">
-        <v>54500</v>
+        <v>54300</v>
       </c>
       <c r="K52" s="3">
         <v>74800</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69799600</v>
+        <v>69483500</v>
       </c>
       <c r="E54" s="3">
-        <v>68049200</v>
+        <v>67741100</v>
       </c>
       <c r="F54" s="3">
-        <v>56175900</v>
+        <v>55921500</v>
       </c>
       <c r="G54" s="3">
-        <v>51961000</v>
+        <v>51725700</v>
       </c>
       <c r="H54" s="3">
-        <v>53685800</v>
+        <v>53442700</v>
       </c>
       <c r="I54" s="3">
-        <v>43805700</v>
+        <v>43607400</v>
       </c>
       <c r="J54" s="3">
-        <v>31601100</v>
+        <v>31458000</v>
       </c>
       <c r="K54" s="3">
         <v>32700500</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180700</v>
+        <v>179900</v>
       </c>
       <c r="E57" s="3">
-        <v>154400</v>
+        <v>153700</v>
       </c>
       <c r="F57" s="3">
-        <v>137500</v>
+        <v>136800</v>
       </c>
       <c r="G57" s="3">
-        <v>124700</v>
+        <v>124200</v>
       </c>
       <c r="H57" s="3">
-        <v>136100</v>
+        <v>135400</v>
       </c>
       <c r="I57" s="3">
-        <v>134200</v>
+        <v>133600</v>
       </c>
       <c r="J57" s="3">
-        <v>119100</v>
+        <v>118500</v>
       </c>
       <c r="K57" s="3">
         <v>579300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3129300</v>
+        <v>3115100</v>
       </c>
       <c r="E58" s="3">
-        <v>2612100</v>
+        <v>2600300</v>
       </c>
       <c r="F58" s="3">
-        <v>2444100</v>
+        <v>2433100</v>
       </c>
       <c r="G58" s="3">
-        <v>1189100</v>
+        <v>1183800</v>
       </c>
       <c r="H58" s="3">
-        <v>1047800</v>
+        <v>1043000</v>
       </c>
       <c r="I58" s="3">
-        <v>499100</v>
+        <v>496900</v>
       </c>
       <c r="J58" s="3">
-        <v>293600</v>
+        <v>292300</v>
       </c>
       <c r="K58" s="3">
         <v>289300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1973400</v>
+        <v>1964400</v>
       </c>
       <c r="E59" s="3">
-        <v>2171000</v>
+        <v>2161200</v>
       </c>
       <c r="F59" s="3">
-        <v>1708400</v>
+        <v>1700600</v>
       </c>
       <c r="G59" s="3">
-        <v>1500400</v>
+        <v>1493600</v>
       </c>
       <c r="H59" s="3">
-        <v>1746000</v>
+        <v>1738100</v>
       </c>
       <c r="I59" s="3">
-        <v>1723200</v>
+        <v>1715400</v>
       </c>
       <c r="J59" s="3">
-        <v>1187500</v>
+        <v>1182100</v>
       </c>
       <c r="K59" s="3">
         <v>680600</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5283400</v>
+        <v>5259400</v>
       </c>
       <c r="E60" s="3">
-        <v>4937500</v>
+        <v>4915200</v>
       </c>
       <c r="F60" s="3">
-        <v>4290000</v>
+        <v>4270500</v>
       </c>
       <c r="G60" s="3">
-        <v>2814300</v>
+        <v>2801500</v>
       </c>
       <c r="H60" s="3">
-        <v>2929800</v>
+        <v>2916600</v>
       </c>
       <c r="I60" s="3">
-        <v>2356600</v>
+        <v>2345900</v>
       </c>
       <c r="J60" s="3">
-        <v>1600200</v>
+        <v>1592900</v>
       </c>
       <c r="K60" s="3">
         <v>1549200</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>173200</v>
+        <v>172400</v>
       </c>
       <c r="E61" s="3">
-        <v>250900</v>
+        <v>249700</v>
       </c>
       <c r="F61" s="3">
-        <v>51000</v>
+        <v>50800</v>
       </c>
       <c r="G61" s="3">
-        <v>218800</v>
+        <v>217800</v>
       </c>
       <c r="H61" s="3">
-        <v>57600</v>
+        <v>57400</v>
       </c>
       <c r="I61" s="3">
-        <v>174900</v>
+        <v>174100</v>
       </c>
       <c r="J61" s="3">
-        <v>173200</v>
+        <v>172400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5388800</v>
+        <v>5364400</v>
       </c>
       <c r="E62" s="3">
-        <v>4211800</v>
+        <v>4192700</v>
       </c>
       <c r="F62" s="3">
-        <v>3960100</v>
+        <v>3942100</v>
       </c>
       <c r="G62" s="3">
-        <v>3276200</v>
+        <v>3261400</v>
       </c>
       <c r="H62" s="3">
-        <v>3228600</v>
+        <v>3213900</v>
       </c>
       <c r="I62" s="3">
-        <v>2729400</v>
+        <v>2717100</v>
       </c>
       <c r="J62" s="3">
-        <v>2497400</v>
+        <v>2486100</v>
       </c>
       <c r="K62" s="3">
         <v>2518500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10849500</v>
+        <v>10800400</v>
       </c>
       <c r="E66" s="3">
-        <v>9404000</v>
+        <v>9361400</v>
       </c>
       <c r="F66" s="3">
-        <v>8305000</v>
+        <v>8267400</v>
       </c>
       <c r="G66" s="3">
-        <v>6312500</v>
+        <v>6284000</v>
       </c>
       <c r="H66" s="3">
-        <v>6218500</v>
+        <v>6190300</v>
       </c>
       <c r="I66" s="3">
-        <v>5263100</v>
+        <v>5239300</v>
       </c>
       <c r="J66" s="3">
-        <v>4273000</v>
+        <v>4253700</v>
       </c>
       <c r="K66" s="3">
         <v>4070400</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56135100</v>
+        <v>55881000</v>
       </c>
       <c r="E72" s="3">
-        <v>55830300</v>
+        <v>55577500</v>
       </c>
       <c r="F72" s="3">
-        <v>45056000</v>
+        <v>44851900</v>
       </c>
       <c r="G72" s="3">
-        <v>42833500</v>
+        <v>42639600</v>
       </c>
       <c r="H72" s="3">
-        <v>44652400</v>
+        <v>44450200</v>
       </c>
       <c r="I72" s="3">
-        <v>35727700</v>
+        <v>35565900</v>
       </c>
       <c r="J72" s="3">
-        <v>24514200</v>
+        <v>24403200</v>
       </c>
       <c r="K72" s="3">
         <v>25276900</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58950100</v>
+        <v>58683200</v>
       </c>
       <c r="E76" s="3">
-        <v>58645200</v>
+        <v>58379700</v>
       </c>
       <c r="F76" s="3">
-        <v>47870900</v>
+        <v>47654100</v>
       </c>
       <c r="G76" s="3">
-        <v>45648500</v>
+        <v>45441800</v>
       </c>
       <c r="H76" s="3">
-        <v>47467300</v>
+        <v>47252400</v>
       </c>
       <c r="I76" s="3">
-        <v>38542600</v>
+        <v>38368100</v>
       </c>
       <c r="J76" s="3">
-        <v>27328000</v>
+        <v>27204300</v>
       </c>
       <c r="K76" s="3">
         <v>28630100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1307700</v>
+        <v>1301700</v>
       </c>
       <c r="E81" s="3">
-        <v>10489500</v>
+        <v>10442000</v>
       </c>
       <c r="F81" s="3">
-        <v>2438400</v>
+        <v>2427300</v>
       </c>
       <c r="G81" s="3">
-        <v>-822800</v>
+        <v>-819100</v>
       </c>
       <c r="H81" s="3">
-        <v>9384400</v>
+        <v>9341900</v>
       </c>
       <c r="I81" s="3">
-        <v>10886100</v>
+        <v>10836800</v>
       </c>
       <c r="J81" s="3">
-        <v>3456800</v>
+        <v>3441200</v>
       </c>
       <c r="K81" s="3">
         <v>2730100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>941700</v>
+        <v>937400</v>
       </c>
       <c r="E83" s="3">
-        <v>883000</v>
+        <v>879000</v>
       </c>
       <c r="F83" s="3">
-        <v>878400</v>
+        <v>874400</v>
       </c>
       <c r="G83" s="3">
-        <v>1021800</v>
+        <v>1017200</v>
       </c>
       <c r="H83" s="3">
-        <v>935800</v>
+        <v>931500</v>
       </c>
       <c r="I83" s="3">
-        <v>988600</v>
+        <v>984100</v>
       </c>
       <c r="J83" s="3">
-        <v>642000</v>
+        <v>639100</v>
       </c>
       <c r="K83" s="3">
         <v>747600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5555500</v>
+        <v>5530300</v>
       </c>
       <c r="E89" s="3">
-        <v>4644300</v>
+        <v>4623300</v>
       </c>
       <c r="F89" s="3">
-        <v>4718100</v>
+        <v>4696700</v>
       </c>
       <c r="G89" s="3">
-        <v>3477200</v>
+        <v>3461500</v>
       </c>
       <c r="H89" s="3">
-        <v>2636800</v>
+        <v>2624900</v>
       </c>
       <c r="I89" s="3">
-        <v>2400600</v>
+        <v>2389800</v>
       </c>
       <c r="J89" s="3">
-        <v>3412000</v>
+        <v>3396600</v>
       </c>
       <c r="K89" s="3">
         <v>3930400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2109600</v>
+        <v>-2100000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2004600</v>
+        <v>-1995500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2122400</v>
+        <v>-2112800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2395400</v>
+        <v>-2384600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2263700</v>
+        <v>-2253500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2108800</v>
+        <v>-2099200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2342500</v>
+        <v>-2331800</v>
       </c>
       <c r="K91" s="3">
         <v>-2205900</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2892600</v>
+        <v>-2879500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3832100</v>
+        <v>-3814800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3846400</v>
+        <v>-3829000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2663000</v>
+        <v>-2650900</v>
       </c>
       <c r="H94" s="3">
-        <v>-822600</v>
+        <v>-818900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2232500</v>
+        <v>-2222400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3220300</v>
+        <v>-3205700</v>
       </c>
       <c r="K94" s="3">
         <v>-3055500</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1077700</v>
+        <v>-1072800</v>
       </c>
       <c r="E96" s="3">
-        <v>-447400</v>
+        <v>-445400</v>
       </c>
       <c r="F96" s="3">
-        <v>-345700</v>
+        <v>-344200</v>
       </c>
       <c r="G96" s="3">
-        <v>-983400</v>
+        <v>-979000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1136100</v>
+        <v>-1130900</v>
       </c>
       <c r="I96" s="3">
-        <v>-522200</v>
+        <v>-519900</v>
       </c>
       <c r="J96" s="3">
-        <v>-386000</v>
+        <v>-384300</v>
       </c>
       <c r="K96" s="3">
         <v>-596300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-845100</v>
+        <v>-841300</v>
       </c>
       <c r="E100" s="3">
-        <v>-259200</v>
+        <v>-258100</v>
       </c>
       <c r="F100" s="3">
-        <v>582600</v>
+        <v>580000</v>
       </c>
       <c r="G100" s="3">
-        <v>-744600</v>
+        <v>-741200</v>
       </c>
       <c r="H100" s="3">
-        <v>-808000</v>
+        <v>-804300</v>
       </c>
       <c r="I100" s="3">
-        <v>-375300</v>
+        <v>-373600</v>
       </c>
       <c r="J100" s="3">
-        <v>-300000</v>
+        <v>-298600</v>
       </c>
       <c r="K100" s="3">
         <v>-502200</v>
@@ -3465,22 +3465,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-17100</v>
       </c>
       <c r="E101" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="F101" s="3">
         <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-46400</v>
+        <v>-46200</v>
       </c>
       <c r="H101" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="I101" s="3">
-        <v>140000</v>
+        <v>139400</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1800500</v>
+        <v>1792400</v>
       </c>
       <c r="E102" s="3">
-        <v>567700</v>
+        <v>565100</v>
       </c>
       <c r="F102" s="3">
-        <v>1458100</v>
+        <v>1451500</v>
       </c>
       <c r="G102" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="H102" s="3">
-        <v>1030500</v>
+        <v>1025900</v>
       </c>
       <c r="I102" s="3">
-        <v>-67200</v>
+        <v>-66900</v>
       </c>
       <c r="J102" s="3">
-        <v>-105700</v>
+        <v>-105200</v>
       </c>
       <c r="K102" s="3">
         <v>346700</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20719900</v>
+        <v>20657000</v>
       </c>
       <c r="E8" s="3">
-        <v>20523100</v>
+        <v>20460900</v>
       </c>
       <c r="F8" s="3">
-        <v>15498500</v>
+        <v>15451500</v>
       </c>
       <c r="G8" s="3">
-        <v>13464800</v>
+        <v>13424000</v>
       </c>
       <c r="H8" s="3">
-        <v>13224400</v>
+        <v>13184300</v>
       </c>
       <c r="I8" s="3">
-        <v>11746700</v>
+        <v>11711000</v>
       </c>
       <c r="J8" s="3">
-        <v>11049700</v>
+        <v>11016200</v>
       </c>
       <c r="K8" s="3">
         <v>13414800</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1612300</v>
+        <v>1607400</v>
       </c>
       <c r="E9" s="3">
-        <v>1504900</v>
+        <v>1500300</v>
       </c>
       <c r="F9" s="3">
-        <v>1572400</v>
+        <v>1567600</v>
       </c>
       <c r="G9" s="3">
-        <v>1480700</v>
+        <v>1476200</v>
       </c>
       <c r="H9" s="3">
-        <v>1522400</v>
+        <v>1517800</v>
       </c>
       <c r="I9" s="3">
-        <v>1408000</v>
+        <v>1403700</v>
       </c>
       <c r="J9" s="3">
-        <v>1271000</v>
+        <v>1267200</v>
       </c>
       <c r="K9" s="3">
         <v>5825000</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19107600</v>
+        <v>19049700</v>
       </c>
       <c r="E10" s="3">
-        <v>19018200</v>
+        <v>18960600</v>
       </c>
       <c r="F10" s="3">
-        <v>13926100</v>
+        <v>13883900</v>
       </c>
       <c r="G10" s="3">
-        <v>11984100</v>
+        <v>11947700</v>
       </c>
       <c r="H10" s="3">
-        <v>11702000</v>
+        <v>11666500</v>
       </c>
       <c r="I10" s="3">
-        <v>10338700</v>
+        <v>10307400</v>
       </c>
       <c r="J10" s="3">
-        <v>9778700</v>
+        <v>9749000</v>
       </c>
       <c r="K10" s="3">
         <v>7589700</v>
@@ -902,22 +902,22 @@
         <v>6900</v>
       </c>
       <c r="E14" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="F14" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G14" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="H14" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="I14" s="3">
-        <v>102200</v>
+        <v>101800</v>
       </c>
       <c r="J14" s="3">
-        <v>75700</v>
+        <v>75500</v>
       </c>
       <c r="K14" s="3">
         <v>42300</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>937400</v>
+        <v>934600</v>
       </c>
       <c r="E15" s="3">
-        <v>879000</v>
+        <v>876400</v>
       </c>
       <c r="F15" s="3">
-        <v>874400</v>
+        <v>871800</v>
       </c>
       <c r="G15" s="3">
-        <v>1017200</v>
+        <v>1014100</v>
       </c>
       <c r="H15" s="3">
-        <v>931500</v>
+        <v>928700</v>
       </c>
       <c r="I15" s="3">
-        <v>984100</v>
+        <v>981100</v>
       </c>
       <c r="J15" s="3">
-        <v>639100</v>
+        <v>637200</v>
       </c>
       <c r="K15" s="3">
         <v>747600</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15536100</v>
+        <v>15489000</v>
       </c>
       <c r="E17" s="3">
-        <v>15046700</v>
+        <v>15001100</v>
       </c>
       <c r="F17" s="3">
-        <v>11905700</v>
+        <v>11869600</v>
       </c>
       <c r="G17" s="3">
-        <v>10028400</v>
+        <v>9998000</v>
       </c>
       <c r="H17" s="3">
-        <v>10006100</v>
+        <v>9975800</v>
       </c>
       <c r="I17" s="3">
-        <v>9599300</v>
+        <v>9570200</v>
       </c>
       <c r="J17" s="3">
-        <v>8182000</v>
+        <v>8157200</v>
       </c>
       <c r="K17" s="3">
         <v>9691600</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5183800</v>
+        <v>5168000</v>
       </c>
       <c r="E18" s="3">
-        <v>5476400</v>
+        <v>5459800</v>
       </c>
       <c r="F18" s="3">
-        <v>3592800</v>
+        <v>3581900</v>
       </c>
       <c r="G18" s="3">
-        <v>3436400</v>
+        <v>3426000</v>
       </c>
       <c r="H18" s="3">
-        <v>3218200</v>
+        <v>3208500</v>
       </c>
       <c r="I18" s="3">
-        <v>2147300</v>
+        <v>2140800</v>
       </c>
       <c r="J18" s="3">
-        <v>2867700</v>
+        <v>2859000</v>
       </c>
       <c r="K18" s="3">
         <v>3723100</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3147100</v>
+        <v>-3137500</v>
       </c>
       <c r="E20" s="3">
-        <v>8448400</v>
+        <v>8422800</v>
       </c>
       <c r="F20" s="3">
-        <v>-130900</v>
+        <v>-130500</v>
       </c>
       <c r="G20" s="3">
-        <v>-4272100</v>
+        <v>-4259200</v>
       </c>
       <c r="H20" s="3">
-        <v>9119300</v>
+        <v>9091700</v>
       </c>
       <c r="I20" s="3">
-        <v>12054000</v>
+        <v>12017400</v>
       </c>
       <c r="J20" s="3">
-        <v>1741200</v>
+        <v>1735900</v>
       </c>
       <c r="K20" s="3">
         <v>-24800</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2977000</v>
+        <v>2959400</v>
       </c>
       <c r="E21" s="3">
-        <v>14806500</v>
+        <v>14753600</v>
       </c>
       <c r="F21" s="3">
-        <v>4338900</v>
+        <v>4317800</v>
       </c>
       <c r="G21" s="3">
-        <v>184600</v>
+        <v>174700</v>
       </c>
       <c r="H21" s="3">
-        <v>13271900</v>
+        <v>13223200</v>
       </c>
       <c r="I21" s="3">
-        <v>15188400</v>
+        <v>15133400</v>
       </c>
       <c r="J21" s="3">
-        <v>5250000</v>
+        <v>5228300</v>
       </c>
       <c r="K21" s="3">
         <v>4451500</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>283300</v>
+        <v>282400</v>
       </c>
       <c r="E22" s="3">
-        <v>221800</v>
+        <v>221100</v>
       </c>
       <c r="F22" s="3">
-        <v>211400</v>
+        <v>210800</v>
       </c>
       <c r="G22" s="3">
-        <v>116500</v>
+        <v>116200</v>
       </c>
       <c r="H22" s="3">
-        <v>209100</v>
+        <v>208500</v>
       </c>
       <c r="I22" s="3">
-        <v>94100</v>
+        <v>93800</v>
       </c>
       <c r="J22" s="3">
-        <v>66300</v>
+        <v>66100</v>
       </c>
       <c r="K22" s="3">
         <v>83800</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1753400</v>
+        <v>1748100</v>
       </c>
       <c r="E23" s="3">
-        <v>13703000</v>
+        <v>13661500</v>
       </c>
       <c r="F23" s="3">
-        <v>3250500</v>
+        <v>3240600</v>
       </c>
       <c r="G23" s="3">
-        <v>-952300</v>
+        <v>-949400</v>
       </c>
       <c r="H23" s="3">
-        <v>12128500</v>
+        <v>12091700</v>
       </c>
       <c r="I23" s="3">
-        <v>14107200</v>
+        <v>14064400</v>
       </c>
       <c r="J23" s="3">
-        <v>4542600</v>
+        <v>4528900</v>
       </c>
       <c r="K23" s="3">
         <v>3614500</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>352700</v>
+        <v>351600</v>
       </c>
       <c r="E24" s="3">
-        <v>2486800</v>
+        <v>2479200</v>
       </c>
       <c r="F24" s="3">
-        <v>682100</v>
+        <v>680100</v>
       </c>
       <c r="G24" s="3">
-        <v>-134100</v>
+        <v>-133700</v>
       </c>
       <c r="H24" s="3">
-        <v>2083300</v>
+        <v>2077000</v>
       </c>
       <c r="I24" s="3">
-        <v>2436300</v>
+        <v>2428900</v>
       </c>
       <c r="J24" s="3">
-        <v>861600</v>
+        <v>858900</v>
       </c>
       <c r="K24" s="3">
         <v>703900</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1400700</v>
+        <v>1396500</v>
       </c>
       <c r="E26" s="3">
-        <v>11216300</v>
+        <v>11182200</v>
       </c>
       <c r="F26" s="3">
-        <v>2568300</v>
+        <v>2560500</v>
       </c>
       <c r="G26" s="3">
-        <v>-818200</v>
+        <v>-815700</v>
       </c>
       <c r="H26" s="3">
-        <v>10045100</v>
+        <v>10014700</v>
       </c>
       <c r="I26" s="3">
-        <v>11670900</v>
+        <v>11635600</v>
       </c>
       <c r="J26" s="3">
-        <v>3681100</v>
+        <v>3669900</v>
       </c>
       <c r="K26" s="3">
         <v>2910600</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1301700</v>
+        <v>1297800</v>
       </c>
       <c r="E27" s="3">
-        <v>10442000</v>
+        <v>10410300</v>
       </c>
       <c r="F27" s="3">
-        <v>2427300</v>
+        <v>2420000</v>
       </c>
       <c r="G27" s="3">
-        <v>-819100</v>
+        <v>-816600</v>
       </c>
       <c r="H27" s="3">
-        <v>9341900</v>
+        <v>9313600</v>
       </c>
       <c r="I27" s="3">
-        <v>10836800</v>
+        <v>10803900</v>
       </c>
       <c r="J27" s="3">
-        <v>3441200</v>
+        <v>3430700</v>
       </c>
       <c r="K27" s="3">
         <v>2730100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3147100</v>
+        <v>3137500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8448400</v>
+        <v>-8422800</v>
       </c>
       <c r="F32" s="3">
-        <v>130900</v>
+        <v>130500</v>
       </c>
       <c r="G32" s="3">
-        <v>4272100</v>
+        <v>4259200</v>
       </c>
       <c r="H32" s="3">
-        <v>-9119300</v>
+        <v>-9091700</v>
       </c>
       <c r="I32" s="3">
-        <v>-12054000</v>
+        <v>-12017400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1741200</v>
+        <v>-1735900</v>
       </c>
       <c r="K32" s="3">
         <v>24800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1301700</v>
+        <v>1297800</v>
       </c>
       <c r="E33" s="3">
-        <v>10442000</v>
+        <v>10410300</v>
       </c>
       <c r="F33" s="3">
-        <v>2427300</v>
+        <v>2420000</v>
       </c>
       <c r="G33" s="3">
-        <v>-819100</v>
+        <v>-816600</v>
       </c>
       <c r="H33" s="3">
-        <v>9341900</v>
+        <v>9313600</v>
       </c>
       <c r="I33" s="3">
-        <v>10836800</v>
+        <v>10803900</v>
       </c>
       <c r="J33" s="3">
-        <v>3441200</v>
+        <v>3430700</v>
       </c>
       <c r="K33" s="3">
         <v>2730100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1301700</v>
+        <v>1297800</v>
       </c>
       <c r="E35" s="3">
-        <v>10442000</v>
+        <v>10410300</v>
       </c>
       <c r="F35" s="3">
-        <v>2427300</v>
+        <v>2420000</v>
       </c>
       <c r="G35" s="3">
-        <v>-819100</v>
+        <v>-816600</v>
       </c>
       <c r="H35" s="3">
-        <v>9341900</v>
+        <v>9313600</v>
       </c>
       <c r="I35" s="3">
-        <v>10836800</v>
+        <v>10803900</v>
       </c>
       <c r="J35" s="3">
-        <v>3441200</v>
+        <v>3430700</v>
       </c>
       <c r="K35" s="3">
         <v>2730100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16049100</v>
+        <v>16000500</v>
       </c>
       <c r="E41" s="3">
-        <v>14500700</v>
+        <v>14456700</v>
       </c>
       <c r="F41" s="3">
-        <v>13809900</v>
+        <v>13768100</v>
       </c>
       <c r="G41" s="3">
-        <v>7561900</v>
+        <v>7539000</v>
       </c>
       <c r="H41" s="3">
-        <v>8347800</v>
+        <v>8322400</v>
       </c>
       <c r="I41" s="3">
-        <v>9962900</v>
+        <v>9932700</v>
       </c>
       <c r="J41" s="3">
-        <v>6282600</v>
+        <v>6263600</v>
       </c>
       <c r="K41" s="3">
         <v>5818600</v>
@@ -1690,22 +1690,22 @@
         <v>15800</v>
       </c>
       <c r="E42" s="3">
-        <v>28800</v>
+        <v>28700</v>
       </c>
       <c r="F42" s="3">
-        <v>35800</v>
+        <v>35600</v>
       </c>
       <c r="G42" s="3">
-        <v>70600</v>
+        <v>70400</v>
       </c>
       <c r="H42" s="3">
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="I42" s="3">
-        <v>63600</v>
+        <v>63400</v>
       </c>
       <c r="J42" s="3">
-        <v>117500</v>
+        <v>117100</v>
       </c>
       <c r="K42" s="3">
         <v>47000</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1800300</v>
+        <v>1794800</v>
       </c>
       <c r="E43" s="3">
-        <v>1806800</v>
+        <v>1801300</v>
       </c>
       <c r="F43" s="3">
-        <v>1579100</v>
+        <v>1574300</v>
       </c>
       <c r="G43" s="3">
-        <v>1743700</v>
+        <v>1738400</v>
       </c>
       <c r="H43" s="3">
-        <v>1138600</v>
+        <v>1135200</v>
       </c>
       <c r="I43" s="3">
-        <v>1180400</v>
+        <v>1176800</v>
       </c>
       <c r="J43" s="3">
-        <v>1275000</v>
+        <v>1271100</v>
       </c>
       <c r="K43" s="3">
         <v>1519600</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1289100</v>
+        <v>1285200</v>
       </c>
       <c r="E44" s="3">
-        <v>1191400</v>
+        <v>1187700</v>
       </c>
       <c r="F44" s="3">
-        <v>1072400</v>
+        <v>1069100</v>
       </c>
       <c r="G44" s="3">
-        <v>1122900</v>
+        <v>1119500</v>
       </c>
       <c r="H44" s="3">
-        <v>1000400</v>
+        <v>997300</v>
       </c>
       <c r="I44" s="3">
-        <v>863200</v>
+        <v>860600</v>
       </c>
       <c r="J44" s="3">
-        <v>725100</v>
+        <v>722900</v>
       </c>
       <c r="K44" s="3">
         <v>829500</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221600</v>
+        <v>220900</v>
       </c>
       <c r="E45" s="3">
-        <v>343400</v>
+        <v>342400</v>
       </c>
       <c r="F45" s="3">
-        <v>231400</v>
+        <v>230700</v>
       </c>
       <c r="G45" s="3">
-        <v>249900</v>
+        <v>249200</v>
       </c>
       <c r="H45" s="3">
-        <v>303800</v>
+        <v>302900</v>
       </c>
       <c r="I45" s="3">
-        <v>559300</v>
+        <v>557600</v>
       </c>
       <c r="J45" s="3">
-        <v>386200</v>
+        <v>385000</v>
       </c>
       <c r="K45" s="3">
         <v>453700</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19376000</v>
+        <v>19317200</v>
       </c>
       <c r="E46" s="3">
-        <v>17870900</v>
+        <v>17816800</v>
       </c>
       <c r="F46" s="3">
-        <v>16728500</v>
+        <v>16677800</v>
       </c>
       <c r="G46" s="3">
-        <v>10749000</v>
+        <v>10716400</v>
       </c>
       <c r="H46" s="3">
-        <v>10832600</v>
+        <v>10799700</v>
       </c>
       <c r="I46" s="3">
-        <v>12629400</v>
+        <v>12591100</v>
       </c>
       <c r="J46" s="3">
-        <v>8786400</v>
+        <v>8759700</v>
       </c>
       <c r="K46" s="3">
         <v>8668400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28720200</v>
+        <v>28633100</v>
       </c>
       <c r="E47" s="3">
-        <v>30321000</v>
+        <v>30229000</v>
       </c>
       <c r="F47" s="3">
-        <v>20163400</v>
+        <v>20102300</v>
       </c>
       <c r="G47" s="3">
-        <v>23233700</v>
+        <v>23163200</v>
       </c>
       <c r="H47" s="3">
-        <v>26209000</v>
+        <v>26129500</v>
       </c>
       <c r="I47" s="3">
-        <v>16137000</v>
+        <v>16088100</v>
       </c>
       <c r="J47" s="3">
-        <v>8689500</v>
+        <v>8663100</v>
       </c>
       <c r="K47" s="3">
         <v>9291600</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21249300</v>
+        <v>21184800</v>
       </c>
       <c r="E48" s="3">
-        <v>19417000</v>
+        <v>19358100</v>
       </c>
       <c r="F48" s="3">
-        <v>18871700</v>
+        <v>18814500</v>
       </c>
       <c r="G48" s="3">
-        <v>17563700</v>
+        <v>17510400</v>
       </c>
       <c r="H48" s="3">
-        <v>16234100</v>
+        <v>16184900</v>
       </c>
       <c r="I48" s="3">
-        <v>14673600</v>
+        <v>14629100</v>
       </c>
       <c r="J48" s="3">
-        <v>13820500</v>
+        <v>13778500</v>
       </c>
       <c r="K48" s="3">
         <v>14534300</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122700</v>
+        <v>122300</v>
       </c>
       <c r="E49" s="3">
-        <v>115400</v>
+        <v>115000</v>
       </c>
       <c r="F49" s="3">
-        <v>119800</v>
+        <v>119400</v>
       </c>
       <c r="G49" s="3">
-        <v>122300</v>
+        <v>121900</v>
       </c>
       <c r="H49" s="3">
-        <v>114300</v>
+        <v>114000</v>
       </c>
       <c r="I49" s="3">
-        <v>113000</v>
+        <v>112700</v>
       </c>
       <c r="J49" s="3">
-        <v>107400</v>
+        <v>107100</v>
       </c>
       <c r="K49" s="3">
         <v>131400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="E52" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="F52" s="3">
-        <v>38100</v>
+        <v>38000</v>
       </c>
       <c r="G52" s="3">
-        <v>57000</v>
+        <v>56800</v>
       </c>
       <c r="H52" s="3">
-        <v>52700</v>
+        <v>52500</v>
       </c>
       <c r="I52" s="3">
-        <v>54400</v>
+        <v>54200</v>
       </c>
       <c r="J52" s="3">
-        <v>54300</v>
+        <v>54100</v>
       </c>
       <c r="K52" s="3">
         <v>74800</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69483500</v>
+        <v>69272800</v>
       </c>
       <c r="E54" s="3">
-        <v>67741100</v>
+        <v>67535700</v>
       </c>
       <c r="F54" s="3">
-        <v>55921500</v>
+        <v>55751900</v>
       </c>
       <c r="G54" s="3">
-        <v>51725700</v>
+        <v>51568800</v>
       </c>
       <c r="H54" s="3">
-        <v>53442700</v>
+        <v>53280600</v>
       </c>
       <c r="I54" s="3">
-        <v>43607400</v>
+        <v>43475100</v>
       </c>
       <c r="J54" s="3">
-        <v>31458000</v>
+        <v>31362600</v>
       </c>
       <c r="K54" s="3">
         <v>32700500</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>179900</v>
+        <v>179300</v>
       </c>
       <c r="E57" s="3">
-        <v>153700</v>
+        <v>153300</v>
       </c>
       <c r="F57" s="3">
-        <v>136800</v>
+        <v>136400</v>
       </c>
       <c r="G57" s="3">
-        <v>124200</v>
+        <v>123800</v>
       </c>
       <c r="H57" s="3">
-        <v>135400</v>
+        <v>135000</v>
       </c>
       <c r="I57" s="3">
-        <v>133600</v>
+        <v>133200</v>
       </c>
       <c r="J57" s="3">
-        <v>118500</v>
+        <v>118200</v>
       </c>
       <c r="K57" s="3">
         <v>579300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3115100</v>
+        <v>17000</v>
       </c>
       <c r="E58" s="3">
-        <v>2600300</v>
+        <v>2592400</v>
       </c>
       <c r="F58" s="3">
-        <v>2433100</v>
+        <v>2425700</v>
       </c>
       <c r="G58" s="3">
-        <v>1183800</v>
+        <v>1180200</v>
       </c>
       <c r="H58" s="3">
-        <v>1043000</v>
+        <v>1039900</v>
       </c>
       <c r="I58" s="3">
-        <v>496900</v>
+        <v>495400</v>
       </c>
       <c r="J58" s="3">
-        <v>292300</v>
+        <v>291400</v>
       </c>
       <c r="K58" s="3">
         <v>289300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1964400</v>
+        <v>5047200</v>
       </c>
       <c r="E59" s="3">
-        <v>2161200</v>
+        <v>2154600</v>
       </c>
       <c r="F59" s="3">
-        <v>1700600</v>
+        <v>1695500</v>
       </c>
       <c r="G59" s="3">
-        <v>1493600</v>
+        <v>1489100</v>
       </c>
       <c r="H59" s="3">
-        <v>1738100</v>
+        <v>1732800</v>
       </c>
       <c r="I59" s="3">
-        <v>1715400</v>
+        <v>1710200</v>
       </c>
       <c r="J59" s="3">
-        <v>1182100</v>
+        <v>1178600</v>
       </c>
       <c r="K59" s="3">
         <v>680600</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5259400</v>
+        <v>5243500</v>
       </c>
       <c r="E60" s="3">
-        <v>4915200</v>
+        <v>4900300</v>
       </c>
       <c r="F60" s="3">
-        <v>4270500</v>
+        <v>4257600</v>
       </c>
       <c r="G60" s="3">
-        <v>2801500</v>
+        <v>2793000</v>
       </c>
       <c r="H60" s="3">
-        <v>2916600</v>
+        <v>2907700</v>
       </c>
       <c r="I60" s="3">
-        <v>2345900</v>
+        <v>2338800</v>
       </c>
       <c r="J60" s="3">
-        <v>1592900</v>
+        <v>1588100</v>
       </c>
       <c r="K60" s="3">
         <v>1549200</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>172400</v>
+        <v>171900</v>
       </c>
       <c r="E61" s="3">
-        <v>249700</v>
+        <v>249000</v>
       </c>
       <c r="F61" s="3">
-        <v>50800</v>
+        <v>50600</v>
       </c>
       <c r="G61" s="3">
-        <v>217800</v>
+        <v>217100</v>
       </c>
       <c r="H61" s="3">
-        <v>57400</v>
+        <v>57200</v>
       </c>
       <c r="I61" s="3">
-        <v>174100</v>
+        <v>173600</v>
       </c>
       <c r="J61" s="3">
-        <v>172400</v>
+        <v>171900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5364400</v>
+        <v>5348200</v>
       </c>
       <c r="E62" s="3">
-        <v>4192700</v>
+        <v>4180000</v>
       </c>
       <c r="F62" s="3">
-        <v>3942100</v>
+        <v>3930200</v>
       </c>
       <c r="G62" s="3">
-        <v>3261400</v>
+        <v>3251500</v>
       </c>
       <c r="H62" s="3">
-        <v>3213900</v>
+        <v>3204200</v>
       </c>
       <c r="I62" s="3">
-        <v>2717100</v>
+        <v>2708800</v>
       </c>
       <c r="J62" s="3">
-        <v>2486100</v>
+        <v>2478500</v>
       </c>
       <c r="K62" s="3">
         <v>2518500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10800400</v>
+        <v>10767600</v>
       </c>
       <c r="E66" s="3">
-        <v>9361400</v>
+        <v>9333000</v>
       </c>
       <c r="F66" s="3">
-        <v>8267400</v>
+        <v>8242300</v>
       </c>
       <c r="G66" s="3">
-        <v>6284000</v>
+        <v>6264900</v>
       </c>
       <c r="H66" s="3">
-        <v>6190300</v>
+        <v>6171600</v>
       </c>
       <c r="I66" s="3">
-        <v>5239300</v>
+        <v>5223400</v>
       </c>
       <c r="J66" s="3">
-        <v>4253700</v>
+        <v>4240800</v>
       </c>
       <c r="K66" s="3">
         <v>4070400</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55881000</v>
+        <v>55711500</v>
       </c>
       <c r="E72" s="3">
-        <v>55577500</v>
+        <v>55408900</v>
       </c>
       <c r="F72" s="3">
-        <v>44851900</v>
+        <v>44715900</v>
       </c>
       <c r="G72" s="3">
-        <v>42639600</v>
+        <v>42510200</v>
       </c>
       <c r="H72" s="3">
-        <v>44450200</v>
+        <v>44315400</v>
       </c>
       <c r="I72" s="3">
-        <v>35565900</v>
+        <v>35458100</v>
       </c>
       <c r="J72" s="3">
-        <v>24403200</v>
+        <v>24329200</v>
       </c>
       <c r="K72" s="3">
         <v>25276900</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58683200</v>
+        <v>58505200</v>
       </c>
       <c r="E76" s="3">
-        <v>58379700</v>
+        <v>58202600</v>
       </c>
       <c r="F76" s="3">
-        <v>47654100</v>
+        <v>47509600</v>
       </c>
       <c r="G76" s="3">
-        <v>45441800</v>
+        <v>45303900</v>
       </c>
       <c r="H76" s="3">
-        <v>47252400</v>
+        <v>47109100</v>
       </c>
       <c r="I76" s="3">
-        <v>38368100</v>
+        <v>38251800</v>
       </c>
       <c r="J76" s="3">
-        <v>27204300</v>
+        <v>27121800</v>
       </c>
       <c r="K76" s="3">
         <v>28630100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1301700</v>
+        <v>1297800</v>
       </c>
       <c r="E81" s="3">
-        <v>10442000</v>
+        <v>10410300</v>
       </c>
       <c r="F81" s="3">
-        <v>2427300</v>
+        <v>2420000</v>
       </c>
       <c r="G81" s="3">
-        <v>-819100</v>
+        <v>-816600</v>
       </c>
       <c r="H81" s="3">
-        <v>9341900</v>
+        <v>9313600</v>
       </c>
       <c r="I81" s="3">
-        <v>10836800</v>
+        <v>10803900</v>
       </c>
       <c r="J81" s="3">
-        <v>3441200</v>
+        <v>3430700</v>
       </c>
       <c r="K81" s="3">
         <v>2730100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>937400</v>
+        <v>934600</v>
       </c>
       <c r="E83" s="3">
-        <v>879000</v>
+        <v>876400</v>
       </c>
       <c r="F83" s="3">
-        <v>874400</v>
+        <v>871800</v>
       </c>
       <c r="G83" s="3">
-        <v>1017200</v>
+        <v>1014100</v>
       </c>
       <c r="H83" s="3">
-        <v>931500</v>
+        <v>928700</v>
       </c>
       <c r="I83" s="3">
-        <v>984100</v>
+        <v>981100</v>
       </c>
       <c r="J83" s="3">
-        <v>639100</v>
+        <v>637200</v>
       </c>
       <c r="K83" s="3">
         <v>747600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5530300</v>
+        <v>5513500</v>
       </c>
       <c r="E89" s="3">
-        <v>4623300</v>
+        <v>4609300</v>
       </c>
       <c r="F89" s="3">
-        <v>4696700</v>
+        <v>4682500</v>
       </c>
       <c r="G89" s="3">
-        <v>3461500</v>
+        <v>3451000</v>
       </c>
       <c r="H89" s="3">
-        <v>2624900</v>
+        <v>2616900</v>
       </c>
       <c r="I89" s="3">
-        <v>2389800</v>
+        <v>2382500</v>
       </c>
       <c r="J89" s="3">
-        <v>3396600</v>
+        <v>3386300</v>
       </c>
       <c r="K89" s="3">
         <v>3930400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100000</v>
+        <v>-2093700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1995500</v>
+        <v>-1989500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2112800</v>
+        <v>-2106400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2384600</v>
+        <v>-2377400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2253500</v>
+        <v>-2246700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2099200</v>
+        <v>-2092800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2331800</v>
+        <v>-2324800</v>
       </c>
       <c r="K91" s="3">
         <v>-2205900</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2879500</v>
+        <v>-2870800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3814800</v>
+        <v>-3803200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3829000</v>
+        <v>-3817400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2650900</v>
+        <v>-2642900</v>
       </c>
       <c r="H94" s="3">
-        <v>-818900</v>
+        <v>-816400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2222400</v>
+        <v>-2215600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3205700</v>
+        <v>-3196000</v>
       </c>
       <c r="K94" s="3">
         <v>-3055500</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1072800</v>
+        <v>-1069500</v>
       </c>
       <c r="E96" s="3">
-        <v>-445400</v>
+        <v>-444100</v>
       </c>
       <c r="F96" s="3">
-        <v>-344200</v>
+        <v>-343100</v>
       </c>
       <c r="G96" s="3">
-        <v>-979000</v>
+        <v>-976000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1130900</v>
+        <v>-1127500</v>
       </c>
       <c r="I96" s="3">
-        <v>-519900</v>
+        <v>-518300</v>
       </c>
       <c r="J96" s="3">
-        <v>-384300</v>
+        <v>-383100</v>
       </c>
       <c r="K96" s="3">
         <v>-596300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-841300</v>
+        <v>-838700</v>
       </c>
       <c r="E100" s="3">
-        <v>-258100</v>
+        <v>-257300</v>
       </c>
       <c r="F100" s="3">
-        <v>580000</v>
+        <v>578200</v>
       </c>
       <c r="G100" s="3">
-        <v>-741200</v>
+        <v>-739000</v>
       </c>
       <c r="H100" s="3">
-        <v>-804300</v>
+        <v>-801900</v>
       </c>
       <c r="I100" s="3">
-        <v>-373600</v>
+        <v>-372500</v>
       </c>
       <c r="J100" s="3">
-        <v>-298600</v>
+        <v>-297700</v>
       </c>
       <c r="K100" s="3">
         <v>-502200</v>
@@ -3468,19 +3468,19 @@
         <v>-17100</v>
       </c>
       <c r="E101" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F101" s="3">
         <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-46200</v>
+        <v>-46000</v>
       </c>
       <c r="H101" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="I101" s="3">
-        <v>139400</v>
+        <v>138900</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1792400</v>
+        <v>1786900</v>
       </c>
       <c r="E102" s="3">
-        <v>565100</v>
+        <v>563400</v>
       </c>
       <c r="F102" s="3">
-        <v>1451500</v>
+        <v>1447100</v>
       </c>
       <c r="G102" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="H102" s="3">
-        <v>1025900</v>
+        <v>1022800</v>
       </c>
       <c r="I102" s="3">
-        <v>-66900</v>
+        <v>-66700</v>
       </c>
       <c r="J102" s="3">
-        <v>-105200</v>
+        <v>-104900</v>
       </c>
       <c r="K102" s="3">
         <v>346700</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SGTZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20657000</v>
+        <v>14633800</v>
       </c>
       <c r="E8" s="3">
-        <v>20460900</v>
+        <v>21379600</v>
       </c>
       <c r="F8" s="3">
-        <v>15451500</v>
+        <v>21176600</v>
       </c>
       <c r="G8" s="3">
-        <v>13424000</v>
+        <v>15992000</v>
       </c>
       <c r="H8" s="3">
-        <v>13184300</v>
+        <v>13893500</v>
       </c>
       <c r="I8" s="3">
-        <v>11711000</v>
+        <v>13645500</v>
       </c>
       <c r="J8" s="3">
+        <v>12120700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11016200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13414800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12246000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1607400</v>
+        <v>1529300</v>
       </c>
       <c r="E9" s="3">
-        <v>1500300</v>
+        <v>1663600</v>
       </c>
       <c r="F9" s="3">
-        <v>1567600</v>
+        <v>1552800</v>
       </c>
       <c r="G9" s="3">
-        <v>1476200</v>
+        <v>1622400</v>
       </c>
       <c r="H9" s="3">
-        <v>1517800</v>
+        <v>1527800</v>
       </c>
       <c r="I9" s="3">
-        <v>1403700</v>
+        <v>1570900</v>
       </c>
       <c r="J9" s="3">
+        <v>1452800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1267200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5825000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12536100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19049700</v>
+        <v>13104400</v>
       </c>
       <c r="E10" s="3">
-        <v>18960600</v>
+        <v>19716000</v>
       </c>
       <c r="F10" s="3">
-        <v>13883900</v>
+        <v>19623800</v>
       </c>
       <c r="G10" s="3">
-        <v>11947700</v>
+        <v>14369600</v>
       </c>
       <c r="H10" s="3">
-        <v>11666500</v>
+        <v>12365700</v>
       </c>
       <c r="I10" s="3">
-        <v>10307400</v>
+        <v>12074600</v>
       </c>
       <c r="J10" s="3">
+        <v>10667900</v>
+      </c>
+      <c r="K10" s="3">
         <v>9749000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7589700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-290000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
+        <v>35500</v>
       </c>
       <c r="E14" s="3">
-        <v>20300</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="3">
-        <v>14400</v>
+        <v>21100</v>
       </c>
       <c r="G14" s="3">
-        <v>22700</v>
+        <v>14900</v>
       </c>
       <c r="H14" s="3">
-        <v>36500</v>
+        <v>23500</v>
       </c>
       <c r="I14" s="3">
-        <v>101800</v>
+        <v>37700</v>
       </c>
       <c r="J14" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K14" s="3">
         <v>75500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42300</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>934600</v>
+        <v>1140200</v>
       </c>
       <c r="E15" s="3">
-        <v>876400</v>
+        <v>967300</v>
       </c>
       <c r="F15" s="3">
-        <v>871800</v>
+        <v>907000</v>
       </c>
       <c r="G15" s="3">
-        <v>1014100</v>
+        <v>902300</v>
       </c>
       <c r="H15" s="3">
-        <v>928700</v>
+        <v>1049600</v>
       </c>
       <c r="I15" s="3">
-        <v>981100</v>
+        <v>961200</v>
       </c>
       <c r="J15" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="K15" s="3">
         <v>637200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>747600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>620900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15489000</v>
+        <v>12387300</v>
       </c>
       <c r="E17" s="3">
-        <v>15001100</v>
+        <v>16030800</v>
       </c>
       <c r="F17" s="3">
-        <v>11869600</v>
+        <v>15525800</v>
       </c>
       <c r="G17" s="3">
-        <v>9998000</v>
+        <v>12284800</v>
       </c>
       <c r="H17" s="3">
-        <v>9975800</v>
+        <v>10347700</v>
       </c>
       <c r="I17" s="3">
-        <v>9570200</v>
+        <v>10324700</v>
       </c>
       <c r="J17" s="3">
+        <v>9905000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8157200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9691600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8326500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5168000</v>
+        <v>2246500</v>
       </c>
       <c r="E18" s="3">
-        <v>5459800</v>
+        <v>5348800</v>
       </c>
       <c r="F18" s="3">
-        <v>3581900</v>
+        <v>5650800</v>
       </c>
       <c r="G18" s="3">
-        <v>3426000</v>
+        <v>3707200</v>
       </c>
       <c r="H18" s="3">
-        <v>3208500</v>
+        <v>3545800</v>
       </c>
       <c r="I18" s="3">
-        <v>2140800</v>
+        <v>3320700</v>
       </c>
       <c r="J18" s="3">
+        <v>2215700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2859000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3723100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3919500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3137500</v>
+        <v>10141900</v>
       </c>
       <c r="E20" s="3">
-        <v>8422800</v>
+        <v>-3247300</v>
       </c>
       <c r="F20" s="3">
-        <v>-130500</v>
+        <v>8717400</v>
       </c>
       <c r="G20" s="3">
-        <v>-4259200</v>
+        <v>-135100</v>
       </c>
       <c r="H20" s="3">
-        <v>9091700</v>
+        <v>-4408200</v>
       </c>
       <c r="I20" s="3">
-        <v>12017400</v>
+        <v>9409700</v>
       </c>
       <c r="J20" s="3">
+        <v>12437800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1735900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1422600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2959400</v>
+        <v>13529500</v>
       </c>
       <c r="E21" s="3">
-        <v>14753600</v>
+        <v>3069500</v>
       </c>
       <c r="F21" s="3">
-        <v>4317800</v>
+        <v>15275900</v>
       </c>
       <c r="G21" s="3">
-        <v>174700</v>
+        <v>4475000</v>
       </c>
       <c r="H21" s="3">
-        <v>13223200</v>
+        <v>188000</v>
       </c>
       <c r="I21" s="3">
-        <v>15133400</v>
+        <v>13692300</v>
       </c>
       <c r="J21" s="3">
+        <v>15669700</v>
+      </c>
+      <c r="K21" s="3">
         <v>5228300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4451500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5963900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>282400</v>
+        <v>284900</v>
       </c>
       <c r="E22" s="3">
-        <v>221100</v>
+        <v>292300</v>
       </c>
       <c r="F22" s="3">
-        <v>210800</v>
+        <v>228900</v>
       </c>
       <c r="G22" s="3">
-        <v>116200</v>
+        <v>218100</v>
       </c>
       <c r="H22" s="3">
-        <v>208500</v>
+        <v>120200</v>
       </c>
       <c r="I22" s="3">
-        <v>93800</v>
+        <v>215700</v>
       </c>
       <c r="J22" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K22" s="3">
         <v>66100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1748100</v>
+        <v>12103500</v>
       </c>
       <c r="E23" s="3">
-        <v>13661500</v>
+        <v>1809200</v>
       </c>
       <c r="F23" s="3">
-        <v>3240600</v>
+        <v>14139400</v>
       </c>
       <c r="G23" s="3">
-        <v>-949400</v>
+        <v>3354000</v>
       </c>
       <c r="H23" s="3">
-        <v>12091700</v>
+        <v>-982600</v>
       </c>
       <c r="I23" s="3">
-        <v>14064400</v>
+        <v>12514700</v>
       </c>
       <c r="J23" s="3">
+        <v>14556400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4528900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3614500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5293900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>351600</v>
+        <v>1992500</v>
       </c>
       <c r="E24" s="3">
-        <v>2479200</v>
+        <v>363900</v>
       </c>
       <c r="F24" s="3">
-        <v>680100</v>
+        <v>2565900</v>
       </c>
       <c r="G24" s="3">
-        <v>-133700</v>
+        <v>703800</v>
       </c>
       <c r="H24" s="3">
-        <v>2077000</v>
+        <v>-138300</v>
       </c>
       <c r="I24" s="3">
-        <v>2428900</v>
+        <v>2149700</v>
       </c>
       <c r="J24" s="3">
+        <v>2513800</v>
+      </c>
+      <c r="K24" s="3">
         <v>858900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>703900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1059000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1396500</v>
+        <v>10111000</v>
       </c>
       <c r="E26" s="3">
-        <v>11182200</v>
+        <v>1445300</v>
       </c>
       <c r="F26" s="3">
-        <v>2560500</v>
+        <v>11573400</v>
       </c>
       <c r="G26" s="3">
-        <v>-815700</v>
+        <v>2650100</v>
       </c>
       <c r="H26" s="3">
-        <v>10014700</v>
+        <v>-844300</v>
       </c>
       <c r="I26" s="3">
-        <v>11635600</v>
+        <v>10365000</v>
       </c>
       <c r="J26" s="3">
+        <v>12042600</v>
+      </c>
+      <c r="K26" s="3">
         <v>3669900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2910600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4234800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1297800</v>
+        <v>9406100</v>
       </c>
       <c r="E27" s="3">
-        <v>10410300</v>
+        <v>1343200</v>
       </c>
       <c r="F27" s="3">
-        <v>2420000</v>
+        <v>10774500</v>
       </c>
       <c r="G27" s="3">
-        <v>-816600</v>
+        <v>2504600</v>
       </c>
       <c r="H27" s="3">
-        <v>9313600</v>
+        <v>-845200</v>
       </c>
       <c r="I27" s="3">
-        <v>10803900</v>
+        <v>9639400</v>
       </c>
       <c r="J27" s="3">
+        <v>11181900</v>
+      </c>
+      <c r="K27" s="3">
         <v>3430700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2730100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3979700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1442,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3137500</v>
+        <v>-10141900</v>
       </c>
       <c r="E32" s="3">
-        <v>-8422800</v>
+        <v>3247300</v>
       </c>
       <c r="F32" s="3">
-        <v>130500</v>
+        <v>-8717400</v>
       </c>
       <c r="G32" s="3">
-        <v>4259200</v>
+        <v>135100</v>
       </c>
       <c r="H32" s="3">
-        <v>-9091700</v>
+        <v>4408200</v>
       </c>
       <c r="I32" s="3">
-        <v>-12017400</v>
+        <v>-9409700</v>
       </c>
       <c r="J32" s="3">
+        <v>-12437800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1735900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1422600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1297800</v>
+        <v>9406100</v>
       </c>
       <c r="E33" s="3">
-        <v>10410300</v>
+        <v>1343200</v>
       </c>
       <c r="F33" s="3">
-        <v>2420000</v>
+        <v>10774500</v>
       </c>
       <c r="G33" s="3">
-        <v>-816600</v>
+        <v>2504600</v>
       </c>
       <c r="H33" s="3">
-        <v>9313600</v>
+        <v>-845200</v>
       </c>
       <c r="I33" s="3">
-        <v>10803900</v>
+        <v>9639400</v>
       </c>
       <c r="J33" s="3">
+        <v>11181900</v>
+      </c>
+      <c r="K33" s="3">
         <v>3430700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2730100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3979700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1297800</v>
+        <v>9406100</v>
       </c>
       <c r="E35" s="3">
-        <v>10410300</v>
+        <v>1343200</v>
       </c>
       <c r="F35" s="3">
-        <v>2420000</v>
+        <v>10774500</v>
       </c>
       <c r="G35" s="3">
-        <v>-816600</v>
+        <v>2504600</v>
       </c>
       <c r="H35" s="3">
-        <v>9313600</v>
+        <v>-845200</v>
       </c>
       <c r="I35" s="3">
-        <v>10803900</v>
+        <v>9639400</v>
       </c>
       <c r="J35" s="3">
+        <v>11181900</v>
+      </c>
+      <c r="K35" s="3">
         <v>3430700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2730100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3979700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1734,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16000500</v>
+        <v>19258600</v>
       </c>
       <c r="E41" s="3">
-        <v>14456700</v>
+        <v>16560200</v>
       </c>
       <c r="F41" s="3">
-        <v>13768100</v>
+        <v>14962400</v>
       </c>
       <c r="G41" s="3">
-        <v>7539000</v>
+        <v>14249700</v>
       </c>
       <c r="H41" s="3">
-        <v>8322400</v>
+        <v>7802700</v>
       </c>
       <c r="I41" s="3">
-        <v>9932700</v>
+        <v>8613600</v>
       </c>
       <c r="J41" s="3">
+        <v>10280200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6263600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5818600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6148000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>17800</v>
       </c>
       <c r="E42" s="3">
-        <v>28700</v>
+        <v>16300</v>
       </c>
       <c r="F42" s="3">
-        <v>35600</v>
+        <v>29700</v>
       </c>
       <c r="G42" s="3">
-        <v>70400</v>
+        <v>36900</v>
       </c>
       <c r="H42" s="3">
-        <v>41900</v>
+        <v>72900</v>
       </c>
       <c r="I42" s="3">
-        <v>63400</v>
+        <v>43300</v>
       </c>
       <c r="J42" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K42" s="3">
         <v>117100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5541800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1794800</v>
+        <v>1897500</v>
       </c>
       <c r="E43" s="3">
-        <v>1801300</v>
+        <v>1857600</v>
       </c>
       <c r="F43" s="3">
-        <v>1574300</v>
+        <v>1864300</v>
       </c>
       <c r="G43" s="3">
-        <v>1738400</v>
+        <v>1629300</v>
       </c>
       <c r="H43" s="3">
-        <v>1135200</v>
+        <v>1799200</v>
       </c>
       <c r="I43" s="3">
-        <v>1176800</v>
+        <v>1174900</v>
       </c>
       <c r="J43" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1271100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1519600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1432800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1285200</v>
+        <v>1258200</v>
       </c>
       <c r="E44" s="3">
-        <v>1187700</v>
+        <v>1330200</v>
       </c>
       <c r="F44" s="3">
-        <v>1069100</v>
+        <v>1229300</v>
       </c>
       <c r="G44" s="3">
-        <v>1119500</v>
+        <v>1106500</v>
       </c>
       <c r="H44" s="3">
-        <v>997300</v>
+        <v>1158600</v>
       </c>
       <c r="I44" s="3">
-        <v>860600</v>
+        <v>1032200</v>
       </c>
       <c r="J44" s="3">
+        <v>890700</v>
+      </c>
+      <c r="K44" s="3">
         <v>722900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>829500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1808500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>220900</v>
+        <v>153100</v>
       </c>
       <c r="E45" s="3">
-        <v>342400</v>
+        <v>228700</v>
       </c>
       <c r="F45" s="3">
-        <v>230700</v>
+        <v>354300</v>
       </c>
       <c r="G45" s="3">
-        <v>249200</v>
+        <v>238700</v>
       </c>
       <c r="H45" s="3">
-        <v>302900</v>
+        <v>257900</v>
       </c>
       <c r="I45" s="3">
-        <v>557600</v>
+        <v>313500</v>
       </c>
       <c r="J45" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K45" s="3">
         <v>385000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>453700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>554400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19317200</v>
+        <v>22585200</v>
       </c>
       <c r="E46" s="3">
-        <v>17816800</v>
+        <v>19993000</v>
       </c>
       <c r="F46" s="3">
-        <v>16677800</v>
+        <v>18440000</v>
       </c>
       <c r="G46" s="3">
-        <v>10716400</v>
+        <v>17261200</v>
       </c>
       <c r="H46" s="3">
-        <v>10799700</v>
+        <v>11091300</v>
       </c>
       <c r="I46" s="3">
-        <v>12591100</v>
+        <v>11177500</v>
       </c>
       <c r="J46" s="3">
+        <v>13031600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8759700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8668400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8798100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28633100</v>
+        <v>33337600</v>
       </c>
       <c r="E47" s="3">
-        <v>30229000</v>
+        <v>29634700</v>
       </c>
       <c r="F47" s="3">
-        <v>20102300</v>
+        <v>31286500</v>
       </c>
       <c r="G47" s="3">
-        <v>23163200</v>
+        <v>20805500</v>
       </c>
       <c r="H47" s="3">
-        <v>26129500</v>
+        <v>23973500</v>
       </c>
       <c r="I47" s="3">
-        <v>16088100</v>
+        <v>27043600</v>
       </c>
       <c r="J47" s="3">
+        <v>16650900</v>
+      </c>
+      <c r="K47" s="3">
         <v>8663100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9291600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15075600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21184800</v>
+        <v>23902000</v>
       </c>
       <c r="E48" s="3">
-        <v>19358100</v>
+        <v>21925900</v>
       </c>
       <c r="F48" s="3">
-        <v>18814500</v>
+        <v>20035300</v>
       </c>
       <c r="G48" s="3">
-        <v>17510400</v>
+        <v>19472600</v>
       </c>
       <c r="H48" s="3">
-        <v>16184900</v>
+        <v>18123000</v>
       </c>
       <c r="I48" s="3">
-        <v>14629100</v>
+        <v>16751000</v>
       </c>
       <c r="J48" s="3">
+        <v>15140800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13778500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14534300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21977200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122300</v>
+        <v>127000</v>
       </c>
       <c r="E49" s="3">
-        <v>115000</v>
+        <v>126600</v>
       </c>
       <c r="F49" s="3">
-        <v>119400</v>
+        <v>119100</v>
       </c>
       <c r="G49" s="3">
-        <v>121900</v>
+        <v>123600</v>
       </c>
       <c r="H49" s="3">
-        <v>114000</v>
+        <v>126200</v>
       </c>
       <c r="I49" s="3">
-        <v>112700</v>
+        <v>118000</v>
       </c>
       <c r="J49" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K49" s="3">
         <v>107100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>236200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15400</v>
+        <v>16300</v>
       </c>
       <c r="E52" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="F52" s="3">
-        <v>38000</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
-        <v>56800</v>
+        <v>39300</v>
       </c>
       <c r="H52" s="3">
-        <v>52500</v>
+        <v>58800</v>
       </c>
       <c r="I52" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="J52" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K52" s="3">
         <v>54100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69272800</v>
+        <v>79968100</v>
       </c>
       <c r="E54" s="3">
-        <v>67535700</v>
+        <v>71696100</v>
       </c>
       <c r="F54" s="3">
-        <v>55751900</v>
+        <v>69898100</v>
       </c>
       <c r="G54" s="3">
-        <v>51568800</v>
+        <v>57702200</v>
       </c>
       <c r="H54" s="3">
-        <v>53280600</v>
+        <v>53372800</v>
       </c>
       <c r="I54" s="3">
-        <v>43475100</v>
+        <v>55144400</v>
       </c>
       <c r="J54" s="3">
+        <v>44995900</v>
+      </c>
+      <c r="K54" s="3">
         <v>31362600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32700500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29199200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>179300</v>
+        <v>223100</v>
       </c>
       <c r="E57" s="3">
-        <v>153300</v>
+        <v>185600</v>
       </c>
       <c r="F57" s="3">
-        <v>136400</v>
+        <v>158600</v>
       </c>
       <c r="G57" s="3">
-        <v>123800</v>
+        <v>141200</v>
       </c>
       <c r="H57" s="3">
-        <v>135000</v>
+        <v>128100</v>
       </c>
       <c r="I57" s="3">
-        <v>133200</v>
+        <v>139800</v>
       </c>
       <c r="J57" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K57" s="3">
         <v>118200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>579300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1682600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="E58" s="3">
-        <v>2592400</v>
+        <v>17500</v>
       </c>
       <c r="F58" s="3">
-        <v>2425700</v>
+        <v>2683000</v>
       </c>
       <c r="G58" s="3">
-        <v>1180200</v>
+        <v>2510500</v>
       </c>
       <c r="H58" s="3">
-        <v>1039900</v>
+        <v>1221500</v>
       </c>
       <c r="I58" s="3">
-        <v>495400</v>
+        <v>1076200</v>
       </c>
       <c r="J58" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K58" s="3">
         <v>291400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>289300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>234400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5047200</v>
+        <v>2941700</v>
       </c>
       <c r="E59" s="3">
-        <v>2154600</v>
+        <v>5223800</v>
       </c>
       <c r="F59" s="3">
-        <v>1695500</v>
+        <v>2230000</v>
       </c>
       <c r="G59" s="3">
-        <v>1489100</v>
+        <v>1754800</v>
       </c>
       <c r="H59" s="3">
-        <v>1732800</v>
+        <v>1541200</v>
       </c>
       <c r="I59" s="3">
-        <v>1710200</v>
+        <v>1793400</v>
       </c>
       <c r="J59" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1178600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>680600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>821100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5243500</v>
+        <v>3180800</v>
       </c>
       <c r="E60" s="3">
-        <v>4900300</v>
+        <v>5426900</v>
       </c>
       <c r="F60" s="3">
-        <v>4257600</v>
+        <v>5071700</v>
       </c>
       <c r="G60" s="3">
-        <v>2793000</v>
+        <v>4406500</v>
       </c>
       <c r="H60" s="3">
-        <v>2907700</v>
+        <v>2890800</v>
       </c>
       <c r="I60" s="3">
-        <v>2338800</v>
+        <v>3009400</v>
       </c>
       <c r="J60" s="3">
+        <v>2420600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1588100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1549200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1579200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>177900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>257700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>52400</v>
+      </c>
+      <c r="H61" s="3">
+        <v>224700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K61" s="3">
         <v>171900</v>
       </c>
-      <c r="E61" s="3">
-        <v>249000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>50600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>217100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>57200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>173600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>171900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5348200</v>
+        <v>6516200</v>
       </c>
       <c r="E62" s="3">
-        <v>4180000</v>
+        <v>5535300</v>
       </c>
       <c r="F62" s="3">
-        <v>3930200</v>
+        <v>4326200</v>
       </c>
       <c r="G62" s="3">
-        <v>3251500</v>
+        <v>4067600</v>
       </c>
       <c r="H62" s="3">
-        <v>3204200</v>
+        <v>3365200</v>
       </c>
       <c r="I62" s="3">
-        <v>2708800</v>
+        <v>3316300</v>
       </c>
       <c r="J62" s="3">
+        <v>2803600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2478500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2518500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1884500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10767600</v>
+        <v>9739500</v>
       </c>
       <c r="E66" s="3">
-        <v>9333000</v>
+        <v>11144300</v>
       </c>
       <c r="F66" s="3">
-        <v>8242300</v>
+        <v>9659500</v>
       </c>
       <c r="G66" s="3">
-        <v>6264900</v>
+        <v>8530600</v>
       </c>
       <c r="H66" s="3">
-        <v>6171600</v>
+        <v>6484000</v>
       </c>
       <c r="I66" s="3">
-        <v>5223400</v>
+        <v>6387400</v>
       </c>
       <c r="J66" s="3">
+        <v>5406100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4240800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4070400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3465800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55711500</v>
+        <v>67337100</v>
       </c>
       <c r="E72" s="3">
-        <v>55408900</v>
+        <v>57660300</v>
       </c>
       <c r="F72" s="3">
-        <v>44715900</v>
+        <v>57347200</v>
       </c>
       <c r="G72" s="3">
-        <v>42510200</v>
+        <v>46280100</v>
       </c>
       <c r="H72" s="3">
-        <v>44315400</v>
+        <v>43997300</v>
       </c>
       <c r="I72" s="3">
-        <v>35458100</v>
+        <v>45865600</v>
       </c>
       <c r="J72" s="3">
+        <v>36698400</v>
+      </c>
+      <c r="K72" s="3">
         <v>24329200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25276900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22505800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58505200</v>
+        <v>70228600</v>
       </c>
       <c r="E76" s="3">
-        <v>58202600</v>
+        <v>60551800</v>
       </c>
       <c r="F76" s="3">
-        <v>47509600</v>
+        <v>60238600</v>
       </c>
       <c r="G76" s="3">
-        <v>45303900</v>
+        <v>49171600</v>
       </c>
       <c r="H76" s="3">
-        <v>47109100</v>
+        <v>46888700</v>
       </c>
       <c r="I76" s="3">
-        <v>38251800</v>
+        <v>48757000</v>
       </c>
       <c r="J76" s="3">
+        <v>39589800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27121800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28630100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25733400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1297800</v>
+        <v>9406100</v>
       </c>
       <c r="E81" s="3">
-        <v>10410300</v>
+        <v>1343200</v>
       </c>
       <c r="F81" s="3">
-        <v>2420000</v>
+        <v>10774500</v>
       </c>
       <c r="G81" s="3">
-        <v>-816600</v>
+        <v>2504600</v>
       </c>
       <c r="H81" s="3">
-        <v>9313600</v>
+        <v>-845200</v>
       </c>
       <c r="I81" s="3">
-        <v>10803900</v>
+        <v>9639400</v>
       </c>
       <c r="J81" s="3">
+        <v>11181900</v>
+      </c>
+      <c r="K81" s="3">
         <v>3430700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2730100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3979700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>934600</v>
+        <v>1140200</v>
       </c>
       <c r="E83" s="3">
-        <v>876400</v>
+        <v>967300</v>
       </c>
       <c r="F83" s="3">
-        <v>871800</v>
+        <v>907000</v>
       </c>
       <c r="G83" s="3">
-        <v>1014100</v>
+        <v>902300</v>
       </c>
       <c r="H83" s="3">
-        <v>928700</v>
+        <v>1049600</v>
       </c>
       <c r="I83" s="3">
-        <v>981100</v>
+        <v>961200</v>
       </c>
       <c r="J83" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="K83" s="3">
         <v>637200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>747600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>620900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5513500</v>
+        <v>1761500</v>
       </c>
       <c r="E89" s="3">
-        <v>4609300</v>
+        <v>5706400</v>
       </c>
       <c r="F89" s="3">
-        <v>4682500</v>
+        <v>4770500</v>
       </c>
       <c r="G89" s="3">
-        <v>3451000</v>
+        <v>4846300</v>
       </c>
       <c r="H89" s="3">
-        <v>2616900</v>
+        <v>3571700</v>
       </c>
       <c r="I89" s="3">
-        <v>2382500</v>
+        <v>2708400</v>
       </c>
       <c r="J89" s="3">
+        <v>2465900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3386300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3930400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3694400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2093700</v>
+        <v>-2331300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1989500</v>
+        <v>-2166900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2106400</v>
+        <v>-2059100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2377400</v>
+        <v>-2180100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2246700</v>
+        <v>-2460500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2092800</v>
+        <v>-2325300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2166100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2324800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2205900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1939700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2870800</v>
+        <v>-1924100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3803200</v>
+        <v>-2971200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3817400</v>
+        <v>-3936300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2642900</v>
+        <v>-3950900</v>
       </c>
       <c r="H94" s="3">
-        <v>-816400</v>
+        <v>-2735300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2215600</v>
+        <v>-845000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2293100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3196000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3055500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3296500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3527,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1069500</v>
+        <v>-417100</v>
       </c>
       <c r="E96" s="3">
-        <v>-444100</v>
+        <v>-1107000</v>
       </c>
       <c r="F96" s="3">
-        <v>-343100</v>
+        <v>-459600</v>
       </c>
       <c r="G96" s="3">
-        <v>-976000</v>
+        <v>-355100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1127500</v>
+        <v>-1010100</v>
       </c>
       <c r="I96" s="3">
-        <v>-518300</v>
+        <v>-1166900</v>
       </c>
       <c r="J96" s="3">
+        <v>-536400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-383100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-596300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-418100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-838700</v>
+        <v>-2798100</v>
       </c>
       <c r="E100" s="3">
-        <v>-257300</v>
+        <v>-868100</v>
       </c>
       <c r="F100" s="3">
-        <v>578200</v>
+        <v>-266300</v>
       </c>
       <c r="G100" s="3">
-        <v>-739000</v>
+        <v>598500</v>
       </c>
       <c r="H100" s="3">
-        <v>-801900</v>
+        <v>-764800</v>
       </c>
       <c r="I100" s="3">
-        <v>-372500</v>
+        <v>-829900</v>
       </c>
       <c r="J100" s="3">
+        <v>-385500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-297700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-502200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-487100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17100</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>14600</v>
+        <v>-17700</v>
       </c>
       <c r="F101" s="3">
-        <v>3800</v>
+        <v>15200</v>
       </c>
       <c r="G101" s="3">
-        <v>-46000</v>
+        <v>3900</v>
       </c>
       <c r="H101" s="3">
-        <v>24200</v>
+        <v>-47600</v>
       </c>
       <c r="I101" s="3">
-        <v>138900</v>
+        <v>25000</v>
       </c>
       <c r="J101" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1786900</v>
+        <v>-2959100</v>
       </c>
       <c r="E102" s="3">
-        <v>563400</v>
+        <v>1849400</v>
       </c>
       <c r="F102" s="3">
-        <v>1447100</v>
+        <v>583100</v>
       </c>
       <c r="G102" s="3">
-        <v>23100</v>
+        <v>1497800</v>
       </c>
       <c r="H102" s="3">
-        <v>1022800</v>
+        <v>23900</v>
       </c>
       <c r="I102" s="3">
-        <v>-66700</v>
+        <v>1058500</v>
       </c>
       <c r="J102" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-104900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>346700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14633800</v>
+        <v>14537000</v>
       </c>
       <c r="E8" s="3">
-        <v>21379600</v>
+        <v>21238200</v>
       </c>
       <c r="F8" s="3">
-        <v>21176600</v>
+        <v>21036600</v>
       </c>
       <c r="G8" s="3">
-        <v>15992000</v>
+        <v>15886300</v>
       </c>
       <c r="H8" s="3">
-        <v>13893500</v>
+        <v>13801700</v>
       </c>
       <c r="I8" s="3">
-        <v>13645500</v>
+        <v>13555200</v>
       </c>
       <c r="J8" s="3">
-        <v>12120700</v>
+        <v>12040600</v>
       </c>
       <c r="K8" s="3">
         <v>11016200</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1529300</v>
+        <v>1519200</v>
       </c>
       <c r="E9" s="3">
-        <v>1663600</v>
+        <v>1652600</v>
       </c>
       <c r="F9" s="3">
-        <v>1552800</v>
+        <v>1542500</v>
       </c>
       <c r="G9" s="3">
-        <v>1622400</v>
+        <v>1611700</v>
       </c>
       <c r="H9" s="3">
-        <v>1527800</v>
+        <v>1517700</v>
       </c>
       <c r="I9" s="3">
-        <v>1570900</v>
+        <v>1560500</v>
       </c>
       <c r="J9" s="3">
-        <v>1452800</v>
+        <v>1443200</v>
       </c>
       <c r="K9" s="3">
         <v>1267200</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13104400</v>
+        <v>13017800</v>
       </c>
       <c r="E10" s="3">
-        <v>19716000</v>
+        <v>19585700</v>
       </c>
       <c r="F10" s="3">
-        <v>19623800</v>
+        <v>19494100</v>
       </c>
       <c r="G10" s="3">
-        <v>14369600</v>
+        <v>14274500</v>
       </c>
       <c r="H10" s="3">
-        <v>12365700</v>
+        <v>12283900</v>
       </c>
       <c r="I10" s="3">
-        <v>12074600</v>
+        <v>11994800</v>
       </c>
       <c r="J10" s="3">
-        <v>10667900</v>
+        <v>10597400</v>
       </c>
       <c r="K10" s="3">
         <v>9749000</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="E14" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="G14" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H14" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="I14" s="3">
-        <v>37700</v>
+        <v>37500</v>
       </c>
       <c r="J14" s="3">
-        <v>105400</v>
+        <v>104700</v>
       </c>
       <c r="K14" s="3">
         <v>75500</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1140200</v>
+        <v>1132700</v>
       </c>
       <c r="E15" s="3">
-        <v>967300</v>
+        <v>960900</v>
       </c>
       <c r="F15" s="3">
-        <v>907000</v>
+        <v>901000</v>
       </c>
       <c r="G15" s="3">
-        <v>902300</v>
+        <v>896300</v>
       </c>
       <c r="H15" s="3">
-        <v>1049600</v>
+        <v>1042700</v>
       </c>
       <c r="I15" s="3">
-        <v>961200</v>
+        <v>954800</v>
       </c>
       <c r="J15" s="3">
-        <v>1015500</v>
+        <v>1008700</v>
       </c>
       <c r="K15" s="3">
         <v>637200</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12387300</v>
+        <v>12305300</v>
       </c>
       <c r="E17" s="3">
-        <v>16030800</v>
+        <v>15924800</v>
       </c>
       <c r="F17" s="3">
-        <v>15525800</v>
+        <v>15423100</v>
       </c>
       <c r="G17" s="3">
-        <v>12284800</v>
+        <v>12203600</v>
       </c>
       <c r="H17" s="3">
-        <v>10347700</v>
+        <v>10279300</v>
       </c>
       <c r="I17" s="3">
-        <v>10324700</v>
+        <v>10256500</v>
       </c>
       <c r="J17" s="3">
-        <v>9905000</v>
+        <v>9839500</v>
       </c>
       <c r="K17" s="3">
         <v>8157200</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2246500</v>
+        <v>2231700</v>
       </c>
       <c r="E18" s="3">
-        <v>5348800</v>
+        <v>5313500</v>
       </c>
       <c r="F18" s="3">
-        <v>5650800</v>
+        <v>5613400</v>
       </c>
       <c r="G18" s="3">
-        <v>3707200</v>
+        <v>3682700</v>
       </c>
       <c r="H18" s="3">
-        <v>3545800</v>
+        <v>3522400</v>
       </c>
       <c r="I18" s="3">
-        <v>3320700</v>
+        <v>3298800</v>
       </c>
       <c r="J18" s="3">
-        <v>2215700</v>
+        <v>2201100</v>
       </c>
       <c r="K18" s="3">
         <v>2859000</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10141900</v>
+        <v>10074900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3247300</v>
+        <v>-3225800</v>
       </c>
       <c r="F20" s="3">
-        <v>8717400</v>
+        <v>8659800</v>
       </c>
       <c r="G20" s="3">
-        <v>-135100</v>
+        <v>-134200</v>
       </c>
       <c r="H20" s="3">
-        <v>-4408200</v>
+        <v>-4379000</v>
       </c>
       <c r="I20" s="3">
-        <v>9409700</v>
+        <v>9347500</v>
       </c>
       <c r="J20" s="3">
-        <v>12437800</v>
+        <v>12355600</v>
       </c>
       <c r="K20" s="3">
         <v>1735900</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13529500</v>
+        <v>13446700</v>
       </c>
       <c r="E21" s="3">
-        <v>3069500</v>
+        <v>3054900</v>
       </c>
       <c r="F21" s="3">
-        <v>15275900</v>
+        <v>15180200</v>
       </c>
       <c r="G21" s="3">
-        <v>4475000</v>
+        <v>4450700</v>
       </c>
       <c r="H21" s="3">
-        <v>188000</v>
+        <v>192900</v>
       </c>
       <c r="I21" s="3">
-        <v>13692300</v>
+        <v>13607400</v>
       </c>
       <c r="J21" s="3">
-        <v>15669700</v>
+        <v>15572100</v>
       </c>
       <c r="K21" s="3">
         <v>5228300</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>284900</v>
+        <v>283100</v>
       </c>
       <c r="E22" s="3">
-        <v>292300</v>
+        <v>290400</v>
       </c>
       <c r="F22" s="3">
-        <v>228900</v>
+        <v>227400</v>
       </c>
       <c r="G22" s="3">
-        <v>218100</v>
+        <v>216700</v>
       </c>
       <c r="H22" s="3">
-        <v>120200</v>
+        <v>119400</v>
       </c>
       <c r="I22" s="3">
-        <v>215700</v>
+        <v>214300</v>
       </c>
       <c r="J22" s="3">
-        <v>97100</v>
+        <v>96500</v>
       </c>
       <c r="K22" s="3">
         <v>66100</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12103500</v>
+        <v>12023500</v>
       </c>
       <c r="E23" s="3">
-        <v>1809200</v>
+        <v>1797300</v>
       </c>
       <c r="F23" s="3">
-        <v>14139400</v>
+        <v>14045900</v>
       </c>
       <c r="G23" s="3">
-        <v>3354000</v>
+        <v>3331800</v>
       </c>
       <c r="H23" s="3">
-        <v>-982600</v>
+        <v>-976100</v>
       </c>
       <c r="I23" s="3">
-        <v>12514700</v>
+        <v>12431900</v>
       </c>
       <c r="J23" s="3">
-        <v>14556400</v>
+        <v>14460200</v>
       </c>
       <c r="K23" s="3">
         <v>4528900</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1992500</v>
+        <v>1979300</v>
       </c>
       <c r="E24" s="3">
-        <v>363900</v>
+        <v>361500</v>
       </c>
       <c r="F24" s="3">
-        <v>2565900</v>
+        <v>2549000</v>
       </c>
       <c r="G24" s="3">
-        <v>703800</v>
+        <v>699200</v>
       </c>
       <c r="H24" s="3">
-        <v>-138300</v>
+        <v>-137400</v>
       </c>
       <c r="I24" s="3">
-        <v>2149700</v>
+        <v>2135500</v>
       </c>
       <c r="J24" s="3">
-        <v>2513800</v>
+        <v>2497200</v>
       </c>
       <c r="K24" s="3">
         <v>858900</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10111000</v>
+        <v>10044100</v>
       </c>
       <c r="E26" s="3">
-        <v>1445300</v>
+        <v>1435800</v>
       </c>
       <c r="F26" s="3">
-        <v>11573400</v>
+        <v>11496900</v>
       </c>
       <c r="G26" s="3">
-        <v>2650100</v>
+        <v>2632600</v>
       </c>
       <c r="H26" s="3">
-        <v>-844300</v>
+        <v>-838700</v>
       </c>
       <c r="I26" s="3">
-        <v>10365000</v>
+        <v>10296500</v>
       </c>
       <c r="J26" s="3">
-        <v>12042600</v>
+        <v>11962900</v>
       </c>
       <c r="K26" s="3">
         <v>3669900</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9406100</v>
+        <v>9343900</v>
       </c>
       <c r="E27" s="3">
-        <v>1343200</v>
+        <v>1334300</v>
       </c>
       <c r="F27" s="3">
-        <v>10774500</v>
+        <v>10703300</v>
       </c>
       <c r="G27" s="3">
-        <v>2504600</v>
+        <v>2488100</v>
       </c>
       <c r="H27" s="3">
-        <v>-845200</v>
+        <v>-839600</v>
       </c>
       <c r="I27" s="3">
-        <v>9639400</v>
+        <v>9575700</v>
       </c>
       <c r="J27" s="3">
-        <v>11181900</v>
+        <v>11107900</v>
       </c>
       <c r="K27" s="3">
         <v>3430700</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10141900</v>
+        <v>-10074900</v>
       </c>
       <c r="E32" s="3">
-        <v>3247300</v>
+        <v>3225800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8717400</v>
+        <v>-8659800</v>
       </c>
       <c r="G32" s="3">
-        <v>135100</v>
+        <v>134200</v>
       </c>
       <c r="H32" s="3">
-        <v>4408200</v>
+        <v>4379000</v>
       </c>
       <c r="I32" s="3">
-        <v>-9409700</v>
+        <v>-9347500</v>
       </c>
       <c r="J32" s="3">
-        <v>-12437800</v>
+        <v>-12355600</v>
       </c>
       <c r="K32" s="3">
         <v>-1735900</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9406100</v>
+        <v>9343900</v>
       </c>
       <c r="E33" s="3">
-        <v>1343200</v>
+        <v>1334300</v>
       </c>
       <c r="F33" s="3">
-        <v>10774500</v>
+        <v>10703300</v>
       </c>
       <c r="G33" s="3">
-        <v>2504600</v>
+        <v>2488100</v>
       </c>
       <c r="H33" s="3">
-        <v>-845200</v>
+        <v>-839600</v>
       </c>
       <c r="I33" s="3">
-        <v>9639400</v>
+        <v>9575700</v>
       </c>
       <c r="J33" s="3">
-        <v>11181900</v>
+        <v>11107900</v>
       </c>
       <c r="K33" s="3">
         <v>3430700</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9406100</v>
+        <v>9343900</v>
       </c>
       <c r="E35" s="3">
-        <v>1343200</v>
+        <v>1334300</v>
       </c>
       <c r="F35" s="3">
-        <v>10774500</v>
+        <v>10703300</v>
       </c>
       <c r="G35" s="3">
-        <v>2504600</v>
+        <v>2488100</v>
       </c>
       <c r="H35" s="3">
-        <v>-845200</v>
+        <v>-839600</v>
       </c>
       <c r="I35" s="3">
-        <v>9639400</v>
+        <v>9575700</v>
       </c>
       <c r="J35" s="3">
-        <v>11181900</v>
+        <v>11107900</v>
       </c>
       <c r="K35" s="3">
         <v>3430700</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19258600</v>
+        <v>19131200</v>
       </c>
       <c r="E41" s="3">
-        <v>16560200</v>
+        <v>16450700</v>
       </c>
       <c r="F41" s="3">
-        <v>14962400</v>
+        <v>14863400</v>
       </c>
       <c r="G41" s="3">
-        <v>14249700</v>
+        <v>14155500</v>
       </c>
       <c r="H41" s="3">
-        <v>7802700</v>
+        <v>7751100</v>
       </c>
       <c r="I41" s="3">
-        <v>8613600</v>
+        <v>8556600</v>
       </c>
       <c r="J41" s="3">
-        <v>10280200</v>
+        <v>10212200</v>
       </c>
       <c r="K41" s="3">
         <v>6263600</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="E42" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="F42" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="G42" s="3">
-        <v>36900</v>
+        <v>36700</v>
       </c>
       <c r="H42" s="3">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="I42" s="3">
-        <v>43300</v>
+        <v>43000</v>
       </c>
       <c r="J42" s="3">
-        <v>65600</v>
+        <v>65200</v>
       </c>
       <c r="K42" s="3">
         <v>117100</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1897500</v>
+        <v>1884900</v>
       </c>
       <c r="E43" s="3">
-        <v>1857600</v>
+        <v>1845300</v>
       </c>
       <c r="F43" s="3">
-        <v>1864300</v>
+        <v>1852000</v>
       </c>
       <c r="G43" s="3">
-        <v>1629300</v>
+        <v>1618600</v>
       </c>
       <c r="H43" s="3">
-        <v>1799200</v>
+        <v>1787300</v>
       </c>
       <c r="I43" s="3">
-        <v>1174900</v>
+        <v>1167100</v>
       </c>
       <c r="J43" s="3">
-        <v>1218000</v>
+        <v>1209900</v>
       </c>
       <c r="K43" s="3">
         <v>1271100</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1258200</v>
+        <v>1249900</v>
       </c>
       <c r="E44" s="3">
-        <v>1330200</v>
+        <v>1321400</v>
       </c>
       <c r="F44" s="3">
-        <v>1229300</v>
+        <v>1221200</v>
       </c>
       <c r="G44" s="3">
-        <v>1106500</v>
+        <v>1099200</v>
       </c>
       <c r="H44" s="3">
-        <v>1158600</v>
+        <v>1151000</v>
       </c>
       <c r="I44" s="3">
-        <v>1032200</v>
+        <v>1025400</v>
       </c>
       <c r="J44" s="3">
-        <v>890700</v>
+        <v>884800</v>
       </c>
       <c r="K44" s="3">
         <v>722900</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153100</v>
+        <v>152100</v>
       </c>
       <c r="E45" s="3">
-        <v>228700</v>
+        <v>227200</v>
       </c>
       <c r="F45" s="3">
-        <v>354300</v>
+        <v>352000</v>
       </c>
       <c r="G45" s="3">
-        <v>238700</v>
+        <v>237200</v>
       </c>
       <c r="H45" s="3">
-        <v>257900</v>
+        <v>256200</v>
       </c>
       <c r="I45" s="3">
-        <v>313500</v>
+        <v>311400</v>
       </c>
       <c r="J45" s="3">
-        <v>577100</v>
+        <v>573300</v>
       </c>
       <c r="K45" s="3">
         <v>385000</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22585200</v>
+        <v>22435800</v>
       </c>
       <c r="E46" s="3">
-        <v>19993000</v>
+        <v>19860700</v>
       </c>
       <c r="F46" s="3">
-        <v>18440000</v>
+        <v>18318100</v>
       </c>
       <c r="G46" s="3">
-        <v>17261200</v>
+        <v>17147100</v>
       </c>
       <c r="H46" s="3">
-        <v>11091300</v>
+        <v>11018000</v>
       </c>
       <c r="I46" s="3">
-        <v>11177500</v>
+        <v>11103600</v>
       </c>
       <c r="J46" s="3">
-        <v>13031600</v>
+        <v>12945400</v>
       </c>
       <c r="K46" s="3">
         <v>8759700</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33337600</v>
+        <v>33117200</v>
       </c>
       <c r="E47" s="3">
-        <v>29634700</v>
+        <v>29438700</v>
       </c>
       <c r="F47" s="3">
-        <v>31286500</v>
+        <v>31079600</v>
       </c>
       <c r="G47" s="3">
-        <v>20805500</v>
+        <v>20667900</v>
       </c>
       <c r="H47" s="3">
-        <v>23973500</v>
+        <v>23815000</v>
       </c>
       <c r="I47" s="3">
-        <v>27043600</v>
+        <v>26864700</v>
       </c>
       <c r="J47" s="3">
-        <v>16650900</v>
+        <v>16540700</v>
       </c>
       <c r="K47" s="3">
         <v>8663100</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23902000</v>
+        <v>23743900</v>
       </c>
       <c r="E48" s="3">
-        <v>21925900</v>
+        <v>21780900</v>
       </c>
       <c r="F48" s="3">
-        <v>20035300</v>
+        <v>19902800</v>
       </c>
       <c r="G48" s="3">
-        <v>19472600</v>
+        <v>19343900</v>
       </c>
       <c r="H48" s="3">
-        <v>18123000</v>
+        <v>18003100</v>
       </c>
       <c r="I48" s="3">
-        <v>16751000</v>
+        <v>16640300</v>
       </c>
       <c r="J48" s="3">
-        <v>15140800</v>
+        <v>15040700</v>
       </c>
       <c r="K48" s="3">
         <v>13778500</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127000</v>
+        <v>126200</v>
       </c>
       <c r="E49" s="3">
-        <v>126600</v>
+        <v>125800</v>
       </c>
       <c r="F49" s="3">
-        <v>119100</v>
+        <v>118300</v>
       </c>
       <c r="G49" s="3">
-        <v>123600</v>
+        <v>122800</v>
       </c>
       <c r="H49" s="3">
-        <v>126200</v>
+        <v>125300</v>
       </c>
       <c r="I49" s="3">
-        <v>118000</v>
+        <v>117200</v>
       </c>
       <c r="J49" s="3">
-        <v>116600</v>
+        <v>115800</v>
       </c>
       <c r="K49" s="3">
         <v>107100</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="E52" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G52" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="H52" s="3">
-        <v>58800</v>
+        <v>58400</v>
       </c>
       <c r="I52" s="3">
-        <v>54300</v>
+        <v>54000</v>
       </c>
       <c r="J52" s="3">
-        <v>56100</v>
+        <v>55700</v>
       </c>
       <c r="K52" s="3">
         <v>54100</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79968100</v>
+        <v>79439300</v>
       </c>
       <c r="E54" s="3">
-        <v>71696100</v>
+        <v>71222000</v>
       </c>
       <c r="F54" s="3">
-        <v>69898100</v>
+        <v>69435900</v>
       </c>
       <c r="G54" s="3">
-        <v>57702200</v>
+        <v>57320600</v>
       </c>
       <c r="H54" s="3">
-        <v>53372800</v>
+        <v>53019800</v>
       </c>
       <c r="I54" s="3">
-        <v>55144400</v>
+        <v>54779800</v>
       </c>
       <c r="J54" s="3">
-        <v>44995900</v>
+        <v>44698400</v>
       </c>
       <c r="K54" s="3">
         <v>31362600</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>223100</v>
+        <v>221700</v>
       </c>
       <c r="E57" s="3">
-        <v>185600</v>
+        <v>184400</v>
       </c>
       <c r="F57" s="3">
-        <v>158600</v>
+        <v>157600</v>
       </c>
       <c r="G57" s="3">
-        <v>141200</v>
+        <v>140300</v>
       </c>
       <c r="H57" s="3">
-        <v>128100</v>
+        <v>127300</v>
       </c>
       <c r="I57" s="3">
-        <v>139800</v>
+        <v>138800</v>
       </c>
       <c r="J57" s="3">
-        <v>137800</v>
+        <v>136900</v>
       </c>
       <c r="K57" s="3">
         <v>118200</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E58" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="F58" s="3">
-        <v>2683000</v>
+        <v>2665300</v>
       </c>
       <c r="G58" s="3">
-        <v>2510500</v>
+        <v>2493900</v>
       </c>
       <c r="H58" s="3">
-        <v>1221500</v>
+        <v>1213400</v>
       </c>
       <c r="I58" s="3">
-        <v>1076200</v>
+        <v>1069100</v>
       </c>
       <c r="J58" s="3">
-        <v>512700</v>
+        <v>509300</v>
       </c>
       <c r="K58" s="3">
         <v>291400</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2941700</v>
+        <v>2922200</v>
       </c>
       <c r="E59" s="3">
-        <v>5223800</v>
+        <v>5189200</v>
       </c>
       <c r="F59" s="3">
-        <v>2230000</v>
+        <v>2215300</v>
       </c>
       <c r="G59" s="3">
-        <v>1754800</v>
+        <v>1743200</v>
       </c>
       <c r="H59" s="3">
-        <v>1541200</v>
+        <v>1531000</v>
       </c>
       <c r="I59" s="3">
-        <v>1793400</v>
+        <v>1781600</v>
       </c>
       <c r="J59" s="3">
-        <v>1770000</v>
+        <v>1758300</v>
       </c>
       <c r="K59" s="3">
         <v>1178600</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3180800</v>
+        <v>3159800</v>
       </c>
       <c r="E60" s="3">
-        <v>5426900</v>
+        <v>5391000</v>
       </c>
       <c r="F60" s="3">
-        <v>5071700</v>
+        <v>5038100</v>
       </c>
       <c r="G60" s="3">
-        <v>4406500</v>
+        <v>4377400</v>
       </c>
       <c r="H60" s="3">
-        <v>2890800</v>
+        <v>2871600</v>
       </c>
       <c r="I60" s="3">
-        <v>3009400</v>
+        <v>2989500</v>
       </c>
       <c r="J60" s="3">
-        <v>2420600</v>
+        <v>2404600</v>
       </c>
       <c r="K60" s="3">
         <v>1588100</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38000</v>
+        <v>37700</v>
       </c>
       <c r="E61" s="3">
-        <v>177900</v>
+        <v>176700</v>
       </c>
       <c r="F61" s="3">
-        <v>257700</v>
+        <v>256000</v>
       </c>
       <c r="G61" s="3">
-        <v>52400</v>
+        <v>52100</v>
       </c>
       <c r="H61" s="3">
-        <v>224700</v>
+        <v>223200</v>
       </c>
       <c r="I61" s="3">
-        <v>59200</v>
+        <v>58800</v>
       </c>
       <c r="J61" s="3">
-        <v>179600</v>
+        <v>178400</v>
       </c>
       <c r="K61" s="3">
         <v>171900</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6516200</v>
+        <v>6473100</v>
       </c>
       <c r="E62" s="3">
-        <v>5535300</v>
+        <v>5498700</v>
       </c>
       <c r="F62" s="3">
-        <v>4326200</v>
+        <v>4297600</v>
       </c>
       <c r="G62" s="3">
-        <v>4067600</v>
+        <v>4040700</v>
       </c>
       <c r="H62" s="3">
-        <v>3365200</v>
+        <v>3343000</v>
       </c>
       <c r="I62" s="3">
-        <v>3316300</v>
+        <v>3294400</v>
       </c>
       <c r="J62" s="3">
-        <v>2803600</v>
+        <v>2785000</v>
       </c>
       <c r="K62" s="3">
         <v>2478500</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9739500</v>
+        <v>9675100</v>
       </c>
       <c r="E66" s="3">
-        <v>11144300</v>
+        <v>11070600</v>
       </c>
       <c r="F66" s="3">
-        <v>9659500</v>
+        <v>9595600</v>
       </c>
       <c r="G66" s="3">
-        <v>8530600</v>
+        <v>8474200</v>
       </c>
       <c r="H66" s="3">
-        <v>6484000</v>
+        <v>6441200</v>
       </c>
       <c r="I66" s="3">
-        <v>6387400</v>
+        <v>6345200</v>
       </c>
       <c r="J66" s="3">
-        <v>5406100</v>
+        <v>5370300</v>
       </c>
       <c r="K66" s="3">
         <v>4240800</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>67337100</v>
+        <v>66891800</v>
       </c>
       <c r="E72" s="3">
-        <v>57660300</v>
+        <v>57279000</v>
       </c>
       <c r="F72" s="3">
-        <v>57347200</v>
+        <v>56968000</v>
       </c>
       <c r="G72" s="3">
-        <v>46280100</v>
+        <v>45974100</v>
       </c>
       <c r="H72" s="3">
-        <v>43997300</v>
+        <v>43706300</v>
       </c>
       <c r="I72" s="3">
-        <v>45865600</v>
+        <v>45562300</v>
       </c>
       <c r="J72" s="3">
-        <v>36698400</v>
+        <v>36455700</v>
       </c>
       <c r="K72" s="3">
         <v>24329200</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70228600</v>
+        <v>69764100</v>
       </c>
       <c r="E76" s="3">
-        <v>60551800</v>
+        <v>60151300</v>
       </c>
       <c r="F76" s="3">
-        <v>60238600</v>
+        <v>59840300</v>
       </c>
       <c r="G76" s="3">
-        <v>49171600</v>
+        <v>48846400</v>
       </c>
       <c r="H76" s="3">
-        <v>46888700</v>
+        <v>46578700</v>
       </c>
       <c r="I76" s="3">
-        <v>48757000</v>
+        <v>48434600</v>
       </c>
       <c r="J76" s="3">
-        <v>39589800</v>
+        <v>39328000</v>
       </c>
       <c r="K76" s="3">
         <v>27121800</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9406100</v>
+        <v>9343900</v>
       </c>
       <c r="E81" s="3">
-        <v>1343200</v>
+        <v>1334300</v>
       </c>
       <c r="F81" s="3">
-        <v>10774500</v>
+        <v>10703300</v>
       </c>
       <c r="G81" s="3">
-        <v>2504600</v>
+        <v>2488100</v>
       </c>
       <c r="H81" s="3">
-        <v>-845200</v>
+        <v>-839600</v>
       </c>
       <c r="I81" s="3">
-        <v>9639400</v>
+        <v>9575700</v>
       </c>
       <c r="J81" s="3">
-        <v>11181900</v>
+        <v>11107900</v>
       </c>
       <c r="K81" s="3">
         <v>3430700</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1140200</v>
+        <v>1132700</v>
       </c>
       <c r="E83" s="3">
-        <v>967300</v>
+        <v>960900</v>
       </c>
       <c r="F83" s="3">
-        <v>907000</v>
+        <v>901000</v>
       </c>
       <c r="G83" s="3">
-        <v>902300</v>
+        <v>896300</v>
       </c>
       <c r="H83" s="3">
-        <v>1049600</v>
+        <v>1042700</v>
       </c>
       <c r="I83" s="3">
-        <v>961200</v>
+        <v>954800</v>
       </c>
       <c r="J83" s="3">
-        <v>1015500</v>
+        <v>1008700</v>
       </c>
       <c r="K83" s="3">
         <v>637200</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1761500</v>
+        <v>1749900</v>
       </c>
       <c r="E89" s="3">
-        <v>5706400</v>
+        <v>5668700</v>
       </c>
       <c r="F89" s="3">
-        <v>4770500</v>
+        <v>4738900</v>
       </c>
       <c r="G89" s="3">
-        <v>4846300</v>
+        <v>4814300</v>
       </c>
       <c r="H89" s="3">
-        <v>3571700</v>
+        <v>3548100</v>
       </c>
       <c r="I89" s="3">
-        <v>2708400</v>
+        <v>2690500</v>
       </c>
       <c r="J89" s="3">
-        <v>2465900</v>
+        <v>2449600</v>
       </c>
       <c r="K89" s="3">
         <v>3386300</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2331300</v>
+        <v>-2315900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2166900</v>
+        <v>-2152600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2059100</v>
+        <v>-2045500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2180100</v>
+        <v>-2165600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2460500</v>
+        <v>-2444300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2325300</v>
+        <v>-2309900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2166100</v>
+        <v>-2151700</v>
       </c>
       <c r="K91" s="3">
         <v>-2324800</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1924100</v>
+        <v>-1911400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2971200</v>
+        <v>-2951600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3936300</v>
+        <v>-3910200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3950900</v>
+        <v>-3924800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2735300</v>
+        <v>-2717200</v>
       </c>
       <c r="I94" s="3">
-        <v>-845000</v>
+        <v>-839400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2293100</v>
+        <v>-2278000</v>
       </c>
       <c r="K94" s="3">
         <v>-3196000</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-417100</v>
+        <v>-414400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1107000</v>
+        <v>-1099600</v>
       </c>
       <c r="F96" s="3">
-        <v>-459600</v>
+        <v>-456600</v>
       </c>
       <c r="G96" s="3">
-        <v>-355100</v>
+        <v>-352800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1010100</v>
+        <v>-1003500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1166900</v>
+        <v>-1159200</v>
       </c>
       <c r="J96" s="3">
-        <v>-536400</v>
+        <v>-532900</v>
       </c>
       <c r="K96" s="3">
         <v>-383100</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2798100</v>
+        <v>-2779600</v>
       </c>
       <c r="E100" s="3">
-        <v>-868100</v>
+        <v>-862300</v>
       </c>
       <c r="F100" s="3">
-        <v>-266300</v>
+        <v>-264500</v>
       </c>
       <c r="G100" s="3">
-        <v>598500</v>
+        <v>594500</v>
       </c>
       <c r="H100" s="3">
-        <v>-764800</v>
+        <v>-759800</v>
       </c>
       <c r="I100" s="3">
-        <v>-829900</v>
+        <v>-824400</v>
       </c>
       <c r="J100" s="3">
-        <v>-385500</v>
+        <v>-383000</v>
       </c>
       <c r="K100" s="3">
         <v>-297700</v>
@@ -3717,22 +3717,22 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="F101" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="G101" s="3">
         <v>3900</v>
       </c>
       <c r="H101" s="3">
-        <v>-47600</v>
+        <v>-47300</v>
       </c>
       <c r="I101" s="3">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="J101" s="3">
-        <v>143800</v>
+        <v>142800</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2959100</v>
+        <v>-2939600</v>
       </c>
       <c r="E102" s="3">
-        <v>1849400</v>
+        <v>1837200</v>
       </c>
       <c r="F102" s="3">
-        <v>583100</v>
+        <v>579300</v>
       </c>
       <c r="G102" s="3">
-        <v>1497800</v>
+        <v>1487800</v>
       </c>
       <c r="H102" s="3">
-        <v>23900</v>
+        <v>23800</v>
       </c>
       <c r="I102" s="3">
-        <v>1058500</v>
+        <v>1051500</v>
       </c>
       <c r="J102" s="3">
-        <v>-69000</v>
+        <v>-68600</v>
       </c>
       <c r="K102" s="3">
         <v>-104900</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14537000</v>
+        <v>14483200</v>
       </c>
       <c r="E8" s="3">
-        <v>21238200</v>
+        <v>21159700</v>
       </c>
       <c r="F8" s="3">
-        <v>21036600</v>
+        <v>20958800</v>
       </c>
       <c r="G8" s="3">
-        <v>15886300</v>
+        <v>15827500</v>
       </c>
       <c r="H8" s="3">
-        <v>13801700</v>
+        <v>13750600</v>
       </c>
       <c r="I8" s="3">
-        <v>13555200</v>
+        <v>13505100</v>
       </c>
       <c r="J8" s="3">
-        <v>12040600</v>
+        <v>11996000</v>
       </c>
       <c r="K8" s="3">
         <v>11016200</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1519200</v>
+        <v>1513600</v>
       </c>
       <c r="E9" s="3">
-        <v>1652600</v>
+        <v>1646500</v>
       </c>
       <c r="F9" s="3">
-        <v>1542500</v>
+        <v>1536800</v>
       </c>
       <c r="G9" s="3">
-        <v>1611700</v>
+        <v>1605800</v>
       </c>
       <c r="H9" s="3">
-        <v>1517700</v>
+        <v>1512100</v>
       </c>
       <c r="I9" s="3">
-        <v>1560500</v>
+        <v>1554700</v>
       </c>
       <c r="J9" s="3">
-        <v>1443200</v>
+        <v>1437900</v>
       </c>
       <c r="K9" s="3">
         <v>1267200</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13017800</v>
+        <v>12969600</v>
       </c>
       <c r="E10" s="3">
-        <v>19585700</v>
+        <v>19513200</v>
       </c>
       <c r="F10" s="3">
-        <v>19494100</v>
+        <v>19422000</v>
       </c>
       <c r="G10" s="3">
-        <v>14274500</v>
+        <v>14221700</v>
       </c>
       <c r="H10" s="3">
-        <v>12283900</v>
+        <v>12238500</v>
       </c>
       <c r="I10" s="3">
-        <v>11994800</v>
+        <v>11950400</v>
       </c>
       <c r="J10" s="3">
-        <v>10597400</v>
+        <v>10558200</v>
       </c>
       <c r="K10" s="3">
         <v>9749000</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="E14" s="3">
         <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="3">
         <v>14800</v>
       </c>
       <c r="H14" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="I14" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="J14" s="3">
-        <v>104700</v>
+        <v>104300</v>
       </c>
       <c r="K14" s="3">
         <v>75500</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1132700</v>
+        <v>1128500</v>
       </c>
       <c r="E15" s="3">
-        <v>960900</v>
+        <v>957300</v>
       </c>
       <c r="F15" s="3">
-        <v>901000</v>
+        <v>897700</v>
       </c>
       <c r="G15" s="3">
-        <v>896300</v>
+        <v>893000</v>
       </c>
       <c r="H15" s="3">
-        <v>1042700</v>
+        <v>1038800</v>
       </c>
       <c r="I15" s="3">
-        <v>954800</v>
+        <v>951300</v>
       </c>
       <c r="J15" s="3">
-        <v>1008700</v>
+        <v>1005000</v>
       </c>
       <c r="K15" s="3">
         <v>637200</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12305300</v>
+        <v>12259800</v>
       </c>
       <c r="E17" s="3">
-        <v>15924800</v>
+        <v>15865900</v>
       </c>
       <c r="F17" s="3">
-        <v>15423100</v>
+        <v>15366100</v>
       </c>
       <c r="G17" s="3">
-        <v>12203600</v>
+        <v>12158500</v>
       </c>
       <c r="H17" s="3">
-        <v>10279300</v>
+        <v>10241300</v>
       </c>
       <c r="I17" s="3">
-        <v>10256500</v>
+        <v>10218500</v>
       </c>
       <c r="J17" s="3">
-        <v>9839500</v>
+        <v>9803100</v>
       </c>
       <c r="K17" s="3">
         <v>8157200</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2231700</v>
+        <v>2223400</v>
       </c>
       <c r="E18" s="3">
-        <v>5313500</v>
+        <v>5293800</v>
       </c>
       <c r="F18" s="3">
-        <v>5613400</v>
+        <v>5592700</v>
       </c>
       <c r="G18" s="3">
-        <v>3682700</v>
+        <v>3669100</v>
       </c>
       <c r="H18" s="3">
-        <v>3522400</v>
+        <v>3509300</v>
       </c>
       <c r="I18" s="3">
-        <v>3298800</v>
+        <v>3286600</v>
       </c>
       <c r="J18" s="3">
-        <v>2201100</v>
+        <v>2192900</v>
       </c>
       <c r="K18" s="3">
         <v>2859000</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10074900</v>
+        <v>10037600</v>
       </c>
       <c r="E20" s="3">
-        <v>-3225800</v>
+        <v>-3213900</v>
       </c>
       <c r="F20" s="3">
-        <v>8659800</v>
+        <v>8627800</v>
       </c>
       <c r="G20" s="3">
-        <v>-134200</v>
+        <v>-133700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4379000</v>
+        <v>-4362800</v>
       </c>
       <c r="I20" s="3">
-        <v>9347500</v>
+        <v>9312900</v>
       </c>
       <c r="J20" s="3">
-        <v>12355600</v>
+        <v>12309900</v>
       </c>
       <c r="K20" s="3">
         <v>1735900</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13446700</v>
+        <v>13373600</v>
       </c>
       <c r="E21" s="3">
-        <v>3054900</v>
+        <v>3023800</v>
       </c>
       <c r="F21" s="3">
-        <v>15180200</v>
+        <v>15105400</v>
       </c>
       <c r="G21" s="3">
-        <v>4450700</v>
+        <v>4415700</v>
       </c>
       <c r="H21" s="3">
-        <v>192900</v>
+        <v>170700</v>
       </c>
       <c r="I21" s="3">
-        <v>13607400</v>
+        <v>13537400</v>
       </c>
       <c r="J21" s="3">
-        <v>15572100</v>
+        <v>15493600</v>
       </c>
       <c r="K21" s="3">
         <v>5228300</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>283100</v>
+        <v>282000</v>
       </c>
       <c r="E22" s="3">
-        <v>290400</v>
+        <v>289300</v>
       </c>
       <c r="F22" s="3">
-        <v>227400</v>
+        <v>226500</v>
       </c>
       <c r="G22" s="3">
-        <v>216700</v>
+        <v>215900</v>
       </c>
       <c r="H22" s="3">
-        <v>119400</v>
+        <v>119000</v>
       </c>
       <c r="I22" s="3">
-        <v>214300</v>
+        <v>213500</v>
       </c>
       <c r="J22" s="3">
-        <v>96500</v>
+        <v>96100</v>
       </c>
       <c r="K22" s="3">
         <v>66100</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12023500</v>
+        <v>11979000</v>
       </c>
       <c r="E23" s="3">
-        <v>1797300</v>
+        <v>1790600</v>
       </c>
       <c r="F23" s="3">
-        <v>14045900</v>
+        <v>13993900</v>
       </c>
       <c r="G23" s="3">
-        <v>3331800</v>
+        <v>3319500</v>
       </c>
       <c r="H23" s="3">
-        <v>-976100</v>
+        <v>-972500</v>
       </c>
       <c r="I23" s="3">
-        <v>12431900</v>
+        <v>12386000</v>
       </c>
       <c r="J23" s="3">
-        <v>14460200</v>
+        <v>14406700</v>
       </c>
       <c r="K23" s="3">
         <v>4528900</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1979300</v>
+        <v>1972000</v>
       </c>
       <c r="E24" s="3">
-        <v>361500</v>
+        <v>360200</v>
       </c>
       <c r="F24" s="3">
-        <v>2549000</v>
+        <v>2539600</v>
       </c>
       <c r="G24" s="3">
-        <v>699200</v>
+        <v>696600</v>
       </c>
       <c r="H24" s="3">
-        <v>-137400</v>
+        <v>-136900</v>
       </c>
       <c r="I24" s="3">
-        <v>2135500</v>
+        <v>2127600</v>
       </c>
       <c r="J24" s="3">
-        <v>2497200</v>
+        <v>2488000</v>
       </c>
       <c r="K24" s="3">
         <v>858900</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10044100</v>
+        <v>10007000</v>
       </c>
       <c r="E26" s="3">
-        <v>1435800</v>
+        <v>1430500</v>
       </c>
       <c r="F26" s="3">
-        <v>11496900</v>
+        <v>11454400</v>
       </c>
       <c r="G26" s="3">
-        <v>2632600</v>
+        <v>2622900</v>
       </c>
       <c r="H26" s="3">
-        <v>-838700</v>
+        <v>-835600</v>
       </c>
       <c r="I26" s="3">
-        <v>10296500</v>
+        <v>10258400</v>
       </c>
       <c r="J26" s="3">
-        <v>11962900</v>
+        <v>11918700</v>
       </c>
       <c r="K26" s="3">
         <v>3669900</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9343900</v>
+        <v>9309300</v>
       </c>
       <c r="E27" s="3">
-        <v>1334300</v>
+        <v>1329400</v>
       </c>
       <c r="F27" s="3">
-        <v>10703300</v>
+        <v>10663700</v>
       </c>
       <c r="G27" s="3">
-        <v>2488100</v>
+        <v>2478900</v>
       </c>
       <c r="H27" s="3">
-        <v>-839600</v>
+        <v>-836500</v>
       </c>
       <c r="I27" s="3">
-        <v>9575700</v>
+        <v>9540300</v>
       </c>
       <c r="J27" s="3">
-        <v>11107900</v>
+        <v>11066800</v>
       </c>
       <c r="K27" s="3">
         <v>3430700</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10074900</v>
+        <v>-10037600</v>
       </c>
       <c r="E32" s="3">
-        <v>3225800</v>
+        <v>3213900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8659800</v>
+        <v>-8627800</v>
       </c>
       <c r="G32" s="3">
-        <v>134200</v>
+        <v>133700</v>
       </c>
       <c r="H32" s="3">
-        <v>4379000</v>
+        <v>4362800</v>
       </c>
       <c r="I32" s="3">
-        <v>-9347500</v>
+        <v>-9312900</v>
       </c>
       <c r="J32" s="3">
-        <v>-12355600</v>
+        <v>-12309900</v>
       </c>
       <c r="K32" s="3">
         <v>-1735900</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9343900</v>
+        <v>9309300</v>
       </c>
       <c r="E33" s="3">
-        <v>1334300</v>
+        <v>1329400</v>
       </c>
       <c r="F33" s="3">
-        <v>10703300</v>
+        <v>10663700</v>
       </c>
       <c r="G33" s="3">
-        <v>2488100</v>
+        <v>2478900</v>
       </c>
       <c r="H33" s="3">
-        <v>-839600</v>
+        <v>-836500</v>
       </c>
       <c r="I33" s="3">
-        <v>9575700</v>
+        <v>9540300</v>
       </c>
       <c r="J33" s="3">
-        <v>11107900</v>
+        <v>11066800</v>
       </c>
       <c r="K33" s="3">
         <v>3430700</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9343900</v>
+        <v>9309300</v>
       </c>
       <c r="E35" s="3">
-        <v>1334300</v>
+        <v>1329400</v>
       </c>
       <c r="F35" s="3">
-        <v>10703300</v>
+        <v>10663700</v>
       </c>
       <c r="G35" s="3">
-        <v>2488100</v>
+        <v>2478900</v>
       </c>
       <c r="H35" s="3">
-        <v>-839600</v>
+        <v>-836500</v>
       </c>
       <c r="I35" s="3">
-        <v>9575700</v>
+        <v>9540300</v>
       </c>
       <c r="J35" s="3">
-        <v>11107900</v>
+        <v>11066800</v>
       </c>
       <c r="K35" s="3">
         <v>3430700</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19131200</v>
+        <v>19060500</v>
       </c>
       <c r="E41" s="3">
-        <v>16450700</v>
+        <v>16389800</v>
       </c>
       <c r="F41" s="3">
-        <v>14863400</v>
+        <v>14808500</v>
       </c>
       <c r="G41" s="3">
-        <v>14155500</v>
+        <v>14103100</v>
       </c>
       <c r="H41" s="3">
-        <v>7751100</v>
+        <v>7722400</v>
       </c>
       <c r="I41" s="3">
-        <v>8556600</v>
+        <v>8525000</v>
       </c>
       <c r="J41" s="3">
-        <v>10212200</v>
+        <v>10174400</v>
       </c>
       <c r="K41" s="3">
         <v>6263600</v>
@@ -1783,19 +1783,19 @@
         <v>16200</v>
       </c>
       <c r="F42" s="3">
-        <v>29500</v>
+        <v>29400</v>
       </c>
       <c r="G42" s="3">
-        <v>36700</v>
+        <v>36500</v>
       </c>
       <c r="H42" s="3">
-        <v>72400</v>
+        <v>72100</v>
       </c>
       <c r="I42" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="J42" s="3">
-        <v>65200</v>
+        <v>65000</v>
       </c>
       <c r="K42" s="3">
         <v>117100</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1884900</v>
+        <v>1878000</v>
       </c>
       <c r="E43" s="3">
-        <v>1845300</v>
+        <v>1838500</v>
       </c>
       <c r="F43" s="3">
-        <v>1852000</v>
+        <v>1845100</v>
       </c>
       <c r="G43" s="3">
-        <v>1618600</v>
+        <v>1612600</v>
       </c>
       <c r="H43" s="3">
-        <v>1787300</v>
+        <v>1780700</v>
       </c>
       <c r="I43" s="3">
-        <v>1167100</v>
+        <v>1162800</v>
       </c>
       <c r="J43" s="3">
-        <v>1209900</v>
+        <v>1205400</v>
       </c>
       <c r="K43" s="3">
         <v>1271100</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1249900</v>
+        <v>1245300</v>
       </c>
       <c r="E44" s="3">
-        <v>1321400</v>
+        <v>1316500</v>
       </c>
       <c r="F44" s="3">
-        <v>1221200</v>
+        <v>1216700</v>
       </c>
       <c r="G44" s="3">
-        <v>1099200</v>
+        <v>1095100</v>
       </c>
       <c r="H44" s="3">
-        <v>1151000</v>
+        <v>1146700</v>
       </c>
       <c r="I44" s="3">
-        <v>1025400</v>
+        <v>1021600</v>
       </c>
       <c r="J44" s="3">
-        <v>884800</v>
+        <v>881600</v>
       </c>
       <c r="K44" s="3">
         <v>722900</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152100</v>
+        <v>151600</v>
       </c>
       <c r="E45" s="3">
-        <v>227200</v>
+        <v>226300</v>
       </c>
       <c r="F45" s="3">
-        <v>352000</v>
+        <v>350700</v>
       </c>
       <c r="G45" s="3">
-        <v>237200</v>
+        <v>236300</v>
       </c>
       <c r="H45" s="3">
-        <v>256200</v>
+        <v>255200</v>
       </c>
       <c r="I45" s="3">
-        <v>311400</v>
+        <v>310300</v>
       </c>
       <c r="J45" s="3">
-        <v>573300</v>
+        <v>571200</v>
       </c>
       <c r="K45" s="3">
         <v>385000</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22435800</v>
+        <v>22352900</v>
       </c>
       <c r="E46" s="3">
-        <v>19860700</v>
+        <v>19787300</v>
       </c>
       <c r="F46" s="3">
-        <v>18318100</v>
+        <v>18250300</v>
       </c>
       <c r="G46" s="3">
-        <v>17147100</v>
+        <v>17083600</v>
       </c>
       <c r="H46" s="3">
-        <v>11018000</v>
+        <v>10977200</v>
       </c>
       <c r="I46" s="3">
-        <v>11103600</v>
+        <v>11062500</v>
       </c>
       <c r="J46" s="3">
-        <v>12945400</v>
+        <v>12897500</v>
       </c>
       <c r="K46" s="3">
         <v>8759700</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33117200</v>
+        <v>32994700</v>
       </c>
       <c r="E47" s="3">
-        <v>29438700</v>
+        <v>29329800</v>
       </c>
       <c r="F47" s="3">
-        <v>31079600</v>
+        <v>30964600</v>
       </c>
       <c r="G47" s="3">
-        <v>20667900</v>
+        <v>20591500</v>
       </c>
       <c r="H47" s="3">
-        <v>23815000</v>
+        <v>23726900</v>
       </c>
       <c r="I47" s="3">
-        <v>26864700</v>
+        <v>26765400</v>
       </c>
       <c r="J47" s="3">
-        <v>16540700</v>
+        <v>16479600</v>
       </c>
       <c r="K47" s="3">
         <v>8663100</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23743900</v>
+        <v>23656100</v>
       </c>
       <c r="E48" s="3">
-        <v>21780900</v>
+        <v>21700300</v>
       </c>
       <c r="F48" s="3">
-        <v>19902800</v>
+        <v>19829200</v>
       </c>
       <c r="G48" s="3">
-        <v>19343900</v>
+        <v>19272300</v>
       </c>
       <c r="H48" s="3">
-        <v>18003100</v>
+        <v>17936600</v>
       </c>
       <c r="I48" s="3">
-        <v>16640300</v>
+        <v>16578700</v>
       </c>
       <c r="J48" s="3">
-        <v>15040700</v>
+        <v>14985100</v>
       </c>
       <c r="K48" s="3">
         <v>13778500</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126200</v>
+        <v>125700</v>
       </c>
       <c r="E49" s="3">
-        <v>125800</v>
+        <v>125300</v>
       </c>
       <c r="F49" s="3">
-        <v>118300</v>
+        <v>117800</v>
       </c>
       <c r="G49" s="3">
-        <v>122800</v>
+        <v>122300</v>
       </c>
       <c r="H49" s="3">
-        <v>125300</v>
+        <v>124900</v>
       </c>
       <c r="I49" s="3">
-        <v>117200</v>
+        <v>116700</v>
       </c>
       <c r="J49" s="3">
-        <v>115800</v>
+        <v>115400</v>
       </c>
       <c r="K49" s="3">
         <v>107100</v>
@@ -2143,19 +2143,19 @@
         <v>15800</v>
       </c>
       <c r="F52" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>39000</v>
+        <v>38900</v>
       </c>
       <c r="H52" s="3">
-        <v>58400</v>
+        <v>58200</v>
       </c>
       <c r="I52" s="3">
-        <v>54000</v>
+        <v>53800</v>
       </c>
       <c r="J52" s="3">
-        <v>55700</v>
+        <v>55500</v>
       </c>
       <c r="K52" s="3">
         <v>54100</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79439300</v>
+        <v>79145500</v>
       </c>
       <c r="E54" s="3">
-        <v>71222000</v>
+        <v>70958600</v>
       </c>
       <c r="F54" s="3">
-        <v>69435900</v>
+        <v>69179100</v>
       </c>
       <c r="G54" s="3">
-        <v>57320600</v>
+        <v>57108600</v>
       </c>
       <c r="H54" s="3">
-        <v>53019800</v>
+        <v>52823700</v>
       </c>
       <c r="I54" s="3">
-        <v>54779800</v>
+        <v>54577200</v>
       </c>
       <c r="J54" s="3">
-        <v>44698400</v>
+        <v>44533100</v>
       </c>
       <c r="K54" s="3">
         <v>31362600</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>221700</v>
+        <v>220800</v>
       </c>
       <c r="E57" s="3">
-        <v>184400</v>
+        <v>183700</v>
       </c>
       <c r="F57" s="3">
-        <v>157600</v>
+        <v>157000</v>
       </c>
       <c r="G57" s="3">
-        <v>140300</v>
+        <v>139800</v>
       </c>
       <c r="H57" s="3">
-        <v>127300</v>
+        <v>126800</v>
       </c>
       <c r="I57" s="3">
-        <v>138800</v>
+        <v>138300</v>
       </c>
       <c r="J57" s="3">
-        <v>136900</v>
+        <v>136400</v>
       </c>
       <c r="K57" s="3">
         <v>118200</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="E58" s="3">
         <v>17400</v>
       </c>
       <c r="F58" s="3">
-        <v>2665300</v>
+        <v>2655400</v>
       </c>
       <c r="G58" s="3">
-        <v>2493900</v>
+        <v>2484700</v>
       </c>
       <c r="H58" s="3">
-        <v>1213400</v>
+        <v>1208900</v>
       </c>
       <c r="I58" s="3">
-        <v>1069100</v>
+        <v>1065200</v>
       </c>
       <c r="J58" s="3">
-        <v>509300</v>
+        <v>507400</v>
       </c>
       <c r="K58" s="3">
         <v>291400</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2922200</v>
+        <v>2911400</v>
       </c>
       <c r="E59" s="3">
-        <v>5189200</v>
+        <v>5170000</v>
       </c>
       <c r="F59" s="3">
-        <v>2215300</v>
+        <v>2207100</v>
       </c>
       <c r="G59" s="3">
-        <v>1743200</v>
+        <v>1736700</v>
       </c>
       <c r="H59" s="3">
-        <v>1531000</v>
+        <v>1525300</v>
       </c>
       <c r="I59" s="3">
-        <v>1781600</v>
+        <v>1775000</v>
       </c>
       <c r="J59" s="3">
-        <v>1758300</v>
+        <v>1751800</v>
       </c>
       <c r="K59" s="3">
         <v>1178600</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3159800</v>
+        <v>3148100</v>
       </c>
       <c r="E60" s="3">
-        <v>5391000</v>
+        <v>5371100</v>
       </c>
       <c r="F60" s="3">
-        <v>5038100</v>
+        <v>5019500</v>
       </c>
       <c r="G60" s="3">
-        <v>4377400</v>
+        <v>4361200</v>
       </c>
       <c r="H60" s="3">
-        <v>2871600</v>
+        <v>2861000</v>
       </c>
       <c r="I60" s="3">
-        <v>2989500</v>
+        <v>2978500</v>
       </c>
       <c r="J60" s="3">
-        <v>2404600</v>
+        <v>2395700</v>
       </c>
       <c r="K60" s="3">
         <v>1588100</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37700</v>
+        <v>37600</v>
       </c>
       <c r="E61" s="3">
-        <v>176700</v>
+        <v>176000</v>
       </c>
       <c r="F61" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="G61" s="3">
-        <v>52100</v>
+        <v>51900</v>
       </c>
       <c r="H61" s="3">
-        <v>223200</v>
+        <v>222400</v>
       </c>
       <c r="I61" s="3">
-        <v>58800</v>
+        <v>58600</v>
       </c>
       <c r="J61" s="3">
-        <v>178400</v>
+        <v>177800</v>
       </c>
       <c r="K61" s="3">
         <v>171900</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6473100</v>
+        <v>6449100</v>
       </c>
       <c r="E62" s="3">
-        <v>5498700</v>
+        <v>5478300</v>
       </c>
       <c r="F62" s="3">
-        <v>4297600</v>
+        <v>4281700</v>
       </c>
       <c r="G62" s="3">
-        <v>4040700</v>
+        <v>4025800</v>
       </c>
       <c r="H62" s="3">
-        <v>3343000</v>
+        <v>3330600</v>
       </c>
       <c r="I62" s="3">
-        <v>3294400</v>
+        <v>3282200</v>
       </c>
       <c r="J62" s="3">
-        <v>2785000</v>
+        <v>2774700</v>
       </c>
       <c r="K62" s="3">
         <v>2478500</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9675100</v>
+        <v>9639400</v>
       </c>
       <c r="E66" s="3">
-        <v>11070600</v>
+        <v>11029700</v>
       </c>
       <c r="F66" s="3">
-        <v>9595600</v>
+        <v>9560100</v>
       </c>
       <c r="G66" s="3">
-        <v>8474200</v>
+        <v>8442900</v>
       </c>
       <c r="H66" s="3">
-        <v>6441200</v>
+        <v>6417400</v>
       </c>
       <c r="I66" s="3">
-        <v>6345200</v>
+        <v>6321700</v>
       </c>
       <c r="J66" s="3">
-        <v>5370300</v>
+        <v>5350500</v>
       </c>
       <c r="K66" s="3">
         <v>4240800</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66891800</v>
+        <v>66644500</v>
       </c>
       <c r="E72" s="3">
-        <v>57279000</v>
+        <v>57067200</v>
       </c>
       <c r="F72" s="3">
-        <v>56968000</v>
+        <v>56757300</v>
       </c>
       <c r="G72" s="3">
-        <v>45974100</v>
+        <v>45804100</v>
       </c>
       <c r="H72" s="3">
-        <v>43706300</v>
+        <v>43544700</v>
       </c>
       <c r="I72" s="3">
-        <v>45562300</v>
+        <v>45393800</v>
       </c>
       <c r="J72" s="3">
-        <v>36455700</v>
+        <v>36320900</v>
       </c>
       <c r="K72" s="3">
         <v>24329200</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69764100</v>
+        <v>69506100</v>
       </c>
       <c r="E76" s="3">
-        <v>60151300</v>
+        <v>59928900</v>
       </c>
       <c r="F76" s="3">
-        <v>59840300</v>
+        <v>59619000</v>
       </c>
       <c r="G76" s="3">
-        <v>48846400</v>
+        <v>48665700</v>
       </c>
       <c r="H76" s="3">
-        <v>46578700</v>
+        <v>46406400</v>
       </c>
       <c r="I76" s="3">
-        <v>48434600</v>
+        <v>48255500</v>
       </c>
       <c r="J76" s="3">
-        <v>39328000</v>
+        <v>39182600</v>
       </c>
       <c r="K76" s="3">
         <v>27121800</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9343900</v>
+        <v>9309300</v>
       </c>
       <c r="E81" s="3">
-        <v>1334300</v>
+        <v>1329400</v>
       </c>
       <c r="F81" s="3">
-        <v>10703300</v>
+        <v>10663700</v>
       </c>
       <c r="G81" s="3">
-        <v>2488100</v>
+        <v>2478900</v>
       </c>
       <c r="H81" s="3">
-        <v>-839600</v>
+        <v>-836500</v>
       </c>
       <c r="I81" s="3">
-        <v>9575700</v>
+        <v>9540300</v>
       </c>
       <c r="J81" s="3">
-        <v>11107900</v>
+        <v>11066800</v>
       </c>
       <c r="K81" s="3">
         <v>3430700</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1132700</v>
+        <v>1128500</v>
       </c>
       <c r="E83" s="3">
-        <v>960900</v>
+        <v>957300</v>
       </c>
       <c r="F83" s="3">
-        <v>901000</v>
+        <v>897700</v>
       </c>
       <c r="G83" s="3">
-        <v>896300</v>
+        <v>893000</v>
       </c>
       <c r="H83" s="3">
-        <v>1042700</v>
+        <v>1038800</v>
       </c>
       <c r="I83" s="3">
-        <v>954800</v>
+        <v>951300</v>
       </c>
       <c r="J83" s="3">
-        <v>1008700</v>
+        <v>1005000</v>
       </c>
       <c r="K83" s="3">
         <v>637200</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1749900</v>
+        <v>1743400</v>
       </c>
       <c r="E89" s="3">
-        <v>5668700</v>
+        <v>5647700</v>
       </c>
       <c r="F89" s="3">
-        <v>4738900</v>
+        <v>4721400</v>
       </c>
       <c r="G89" s="3">
-        <v>4814300</v>
+        <v>4796500</v>
       </c>
       <c r="H89" s="3">
-        <v>3548100</v>
+        <v>3535000</v>
       </c>
       <c r="I89" s="3">
-        <v>2690500</v>
+        <v>2680600</v>
       </c>
       <c r="J89" s="3">
-        <v>2449600</v>
+        <v>2440500</v>
       </c>
       <c r="K89" s="3">
         <v>3386300</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2315900</v>
+        <v>-2307300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2152600</v>
+        <v>-2144600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2045500</v>
+        <v>-2037900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2165600</v>
+        <v>-2157600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2444300</v>
+        <v>-2435200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2309900</v>
+        <v>-2301300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2151700</v>
+        <v>-2143800</v>
       </c>
       <c r="K91" s="3">
         <v>-2324800</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1911400</v>
+        <v>-1904300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2951600</v>
+        <v>-2940700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3910200</v>
+        <v>-3895800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3924800</v>
+        <v>-3910300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2717200</v>
+        <v>-2707200</v>
       </c>
       <c r="I94" s="3">
-        <v>-839400</v>
+        <v>-836300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2278000</v>
+        <v>-2269500</v>
       </c>
       <c r="K94" s="3">
         <v>-3196000</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-414400</v>
+        <v>-412800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1099600</v>
+        <v>-1095600</v>
       </c>
       <c r="F96" s="3">
-        <v>-456600</v>
+        <v>-454900</v>
       </c>
       <c r="G96" s="3">
-        <v>-352800</v>
+        <v>-351500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1003500</v>
+        <v>-999800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1159200</v>
+        <v>-1154900</v>
       </c>
       <c r="J96" s="3">
-        <v>-532900</v>
+        <v>-530900</v>
       </c>
       <c r="K96" s="3">
         <v>-383100</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2779600</v>
+        <v>-2769300</v>
       </c>
       <c r="E100" s="3">
-        <v>-862300</v>
+        <v>-859100</v>
       </c>
       <c r="F100" s="3">
-        <v>-264500</v>
+        <v>-263500</v>
       </c>
       <c r="G100" s="3">
-        <v>594500</v>
+        <v>592300</v>
       </c>
       <c r="H100" s="3">
-        <v>-759800</v>
+        <v>-757000</v>
       </c>
       <c r="I100" s="3">
-        <v>-824400</v>
+        <v>-821400</v>
       </c>
       <c r="J100" s="3">
-        <v>-383000</v>
+        <v>-381600</v>
       </c>
       <c r="K100" s="3">
         <v>-297700</v>
@@ -3720,19 +3720,19 @@
         <v>-17500</v>
       </c>
       <c r="F101" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="3">
         <v>3900</v>
       </c>
       <c r="H101" s="3">
-        <v>-47300</v>
+        <v>-47100</v>
       </c>
       <c r="I101" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="J101" s="3">
-        <v>142800</v>
+        <v>142300</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2939600</v>
+        <v>-2928700</v>
       </c>
       <c r="E102" s="3">
-        <v>1837200</v>
+        <v>1830400</v>
       </c>
       <c r="F102" s="3">
-        <v>579300</v>
+        <v>577100</v>
       </c>
       <c r="G102" s="3">
-        <v>1487800</v>
+        <v>1482300</v>
       </c>
       <c r="H102" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="I102" s="3">
-        <v>1051500</v>
+        <v>1047700</v>
       </c>
       <c r="J102" s="3">
-        <v>-68600</v>
+        <v>-68300</v>
       </c>
       <c r="K102" s="3">
         <v>-104900</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -665,10 +665,7 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14483200</v>
+        <v>8505000</v>
       </c>
       <c r="E8" s="3">
-        <v>21159700</v>
+        <v>12425600</v>
       </c>
       <c r="F8" s="3">
-        <v>20958800</v>
+        <v>12307600</v>
       </c>
       <c r="G8" s="3">
-        <v>15827500</v>
+        <v>9294400</v>
       </c>
       <c r="H8" s="3">
-        <v>13750600</v>
+        <v>8074800</v>
       </c>
       <c r="I8" s="3">
-        <v>13505100</v>
+        <v>7930600</v>
       </c>
       <c r="J8" s="3">
-        <v>11996000</v>
+        <v>7044400</v>
       </c>
       <c r="K8" s="3">
         <v>11016200</v>
@@ -759,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1513600</v>
+        <v>888800</v>
       </c>
       <c r="E9" s="3">
-        <v>1646500</v>
+        <v>966900</v>
       </c>
       <c r="F9" s="3">
-        <v>1536800</v>
+        <v>902500</v>
       </c>
       <c r="G9" s="3">
-        <v>1605800</v>
+        <v>943000</v>
       </c>
       <c r="H9" s="3">
-        <v>1512100</v>
+        <v>888000</v>
       </c>
       <c r="I9" s="3">
-        <v>1554700</v>
+        <v>913000</v>
       </c>
       <c r="J9" s="3">
-        <v>1437900</v>
+        <v>844400</v>
       </c>
       <c r="K9" s="3">
         <v>1267200</v>
@@ -795,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12969600</v>
+        <v>7616200</v>
       </c>
       <c r="E10" s="3">
-        <v>19513200</v>
+        <v>11458800</v>
       </c>
       <c r="F10" s="3">
-        <v>19422000</v>
+        <v>11405200</v>
       </c>
       <c r="G10" s="3">
-        <v>14221700</v>
+        <v>8351400</v>
       </c>
       <c r="H10" s="3">
-        <v>12238500</v>
+        <v>7186800</v>
       </c>
       <c r="I10" s="3">
-        <v>11950400</v>
+        <v>7017600</v>
       </c>
       <c r="J10" s="3">
-        <v>10558200</v>
+        <v>6200100</v>
       </c>
       <c r="K10" s="3">
         <v>9749000</v>
@@ -919,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35100</v>
+        <v>20600</v>
       </c>
       <c r="E14" s="3">
-        <v>7100</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
-        <v>20800</v>
+        <v>12200</v>
       </c>
       <c r="G14" s="3">
-        <v>14800</v>
+        <v>8700</v>
       </c>
       <c r="H14" s="3">
-        <v>23200</v>
+        <v>13700</v>
       </c>
       <c r="I14" s="3">
-        <v>37300</v>
+        <v>21900</v>
       </c>
       <c r="J14" s="3">
-        <v>104300</v>
+        <v>61300</v>
       </c>
       <c r="K14" s="3">
         <v>75500</v>
@@ -955,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1128500</v>
+        <v>662700</v>
       </c>
       <c r="E15" s="3">
-        <v>957300</v>
+        <v>562200</v>
       </c>
       <c r="F15" s="3">
-        <v>897700</v>
+        <v>527100</v>
       </c>
       <c r="G15" s="3">
-        <v>893000</v>
+        <v>524400</v>
       </c>
       <c r="H15" s="3">
-        <v>1038800</v>
+        <v>610000</v>
       </c>
       <c r="I15" s="3">
-        <v>951300</v>
+        <v>558600</v>
       </c>
       <c r="J15" s="3">
-        <v>1005000</v>
+        <v>590200</v>
       </c>
       <c r="K15" s="3">
         <v>637200</v>
@@ -1004,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12259800</v>
+        <v>7199400</v>
       </c>
       <c r="E17" s="3">
-        <v>15865900</v>
+        <v>9316900</v>
       </c>
       <c r="F17" s="3">
-        <v>15366100</v>
+        <v>9023500</v>
       </c>
       <c r="G17" s="3">
-        <v>12158500</v>
+        <v>7139800</v>
       </c>
       <c r="H17" s="3">
-        <v>10241300</v>
+        <v>6014000</v>
       </c>
       <c r="I17" s="3">
-        <v>10218500</v>
+        <v>6000600</v>
       </c>
       <c r="J17" s="3">
-        <v>9803100</v>
+        <v>5756700</v>
       </c>
       <c r="K17" s="3">
         <v>8157200</v>
@@ -1040,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2223400</v>
+        <v>1305600</v>
       </c>
       <c r="E18" s="3">
-        <v>5293800</v>
+        <v>3108700</v>
       </c>
       <c r="F18" s="3">
-        <v>5592700</v>
+        <v>3284200</v>
       </c>
       <c r="G18" s="3">
-        <v>3669100</v>
+        <v>2154600</v>
       </c>
       <c r="H18" s="3">
-        <v>3509300</v>
+        <v>2060800</v>
       </c>
       <c r="I18" s="3">
-        <v>3286600</v>
+        <v>1930000</v>
       </c>
       <c r="J18" s="3">
-        <v>2192900</v>
+        <v>1287700</v>
       </c>
       <c r="K18" s="3">
         <v>2859000</v>
@@ -1092,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10037600</v>
+        <v>5894400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3213900</v>
+        <v>-1887300</v>
       </c>
       <c r="F20" s="3">
-        <v>8627800</v>
+        <v>5066500</v>
       </c>
       <c r="G20" s="3">
-        <v>-133700</v>
+        <v>-78500</v>
       </c>
       <c r="H20" s="3">
-        <v>-4362800</v>
+        <v>-2562000</v>
       </c>
       <c r="I20" s="3">
-        <v>9312900</v>
+        <v>5468800</v>
       </c>
       <c r="J20" s="3">
-        <v>12309900</v>
+        <v>7228700</v>
       </c>
       <c r="K20" s="3">
         <v>1735900</v>
@@ -1128,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13373600</v>
+        <v>7844300</v>
       </c>
       <c r="E21" s="3">
-        <v>3023800</v>
+        <v>1767900</v>
       </c>
       <c r="F21" s="3">
-        <v>15105400</v>
+        <v>8863200</v>
       </c>
       <c r="G21" s="3">
-        <v>4415700</v>
+        <v>2585900</v>
       </c>
       <c r="H21" s="3">
-        <v>170700</v>
+        <v>91900</v>
       </c>
       <c r="I21" s="3">
-        <v>13537400</v>
+        <v>7941900</v>
       </c>
       <c r="J21" s="3">
-        <v>15493600</v>
+        <v>9090200</v>
       </c>
       <c r="K21" s="3">
         <v>5228300</v>
@@ -1164,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>282000</v>
+        <v>165600</v>
       </c>
       <c r="E22" s="3">
-        <v>289300</v>
+        <v>169900</v>
       </c>
       <c r="F22" s="3">
-        <v>226500</v>
+        <v>133000</v>
       </c>
       <c r="G22" s="3">
-        <v>215900</v>
+        <v>126800</v>
       </c>
       <c r="H22" s="3">
-        <v>119000</v>
+        <v>69900</v>
       </c>
       <c r="I22" s="3">
-        <v>213500</v>
+        <v>125400</v>
       </c>
       <c r="J22" s="3">
-        <v>96100</v>
+        <v>56400</v>
       </c>
       <c r="K22" s="3">
         <v>66100</v>
@@ -1200,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11979000</v>
+        <v>7034400</v>
       </c>
       <c r="E23" s="3">
-        <v>1790600</v>
+        <v>1051500</v>
       </c>
       <c r="F23" s="3">
-        <v>13993900</v>
+        <v>8217700</v>
       </c>
       <c r="G23" s="3">
-        <v>3319500</v>
+        <v>1949300</v>
       </c>
       <c r="H23" s="3">
-        <v>-972500</v>
+        <v>-571100</v>
       </c>
       <c r="I23" s="3">
-        <v>12386000</v>
+        <v>7273400</v>
       </c>
       <c r="J23" s="3">
-        <v>14406700</v>
+        <v>8460100</v>
       </c>
       <c r="K23" s="3">
         <v>4528900</v>
@@ -1236,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1972000</v>
+        <v>1158000</v>
       </c>
       <c r="E24" s="3">
-        <v>360200</v>
+        <v>211500</v>
       </c>
       <c r="F24" s="3">
-        <v>2539600</v>
+        <v>1491300</v>
       </c>
       <c r="G24" s="3">
-        <v>696600</v>
+        <v>409100</v>
       </c>
       <c r="H24" s="3">
-        <v>-136900</v>
+        <v>-80400</v>
       </c>
       <c r="I24" s="3">
-        <v>2127600</v>
+        <v>1249400</v>
       </c>
       <c r="J24" s="3">
-        <v>2488000</v>
+        <v>1461000</v>
       </c>
       <c r="K24" s="3">
         <v>858900</v>
@@ -1308,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10007000</v>
+        <v>5876400</v>
       </c>
       <c r="E26" s="3">
-        <v>1430500</v>
+        <v>840000</v>
       </c>
       <c r="F26" s="3">
-        <v>11454400</v>
+        <v>6726400</v>
       </c>
       <c r="G26" s="3">
-        <v>2622900</v>
+        <v>1540200</v>
       </c>
       <c r="H26" s="3">
-        <v>-835600</v>
+        <v>-490700</v>
       </c>
       <c r="I26" s="3">
-        <v>10258400</v>
+        <v>6024000</v>
       </c>
       <c r="J26" s="3">
-        <v>11918700</v>
+        <v>6999000</v>
       </c>
       <c r="K26" s="3">
         <v>3669900</v>
@@ -1344,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9309300</v>
+        <v>5466700</v>
       </c>
       <c r="E27" s="3">
-        <v>1329400</v>
+        <v>780600</v>
       </c>
       <c r="F27" s="3">
-        <v>10663700</v>
+        <v>6262000</v>
       </c>
       <c r="G27" s="3">
-        <v>2478900</v>
+        <v>1455700</v>
       </c>
       <c r="H27" s="3">
-        <v>-836500</v>
+        <v>-491200</v>
       </c>
       <c r="I27" s="3">
-        <v>9540300</v>
+        <v>5602300</v>
       </c>
       <c r="J27" s="3">
-        <v>11066800</v>
+        <v>6498800</v>
       </c>
       <c r="K27" s="3">
         <v>3430700</v>
@@ -1524,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10037600</v>
+        <v>-5894400</v>
       </c>
       <c r="E32" s="3">
-        <v>3213900</v>
+        <v>1887300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8627800</v>
+        <v>-5066500</v>
       </c>
       <c r="G32" s="3">
-        <v>133700</v>
+        <v>78500</v>
       </c>
       <c r="H32" s="3">
-        <v>4362800</v>
+        <v>2562000</v>
       </c>
       <c r="I32" s="3">
-        <v>-9312900</v>
+        <v>-5468800</v>
       </c>
       <c r="J32" s="3">
-        <v>-12309900</v>
+        <v>-7228700</v>
       </c>
       <c r="K32" s="3">
         <v>-1735900</v>
@@ -1560,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9309300</v>
+        <v>5466700</v>
       </c>
       <c r="E33" s="3">
-        <v>1329400</v>
+        <v>780600</v>
       </c>
       <c r="F33" s="3">
-        <v>10663700</v>
+        <v>6262000</v>
       </c>
       <c r="G33" s="3">
-        <v>2478900</v>
+        <v>1455700</v>
       </c>
       <c r="H33" s="3">
-        <v>-836500</v>
+        <v>-491200</v>
       </c>
       <c r="I33" s="3">
-        <v>9540300</v>
+        <v>5602300</v>
       </c>
       <c r="J33" s="3">
-        <v>11066800</v>
+        <v>6498800</v>
       </c>
       <c r="K33" s="3">
         <v>3430700</v>
@@ -1632,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9309300</v>
+        <v>5466700</v>
       </c>
       <c r="E35" s="3">
-        <v>1329400</v>
+        <v>780600</v>
       </c>
       <c r="F35" s="3">
-        <v>10663700</v>
+        <v>6262000</v>
       </c>
       <c r="G35" s="3">
-        <v>2478900</v>
+        <v>1455700</v>
       </c>
       <c r="H35" s="3">
-        <v>-836500</v>
+        <v>-491200</v>
       </c>
       <c r="I35" s="3">
-        <v>9540300</v>
+        <v>5602300</v>
       </c>
       <c r="J35" s="3">
-        <v>11066800</v>
+        <v>6498800</v>
       </c>
       <c r="K35" s="3">
         <v>3430700</v>
@@ -1741,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19060500</v>
+        <v>11192900</v>
       </c>
       <c r="E41" s="3">
-        <v>16389800</v>
+        <v>9624600</v>
       </c>
       <c r="F41" s="3">
-        <v>14808500</v>
+        <v>8696000</v>
       </c>
       <c r="G41" s="3">
-        <v>14103100</v>
+        <v>8281800</v>
       </c>
       <c r="H41" s="3">
-        <v>7722400</v>
+        <v>4534900</v>
       </c>
       <c r="I41" s="3">
-        <v>8525000</v>
+        <v>5006100</v>
       </c>
       <c r="J41" s="3">
-        <v>10174400</v>
+        <v>5974700</v>
       </c>
       <c r="K41" s="3">
         <v>6263600</v>
@@ -1777,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17600</v>
+        <v>10300</v>
       </c>
       <c r="E42" s="3">
-        <v>16200</v>
+        <v>9500</v>
       </c>
       <c r="F42" s="3">
-        <v>29400</v>
+        <v>17200</v>
       </c>
       <c r="G42" s="3">
-        <v>36500</v>
+        <v>21400</v>
       </c>
       <c r="H42" s="3">
-        <v>72100</v>
+        <v>42300</v>
       </c>
       <c r="I42" s="3">
-        <v>42900</v>
+        <v>25200</v>
       </c>
       <c r="J42" s="3">
-        <v>65000</v>
+        <v>38100</v>
       </c>
       <c r="K42" s="3">
         <v>117100</v>
@@ -1813,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1878000</v>
+        <v>1102800</v>
       </c>
       <c r="E43" s="3">
-        <v>1838500</v>
+        <v>1079600</v>
       </c>
       <c r="F43" s="3">
-        <v>1845100</v>
+        <v>1083500</v>
       </c>
       <c r="G43" s="3">
-        <v>1612600</v>
+        <v>947000</v>
       </c>
       <c r="H43" s="3">
-        <v>1780700</v>
+        <v>1045700</v>
       </c>
       <c r="I43" s="3">
-        <v>1162800</v>
+        <v>682800</v>
       </c>
       <c r="J43" s="3">
-        <v>1205400</v>
+        <v>707900</v>
       </c>
       <c r="K43" s="3">
         <v>1271100</v>
@@ -1849,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1245300</v>
+        <v>731300</v>
       </c>
       <c r="E44" s="3">
-        <v>1316500</v>
+        <v>773100</v>
       </c>
       <c r="F44" s="3">
-        <v>1216700</v>
+        <v>714500</v>
       </c>
       <c r="G44" s="3">
-        <v>1095100</v>
+        <v>643100</v>
       </c>
       <c r="H44" s="3">
-        <v>1146700</v>
+        <v>673400</v>
       </c>
       <c r="I44" s="3">
-        <v>1021600</v>
+        <v>599900</v>
       </c>
       <c r="J44" s="3">
-        <v>881600</v>
+        <v>517700</v>
       </c>
       <c r="K44" s="3">
         <v>722900</v>
@@ -1885,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151600</v>
+        <v>89000</v>
       </c>
       <c r="E45" s="3">
-        <v>226300</v>
+        <v>132900</v>
       </c>
       <c r="F45" s="3">
-        <v>350700</v>
+        <v>205900</v>
       </c>
       <c r="G45" s="3">
-        <v>236300</v>
+        <v>138800</v>
       </c>
       <c r="H45" s="3">
-        <v>255200</v>
+        <v>149900</v>
       </c>
       <c r="I45" s="3">
-        <v>310300</v>
+        <v>182200</v>
       </c>
       <c r="J45" s="3">
-        <v>571200</v>
+        <v>335400</v>
       </c>
       <c r="K45" s="3">
         <v>385000</v>
@@ -1921,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22352900</v>
+        <v>13126300</v>
       </c>
       <c r="E46" s="3">
-        <v>19787300</v>
+        <v>11619700</v>
       </c>
       <c r="F46" s="3">
-        <v>18250300</v>
+        <v>10717100</v>
       </c>
       <c r="G46" s="3">
-        <v>17083600</v>
+        <v>10032000</v>
       </c>
       <c r="H46" s="3">
-        <v>10977200</v>
+        <v>6446200</v>
       </c>
       <c r="I46" s="3">
-        <v>11062500</v>
+        <v>6496300</v>
       </c>
       <c r="J46" s="3">
-        <v>12897500</v>
+        <v>7573800</v>
       </c>
       <c r="K46" s="3">
         <v>8759700</v>
@@ -1957,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32994700</v>
+        <v>19375500</v>
       </c>
       <c r="E47" s="3">
-        <v>29329800</v>
+        <v>17223400</v>
       </c>
       <c r="F47" s="3">
-        <v>30964600</v>
+        <v>18183400</v>
       </c>
       <c r="G47" s="3">
-        <v>20591500</v>
+        <v>12091900</v>
       </c>
       <c r="H47" s="3">
-        <v>23726900</v>
+        <v>13933200</v>
       </c>
       <c r="I47" s="3">
-        <v>26765400</v>
+        <v>15717500</v>
       </c>
       <c r="J47" s="3">
-        <v>16479600</v>
+        <v>9677300</v>
       </c>
       <c r="K47" s="3">
         <v>8663100</v>
@@ -1993,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23656100</v>
+        <v>13891600</v>
       </c>
       <c r="E48" s="3">
-        <v>21700300</v>
+        <v>12743100</v>
       </c>
       <c r="F48" s="3">
-        <v>19829200</v>
+        <v>11644300</v>
       </c>
       <c r="G48" s="3">
-        <v>19272300</v>
+        <v>11317300</v>
       </c>
       <c r="H48" s="3">
-        <v>17936600</v>
+        <v>10532900</v>
       </c>
       <c r="I48" s="3">
-        <v>16578700</v>
+        <v>9735500</v>
       </c>
       <c r="J48" s="3">
-        <v>14985100</v>
+        <v>8799700</v>
       </c>
       <c r="K48" s="3">
         <v>13778500</v>
@@ -2029,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125700</v>
+        <v>73800</v>
       </c>
       <c r="E49" s="3">
-        <v>125300</v>
+        <v>73600</v>
       </c>
       <c r="F49" s="3">
-        <v>117800</v>
+        <v>69200</v>
       </c>
       <c r="G49" s="3">
-        <v>122300</v>
+        <v>71800</v>
       </c>
       <c r="H49" s="3">
-        <v>124900</v>
+        <v>73300</v>
       </c>
       <c r="I49" s="3">
-        <v>116700</v>
+        <v>68600</v>
       </c>
       <c r="J49" s="3">
-        <v>115400</v>
+        <v>67800</v>
       </c>
       <c r="K49" s="3">
         <v>107100</v>
@@ -2137,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16200</v>
+        <v>9500</v>
       </c>
       <c r="E52" s="3">
-        <v>15800</v>
+        <v>9300</v>
       </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>10000</v>
       </c>
       <c r="G52" s="3">
-        <v>38900</v>
+        <v>22800</v>
       </c>
       <c r="H52" s="3">
-        <v>58200</v>
+        <v>34200</v>
       </c>
       <c r="I52" s="3">
-        <v>53800</v>
+        <v>31600</v>
       </c>
       <c r="J52" s="3">
-        <v>55500</v>
+        <v>32600</v>
       </c>
       <c r="K52" s="3">
         <v>54100</v>
@@ -2209,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79145500</v>
+        <v>46476700</v>
       </c>
       <c r="E54" s="3">
-        <v>70958600</v>
+        <v>41669100</v>
       </c>
       <c r="F54" s="3">
-        <v>69179100</v>
+        <v>40624100</v>
       </c>
       <c r="G54" s="3">
-        <v>57108600</v>
+        <v>33535900</v>
       </c>
       <c r="H54" s="3">
-        <v>52823700</v>
+        <v>31019700</v>
       </c>
       <c r="I54" s="3">
-        <v>54577200</v>
+        <v>32049400</v>
       </c>
       <c r="J54" s="3">
-        <v>44533100</v>
+        <v>26151200</v>
       </c>
       <c r="K54" s="3">
         <v>31362600</v>
@@ -2277,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>220800</v>
+        <v>129700</v>
       </c>
       <c r="E57" s="3">
-        <v>183700</v>
+        <v>107900</v>
       </c>
       <c r="F57" s="3">
-        <v>157000</v>
+        <v>92200</v>
       </c>
       <c r="G57" s="3">
-        <v>139800</v>
+        <v>82100</v>
       </c>
       <c r="H57" s="3">
-        <v>126800</v>
+        <v>74500</v>
       </c>
       <c r="I57" s="3">
-        <v>138300</v>
+        <v>81200</v>
       </c>
       <c r="J57" s="3">
-        <v>136400</v>
+        <v>80100</v>
       </c>
       <c r="K57" s="3">
         <v>118200</v>
@@ -2313,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15800</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>17400</v>
+        <v>10200</v>
       </c>
       <c r="F58" s="3">
-        <v>2655400</v>
+        <v>1559400</v>
       </c>
       <c r="G58" s="3">
-        <v>2484700</v>
+        <v>1459100</v>
       </c>
       <c r="H58" s="3">
-        <v>1208900</v>
+        <v>709900</v>
       </c>
       <c r="I58" s="3">
-        <v>1065200</v>
+        <v>625500</v>
       </c>
       <c r="J58" s="3">
-        <v>507400</v>
+        <v>298000</v>
       </c>
       <c r="K58" s="3">
         <v>291400</v>
@@ -2349,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2911400</v>
+        <v>1709700</v>
       </c>
       <c r="E59" s="3">
-        <v>5170000</v>
+        <v>3036000</v>
       </c>
       <c r="F59" s="3">
-        <v>2207100</v>
+        <v>1296100</v>
       </c>
       <c r="G59" s="3">
-        <v>1736700</v>
+        <v>1019900</v>
       </c>
       <c r="H59" s="3">
-        <v>1525300</v>
+        <v>895700</v>
       </c>
       <c r="I59" s="3">
-        <v>1775000</v>
+        <v>1042300</v>
       </c>
       <c r="J59" s="3">
-        <v>1751800</v>
+        <v>1028700</v>
       </c>
       <c r="K59" s="3">
         <v>1178600</v>
@@ -2385,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3148100</v>
+        <v>1848700</v>
       </c>
       <c r="E60" s="3">
-        <v>5371100</v>
+        <v>3154100</v>
       </c>
       <c r="F60" s="3">
-        <v>5019500</v>
+        <v>2947600</v>
       </c>
       <c r="G60" s="3">
-        <v>4361200</v>
+        <v>2561000</v>
       </c>
       <c r="H60" s="3">
-        <v>2861000</v>
+        <v>1680100</v>
       </c>
       <c r="I60" s="3">
-        <v>2978500</v>
+        <v>1749100</v>
       </c>
       <c r="J60" s="3">
-        <v>2395700</v>
+        <v>1406800</v>
       </c>
       <c r="K60" s="3">
         <v>1588100</v>
@@ -2421,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37600</v>
+        <v>22100</v>
       </c>
       <c r="E61" s="3">
-        <v>176000</v>
+        <v>103400</v>
       </c>
       <c r="F61" s="3">
-        <v>255000</v>
+        <v>149800</v>
       </c>
       <c r="G61" s="3">
-        <v>51900</v>
+        <v>30500</v>
       </c>
       <c r="H61" s="3">
-        <v>222400</v>
+        <v>130600</v>
       </c>
       <c r="I61" s="3">
-        <v>58600</v>
+        <v>34400</v>
       </c>
       <c r="J61" s="3">
-        <v>177800</v>
+        <v>104400</v>
       </c>
       <c r="K61" s="3">
         <v>171900</v>
@@ -2457,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6449100</v>
+        <v>3787100</v>
       </c>
       <c r="E62" s="3">
-        <v>5478300</v>
+        <v>3217000</v>
       </c>
       <c r="F62" s="3">
-        <v>4281700</v>
+        <v>2514400</v>
       </c>
       <c r="G62" s="3">
-        <v>4025800</v>
+        <v>2364100</v>
       </c>
       <c r="H62" s="3">
-        <v>3330600</v>
+        <v>1955800</v>
       </c>
       <c r="I62" s="3">
-        <v>3282200</v>
+        <v>1927400</v>
       </c>
       <c r="J62" s="3">
-        <v>2774700</v>
+        <v>1629400</v>
       </c>
       <c r="K62" s="3">
         <v>2478500</v>
@@ -2601,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9639400</v>
+        <v>5660500</v>
       </c>
       <c r="E66" s="3">
-        <v>11029700</v>
+        <v>6477000</v>
       </c>
       <c r="F66" s="3">
-        <v>9560100</v>
+        <v>5614000</v>
       </c>
       <c r="G66" s="3">
-        <v>8442900</v>
+        <v>4957900</v>
       </c>
       <c r="H66" s="3">
-        <v>6417400</v>
+        <v>3768500</v>
       </c>
       <c r="I66" s="3">
-        <v>6321700</v>
+        <v>3712300</v>
       </c>
       <c r="J66" s="3">
-        <v>5350500</v>
+        <v>3142000</v>
       </c>
       <c r="K66" s="3">
         <v>4240800</v>
@@ -2797,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66644500</v>
+        <v>39135700</v>
       </c>
       <c r="E72" s="3">
-        <v>57067200</v>
+        <v>33511600</v>
       </c>
       <c r="F72" s="3">
-        <v>56757300</v>
+        <v>33329600</v>
       </c>
       <c r="G72" s="3">
-        <v>45804100</v>
+        <v>26897600</v>
       </c>
       <c r="H72" s="3">
-        <v>43544700</v>
+        <v>25570800</v>
       </c>
       <c r="I72" s="3">
-        <v>45393800</v>
+        <v>26656600</v>
       </c>
       <c r="J72" s="3">
-        <v>36320900</v>
+        <v>21328800</v>
       </c>
       <c r="K72" s="3">
         <v>24329200</v>
@@ -2941,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69506100</v>
+        <v>40816200</v>
       </c>
       <c r="E76" s="3">
-        <v>59928900</v>
+        <v>35192100</v>
       </c>
       <c r="F76" s="3">
-        <v>59619000</v>
+        <v>35010100</v>
       </c>
       <c r="G76" s="3">
-        <v>48665700</v>
+        <v>28578000</v>
       </c>
       <c r="H76" s="3">
-        <v>46406400</v>
+        <v>27251300</v>
       </c>
       <c r="I76" s="3">
-        <v>48255500</v>
+        <v>28337100</v>
       </c>
       <c r="J76" s="3">
-        <v>39182600</v>
+        <v>23009200</v>
       </c>
       <c r="K76" s="3">
         <v>27121800</v>
@@ -3054,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9309300</v>
+        <v>5466700</v>
       </c>
       <c r="E81" s="3">
-        <v>1329400</v>
+        <v>780600</v>
       </c>
       <c r="F81" s="3">
-        <v>10663700</v>
+        <v>6262000</v>
       </c>
       <c r="G81" s="3">
-        <v>2478900</v>
+        <v>1455700</v>
       </c>
       <c r="H81" s="3">
-        <v>-836500</v>
+        <v>-491200</v>
       </c>
       <c r="I81" s="3">
-        <v>9540300</v>
+        <v>5602300</v>
       </c>
       <c r="J81" s="3">
-        <v>11066800</v>
+        <v>6498800</v>
       </c>
       <c r="K81" s="3">
         <v>3430700</v>
@@ -3106,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1128500</v>
+        <v>662700</v>
       </c>
       <c r="E83" s="3">
-        <v>957300</v>
+        <v>562200</v>
       </c>
       <c r="F83" s="3">
-        <v>897700</v>
+        <v>527100</v>
       </c>
       <c r="G83" s="3">
-        <v>893000</v>
+        <v>524400</v>
       </c>
       <c r="H83" s="3">
-        <v>1038800</v>
+        <v>610000</v>
       </c>
       <c r="I83" s="3">
-        <v>951300</v>
+        <v>558600</v>
       </c>
       <c r="J83" s="3">
-        <v>1005000</v>
+        <v>590200</v>
       </c>
       <c r="K83" s="3">
         <v>637200</v>
@@ -3322,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1743400</v>
+        <v>1023800</v>
       </c>
       <c r="E89" s="3">
-        <v>5647700</v>
+        <v>3316500</v>
       </c>
       <c r="F89" s="3">
-        <v>4721400</v>
+        <v>2772600</v>
       </c>
       <c r="G89" s="3">
-        <v>4796500</v>
+        <v>2816600</v>
       </c>
       <c r="H89" s="3">
-        <v>3535000</v>
+        <v>2075800</v>
       </c>
       <c r="I89" s="3">
-        <v>2680600</v>
+        <v>1574100</v>
       </c>
       <c r="J89" s="3">
-        <v>2440500</v>
+        <v>1433100</v>
       </c>
       <c r="K89" s="3">
         <v>3386300</v>
@@ -3374,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2307300</v>
+        <v>-1354900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2144600</v>
+        <v>-1259400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2037900</v>
+        <v>-1196700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2157600</v>
+        <v>-1267000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2435200</v>
+        <v>-1430000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2301300</v>
+        <v>-1351400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2143800</v>
+        <v>-1258900</v>
       </c>
       <c r="K91" s="3">
         <v>-2324800</v>
@@ -3482,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1904300</v>
+        <v>-1118300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2940700</v>
+        <v>-1726800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3895800</v>
+        <v>-2287700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3910300</v>
+        <v>-2296200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2707200</v>
+        <v>-1589700</v>
       </c>
       <c r="I94" s="3">
-        <v>-836300</v>
+        <v>-491100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2269500</v>
+        <v>-1332700</v>
       </c>
       <c r="K94" s="3">
         <v>-3196000</v>
@@ -3534,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-412800</v>
+        <v>-242400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1095600</v>
+        <v>-643400</v>
       </c>
       <c r="F96" s="3">
-        <v>-454900</v>
+        <v>-267100</v>
       </c>
       <c r="G96" s="3">
-        <v>-351500</v>
+        <v>-206400</v>
       </c>
       <c r="H96" s="3">
-        <v>-999800</v>
+        <v>-587100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1154900</v>
+        <v>-678200</v>
       </c>
       <c r="J96" s="3">
-        <v>-530900</v>
+        <v>-311800</v>
       </c>
       <c r="K96" s="3">
         <v>-383100</v>
@@ -3678,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2769300</v>
+        <v>-1626200</v>
       </c>
       <c r="E100" s="3">
-        <v>-859100</v>
+        <v>-504500</v>
       </c>
       <c r="F100" s="3">
-        <v>-263500</v>
+        <v>-154800</v>
       </c>
       <c r="G100" s="3">
-        <v>592300</v>
+        <v>347800</v>
       </c>
       <c r="H100" s="3">
-        <v>-757000</v>
+        <v>-444500</v>
       </c>
       <c r="I100" s="3">
-        <v>-821400</v>
+        <v>-482400</v>
       </c>
       <c r="J100" s="3">
-        <v>-381600</v>
+        <v>-224100</v>
       </c>
       <c r="K100" s="3">
         <v>-297700</v>
@@ -3714,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>-17500</v>
+        <v>-10300</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>8800</v>
       </c>
       <c r="G101" s="3">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
-        <v>-47100</v>
+        <v>-27700</v>
       </c>
       <c r="I101" s="3">
-        <v>24800</v>
+        <v>14500</v>
       </c>
       <c r="J101" s="3">
-        <v>142300</v>
+        <v>83600</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3750,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2928700</v>
+        <v>-1719800</v>
       </c>
       <c r="E102" s="3">
-        <v>1830400</v>
+        <v>1074900</v>
       </c>
       <c r="F102" s="3">
-        <v>577100</v>
+        <v>338900</v>
       </c>
       <c r="G102" s="3">
-        <v>1482300</v>
+        <v>870500</v>
       </c>
       <c r="H102" s="3">
-        <v>23700</v>
+        <v>13900</v>
       </c>
       <c r="I102" s="3">
-        <v>1047700</v>
+        <v>615200</v>
       </c>
       <c r="J102" s="3">
-        <v>-68300</v>
+        <v>-40100</v>
       </c>
       <c r="K102" s="3">
         <v>-104900</v>

--- a/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SGTZY_YR_FIN.xlsx
@@ -665,7 +665,12 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -720,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8505000</v>
+        <v>17268100</v>
       </c>
       <c r="E8" s="3">
-        <v>12425600</v>
+        <v>25228300</v>
       </c>
       <c r="F8" s="3">
-        <v>12307600</v>
+        <v>24988700</v>
       </c>
       <c r="G8" s="3">
-        <v>9294400</v>
+        <v>18870800</v>
       </c>
       <c r="H8" s="3">
-        <v>8074800</v>
+        <v>16394600</v>
       </c>
       <c r="I8" s="3">
-        <v>7930600</v>
+        <v>16101800</v>
       </c>
       <c r="J8" s="3">
-        <v>7044400</v>
+        <v>14302600</v>
       </c>
       <c r="K8" s="3">
         <v>11016200</v>
@@ -756,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>888800</v>
+        <v>1804600</v>
       </c>
       <c r="E9" s="3">
-        <v>966900</v>
+        <v>1963100</v>
       </c>
       <c r="F9" s="3">
-        <v>902500</v>
+        <v>1832300</v>
       </c>
       <c r="G9" s="3">
-        <v>943000</v>
+        <v>1914500</v>
       </c>
       <c r="H9" s="3">
-        <v>888000</v>
+        <v>1802900</v>
       </c>
       <c r="I9" s="3">
-        <v>913000</v>
+        <v>1853600</v>
       </c>
       <c r="J9" s="3">
-        <v>844400</v>
+        <v>1714300</v>
       </c>
       <c r="K9" s="3">
         <v>1267200</v>
@@ -792,25 +797,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7616200</v>
+        <v>15463400</v>
       </c>
       <c r="E10" s="3">
-        <v>11458800</v>
+        <v>23265200</v>
       </c>
       <c r="F10" s="3">
-        <v>11405200</v>
+        <v>23156400</v>
       </c>
       <c r="G10" s="3">
-        <v>8351400</v>
+        <v>16956300</v>
       </c>
       <c r="H10" s="3">
-        <v>7186800</v>
+        <v>14591700</v>
       </c>
       <c r="I10" s="3">
-        <v>7017600</v>
+        <v>14248200</v>
       </c>
       <c r="J10" s="3">
-        <v>6200100</v>
+        <v>12588300</v>
       </c>
       <c r="K10" s="3">
         <v>9749000</v>
@@ -916,25 +921,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20600</v>
+        <v>41800</v>
       </c>
       <c r="E14" s="3">
-        <v>4200</v>
+        <v>8400</v>
       </c>
       <c r="F14" s="3">
-        <v>12200</v>
+        <v>24800</v>
       </c>
       <c r="G14" s="3">
-        <v>8700</v>
+        <v>17600</v>
       </c>
       <c r="H14" s="3">
-        <v>13700</v>
+        <v>27700</v>
       </c>
       <c r="I14" s="3">
-        <v>21900</v>
+        <v>44500</v>
       </c>
       <c r="J14" s="3">
-        <v>61300</v>
+        <v>124400</v>
       </c>
       <c r="K14" s="3">
         <v>75500</v>
@@ -952,25 +957,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>662700</v>
+        <v>1345500</v>
       </c>
       <c r="E15" s="3">
-        <v>562200</v>
+        <v>1141400</v>
       </c>
       <c r="F15" s="3">
-        <v>527100</v>
+        <v>1070300</v>
       </c>
       <c r="G15" s="3">
-        <v>524400</v>
+        <v>1064700</v>
       </c>
       <c r="H15" s="3">
-        <v>610000</v>
+        <v>1238500</v>
       </c>
       <c r="I15" s="3">
-        <v>558600</v>
+        <v>1134200</v>
       </c>
       <c r="J15" s="3">
-        <v>590200</v>
+        <v>1198300</v>
       </c>
       <c r="K15" s="3">
         <v>637200</v>
@@ -1001,25 +1006,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7199400</v>
+        <v>14617200</v>
       </c>
       <c r="E17" s="3">
-        <v>9316900</v>
+        <v>18916600</v>
       </c>
       <c r="F17" s="3">
-        <v>9023500</v>
+        <v>18320700</v>
       </c>
       <c r="G17" s="3">
-        <v>7139800</v>
+        <v>14496300</v>
       </c>
       <c r="H17" s="3">
-        <v>6014000</v>
+        <v>12210500</v>
       </c>
       <c r="I17" s="3">
-        <v>6000600</v>
+        <v>12183300</v>
       </c>
       <c r="J17" s="3">
-        <v>5756700</v>
+        <v>11688100</v>
       </c>
       <c r="K17" s="3">
         <v>8157200</v>
@@ -1037,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1305600</v>
+        <v>2650900</v>
       </c>
       <c r="E18" s="3">
-        <v>3108700</v>
+        <v>6311700</v>
       </c>
       <c r="F18" s="3">
-        <v>3284200</v>
+        <v>6668000</v>
       </c>
       <c r="G18" s="3">
-        <v>2154600</v>
+        <v>4374500</v>
       </c>
       <c r="H18" s="3">
-        <v>2060800</v>
+        <v>4184100</v>
       </c>
       <c r="I18" s="3">
-        <v>1930000</v>
+        <v>3918500</v>
       </c>
       <c r="J18" s="3">
-        <v>1287700</v>
+        <v>2614600</v>
       </c>
       <c r="K18" s="3">
         <v>2859000</v>
@@ -1089,25 +1094,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5894400</v>
+        <v>11967600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1887300</v>
+        <v>-3831800</v>
       </c>
       <c r="F20" s="3">
-        <v>5066500</v>
+        <v>10286700</v>
       </c>
       <c r="G20" s="3">
-        <v>-78500</v>
+        <v>-159400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2562000</v>
+        <v>-5201700</v>
       </c>
       <c r="I20" s="3">
-        <v>5468800</v>
+        <v>11103600</v>
       </c>
       <c r="J20" s="3">
-        <v>7228700</v>
+        <v>14676800</v>
       </c>
       <c r="K20" s="3">
         <v>1735900</v>
@@ -1125,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7844300</v>
+        <v>15922100</v>
       </c>
       <c r="E21" s="3">
-        <v>1767900</v>
+        <v>3585700</v>
       </c>
       <c r="F21" s="3">
-        <v>8863200</v>
+        <v>17991700</v>
       </c>
       <c r="G21" s="3">
-        <v>2585900</v>
+        <v>5246700</v>
       </c>
       <c r="H21" s="3">
-        <v>91900</v>
+        <v>182400</v>
       </c>
       <c r="I21" s="3">
-        <v>7941900</v>
+        <v>16121000</v>
       </c>
       <c r="J21" s="3">
-        <v>9090200</v>
+        <v>18452300</v>
       </c>
       <c r="K21" s="3">
         <v>5228300</v>
@@ -1161,25 +1166,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>165600</v>
+        <v>336200</v>
       </c>
       <c r="E22" s="3">
-        <v>169900</v>
+        <v>344900</v>
       </c>
       <c r="F22" s="3">
-        <v>133000</v>
+        <v>270100</v>
       </c>
       <c r="G22" s="3">
-        <v>126800</v>
+        <v>257400</v>
       </c>
       <c r="H22" s="3">
-        <v>69900</v>
+        <v>141900</v>
       </c>
       <c r="I22" s="3">
-        <v>125400</v>
+        <v>254600</v>
       </c>
       <c r="J22" s="3">
-        <v>56400</v>
+        <v>114600</v>
       </c>
       <c r="K22" s="3">
         <v>66100</v>
@@ -1197,25 +1202,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7034400</v>
+        <v>14282300</v>
       </c>
       <c r="E23" s="3">
-        <v>1051500</v>
+        <v>2134900</v>
       </c>
       <c r="F23" s="3">
-        <v>8217700</v>
+        <v>16684700</v>
       </c>
       <c r="G23" s="3">
-        <v>1949300</v>
+        <v>3957700</v>
       </c>
       <c r="H23" s="3">
-        <v>-571100</v>
+        <v>-1159500</v>
       </c>
       <c r="I23" s="3">
-        <v>7273400</v>
+        <v>14767500</v>
       </c>
       <c r="J23" s="3">
-        <v>8460100</v>
+        <v>17176800</v>
       </c>
       <c r="K23" s="3">
         <v>4528900</v>
@@ -1233,25 +1238,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1158000</v>
+        <v>2351200</v>
       </c>
       <c r="E24" s="3">
-        <v>211500</v>
+        <v>429400</v>
       </c>
       <c r="F24" s="3">
-        <v>1491300</v>
+        <v>3027900</v>
       </c>
       <c r="G24" s="3">
-        <v>409100</v>
+        <v>830500</v>
       </c>
       <c r="H24" s="3">
-        <v>-80400</v>
+        <v>-163200</v>
       </c>
       <c r="I24" s="3">
-        <v>1249400</v>
+        <v>2536700</v>
       </c>
       <c r="J24" s="3">
-        <v>1461000</v>
+        <v>2966400</v>
       </c>
       <c r="K24" s="3">
         <v>858900</v>
@@ -1305,25 +1310,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5876400</v>
+        <v>11931100</v>
       </c>
       <c r="E26" s="3">
-        <v>840000</v>
+        <v>1705500</v>
       </c>
       <c r="F26" s="3">
-        <v>6726400</v>
+        <v>13656800</v>
       </c>
       <c r="G26" s="3">
-        <v>1540200</v>
+        <v>3127200</v>
       </c>
       <c r="H26" s="3">
-        <v>-490700</v>
+        <v>-996200</v>
       </c>
       <c r="I26" s="3">
-        <v>6024000</v>
+        <v>12230900</v>
       </c>
       <c r="J26" s="3">
-        <v>6999000</v>
+        <v>14210400</v>
       </c>
       <c r="K26" s="3">
         <v>3669900</v>
@@ -1341,25 +1346,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5466700</v>
+        <v>11099300</v>
       </c>
       <c r="E27" s="3">
-        <v>780600</v>
+        <v>1585000</v>
       </c>
       <c r="F27" s="3">
-        <v>6262000</v>
+        <v>12714100</v>
       </c>
       <c r="G27" s="3">
-        <v>1455700</v>
+        <v>2955500</v>
       </c>
       <c r="H27" s="3">
-        <v>-491200</v>
+        <v>-997300</v>
       </c>
       <c r="I27" s="3">
-        <v>5602300</v>
+        <v>11374700</v>
       </c>
       <c r="J27" s="3">
-        <v>6498800</v>
+        <v>13194800</v>
       </c>
       <c r="K27" s="3">
         <v>3430700</v>
@@ -1521,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5894400</v>
+        <v>-11967600</v>
       </c>
       <c r="E32" s="3">
-        <v>1887300</v>
+        <v>3831800</v>
       </c>
       <c r="F32" s="3">
-        <v>-5066500</v>
+        <v>-10286700</v>
       </c>
       <c r="G32" s="3">
-        <v>78500</v>
+        <v>159400</v>
       </c>
       <c r="H32" s="3">
-        <v>2562000</v>
+        <v>5201700</v>
       </c>
       <c r="I32" s="3">
-        <v>-5468800</v>
+        <v>-11103600</v>
       </c>
       <c r="J32" s="3">
-        <v>-7228700</v>
+        <v>-14676800</v>
       </c>
       <c r="K32" s="3">
         <v>-1735900</v>
@@ -1557,25 +1562,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5466700</v>
+        <v>11099300</v>
       </c>
       <c r="E33" s="3">
-        <v>780600</v>
+        <v>1585000</v>
       </c>
       <c r="F33" s="3">
-        <v>6262000</v>
+        <v>12714100</v>
       </c>
       <c r="G33" s="3">
-        <v>1455700</v>
+        <v>2955500</v>
       </c>
       <c r="H33" s="3">
-        <v>-491200</v>
+        <v>-997300</v>
       </c>
       <c r="I33" s="3">
-        <v>5602300</v>
+        <v>11374700</v>
       </c>
       <c r="J33" s="3">
-        <v>6498800</v>
+        <v>13194800</v>
       </c>
       <c r="K33" s="3">
         <v>3430700</v>
@@ -1629,25 +1634,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5466700</v>
+        <v>11099300</v>
       </c>
       <c r="E35" s="3">
-        <v>780600</v>
+        <v>1585000</v>
       </c>
       <c r="F35" s="3">
-        <v>6262000</v>
+        <v>12714100</v>
       </c>
       <c r="G35" s="3">
-        <v>1455700</v>
+        <v>2955500</v>
       </c>
       <c r="H35" s="3">
-        <v>-491200</v>
+        <v>-997300</v>
       </c>
       <c r="I35" s="3">
-        <v>5602300</v>
+        <v>11374700</v>
       </c>
       <c r="J35" s="3">
-        <v>6498800</v>
+        <v>13194800</v>
       </c>
       <c r="K35" s="3">
         <v>3430700</v>
@@ -1738,25 +1743,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11192900</v>
+        <v>22725400</v>
       </c>
       <c r="E41" s="3">
-        <v>9624600</v>
+        <v>19541300</v>
       </c>
       <c r="F41" s="3">
-        <v>8696000</v>
+        <v>17655800</v>
       </c>
       <c r="G41" s="3">
-        <v>8281800</v>
+        <v>16814800</v>
       </c>
       <c r="H41" s="3">
-        <v>4534900</v>
+        <v>9207300</v>
       </c>
       <c r="I41" s="3">
-        <v>5006100</v>
+        <v>10164100</v>
       </c>
       <c r="J41" s="3">
-        <v>5974700</v>
+        <v>12130700</v>
       </c>
       <c r="K41" s="3">
         <v>6263600</v>
@@ -1774,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10300</v>
+        <v>21000</v>
       </c>
       <c r="E42" s="3">
-        <v>9500</v>
+        <v>19300</v>
       </c>
       <c r="F42" s="3">
-        <v>17200</v>
+        <v>35000</v>
       </c>
       <c r="G42" s="3">
-        <v>21400</v>
+        <v>43500</v>
       </c>
       <c r="H42" s="3">
-        <v>42300</v>
+        <v>86000</v>
       </c>
       <c r="I42" s="3">
-        <v>25200</v>
+        <v>51100</v>
       </c>
       <c r="J42" s="3">
-        <v>38100</v>
+        <v>77500</v>
       </c>
       <c r="K42" s="3">
         <v>117100</v>
@@ -1810,25 +1815,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1102800</v>
+        <v>2239100</v>
       </c>
       <c r="E43" s="3">
-        <v>1079600</v>
+        <v>2192000</v>
       </c>
       <c r="F43" s="3">
-        <v>1083500</v>
+        <v>2199900</v>
       </c>
       <c r="G43" s="3">
-        <v>947000</v>
+        <v>1922700</v>
       </c>
       <c r="H43" s="3">
-        <v>1045700</v>
+        <v>2123100</v>
       </c>
       <c r="I43" s="3">
-        <v>682800</v>
+        <v>1386400</v>
       </c>
       <c r="J43" s="3">
-        <v>707900</v>
+        <v>1437200</v>
       </c>
       <c r="K43" s="3">
         <v>1271100</v>
@@ -1846,25 +1851,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>731300</v>
+        <v>1484700</v>
       </c>
       <c r="E44" s="3">
-        <v>773100</v>
+        <v>1569600</v>
       </c>
       <c r="F44" s="3">
-        <v>714500</v>
+        <v>1450600</v>
       </c>
       <c r="G44" s="3">
-        <v>643100</v>
+        <v>1305700</v>
       </c>
       <c r="H44" s="3">
-        <v>673400</v>
+        <v>1367200</v>
       </c>
       <c r="I44" s="3">
-        <v>599900</v>
+        <v>1218100</v>
       </c>
       <c r="J44" s="3">
-        <v>517700</v>
+        <v>1051100</v>
       </c>
       <c r="K44" s="3">
         <v>722900</v>
@@ -1882,25 +1887,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89000</v>
+        <v>180700</v>
       </c>
       <c r="E45" s="3">
-        <v>132900</v>
+        <v>269800</v>
       </c>
       <c r="F45" s="3">
-        <v>205900</v>
+        <v>418100</v>
       </c>
       <c r="G45" s="3">
-        <v>138800</v>
+        <v>281700</v>
       </c>
       <c r="H45" s="3">
-        <v>149900</v>
+        <v>304300</v>
       </c>
       <c r="I45" s="3">
-        <v>182200</v>
+        <v>369900</v>
       </c>
       <c r="J45" s="3">
-        <v>335400</v>
+        <v>681000</v>
       </c>
       <c r="K45" s="3">
         <v>385000</v>
@@ -1918,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13126300</v>
+        <v>26650800</v>
       </c>
       <c r="E46" s="3">
-        <v>11619700</v>
+        <v>23592000</v>
       </c>
       <c r="F46" s="3">
-        <v>10717100</v>
+        <v>21759500</v>
       </c>
       <c r="G46" s="3">
-        <v>10032000</v>
+        <v>20368500</v>
       </c>
       <c r="H46" s="3">
-        <v>6446200</v>
+        <v>13087900</v>
       </c>
       <c r="I46" s="3">
-        <v>6496300</v>
+        <v>13189600</v>
       </c>
       <c r="J46" s="3">
-        <v>7573800</v>
+        <v>15377500</v>
       </c>
       <c r="K46" s="3">
         <v>8759700</v>
@@ -1954,25 +1959,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19375500</v>
+        <v>39338900</v>
       </c>
       <c r="E47" s="3">
-        <v>17223400</v>
+        <v>34969300</v>
       </c>
       <c r="F47" s="3">
-        <v>18183400</v>
+        <v>36918500</v>
       </c>
       <c r="G47" s="3">
-        <v>12091900</v>
+        <v>24550800</v>
       </c>
       <c r="H47" s="3">
-        <v>13933200</v>
+        <v>28289100</v>
       </c>
       <c r="I47" s="3">
-        <v>15717500</v>
+        <v>31911800</v>
       </c>
       <c r="J47" s="3">
-        <v>9677300</v>
+        <v>19648300</v>
       </c>
       <c r="K47" s="3">
         <v>8663100</v>
@@ -1990,25 +1995,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13891600</v>
+        <v>28204700</v>
       </c>
       <c r="E48" s="3">
-        <v>12743100</v>
+        <v>25872900</v>
       </c>
       <c r="F48" s="3">
-        <v>11644300</v>
+        <v>23641900</v>
       </c>
       <c r="G48" s="3">
-        <v>11317300</v>
+        <v>22978000</v>
       </c>
       <c r="H48" s="3">
-        <v>10532900</v>
+        <v>21385400</v>
       </c>
       <c r="I48" s="3">
-        <v>9735500</v>
+        <v>19766500</v>
       </c>
       <c r="J48" s="3">
-        <v>8799700</v>
+        <v>17866400</v>
       </c>
       <c r="K48" s="3">
         <v>13778500</v>
@@ -2026,25 +2031,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>73800</v>
+        <v>149900</v>
       </c>
       <c r="E49" s="3">
-        <v>73600</v>
+        <v>149400</v>
       </c>
       <c r="F49" s="3">
-        <v>69200</v>
+        <v>140500</v>
       </c>
       <c r="G49" s="3">
-        <v>71800</v>
+        <v>145800</v>
       </c>
       <c r="H49" s="3">
-        <v>73300</v>
+        <v>148900</v>
       </c>
       <c r="I49" s="3">
-        <v>68600</v>
+        <v>139200</v>
       </c>
       <c r="J49" s="3">
-        <v>67800</v>
+        <v>137600</v>
       </c>
       <c r="K49" s="3">
         <v>107100</v>
@@ -2134,25 +2139,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9500</v>
+        <v>19300</v>
       </c>
       <c r="E52" s="3">
-        <v>9300</v>
+        <v>18800</v>
       </c>
       <c r="F52" s="3">
-        <v>10000</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>22800</v>
+        <v>46300</v>
       </c>
       <c r="H52" s="3">
-        <v>34200</v>
+        <v>69400</v>
       </c>
       <c r="I52" s="3">
-        <v>31600</v>
+        <v>64100</v>
       </c>
       <c r="J52" s="3">
-        <v>32600</v>
+        <v>66200</v>
       </c>
       <c r="K52" s="3">
         <v>54100</v>
@@ -2206,25 +2211,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46476700</v>
+        <v>94363500</v>
       </c>
       <c r="E54" s="3">
-        <v>41669100</v>
+        <v>84602400</v>
       </c>
       <c r="F54" s="3">
-        <v>40624100</v>
+        <v>82480800</v>
       </c>
       <c r="G54" s="3">
-        <v>33535900</v>
+        <v>68089400</v>
       </c>
       <c r="H54" s="3">
-        <v>31019700</v>
+        <v>62980700</v>
       </c>
       <c r="I54" s="3">
-        <v>32049400</v>
+        <v>65071200</v>
       </c>
       <c r="J54" s="3">
-        <v>26151200</v>
+        <v>53095900</v>
       </c>
       <c r="K54" s="3">
         <v>31362600</v>
@@ -2274,25 +2279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>129700</v>
+        <v>263300</v>
       </c>
       <c r="E57" s="3">
-        <v>107900</v>
+        <v>219000</v>
       </c>
       <c r="F57" s="3">
-        <v>92200</v>
+        <v>187200</v>
       </c>
       <c r="G57" s="3">
-        <v>82100</v>
+        <v>166600</v>
       </c>
       <c r="H57" s="3">
-        <v>74500</v>
+        <v>151200</v>
       </c>
       <c r="I57" s="3">
-        <v>81200</v>
+        <v>164900</v>
       </c>
       <c r="J57" s="3">
-        <v>80100</v>
+        <v>162700</v>
       </c>
       <c r="K57" s="3">
         <v>118200</v>
@@ -2310,25 +2315,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>18900</v>
       </c>
       <c r="E58" s="3">
-        <v>10200</v>
+        <v>20700</v>
       </c>
       <c r="F58" s="3">
-        <v>1559400</v>
+        <v>3166000</v>
       </c>
       <c r="G58" s="3">
-        <v>1459100</v>
+        <v>2962500</v>
       </c>
       <c r="H58" s="3">
-        <v>709900</v>
+        <v>1441300</v>
       </c>
       <c r="I58" s="3">
-        <v>625500</v>
+        <v>1270000</v>
       </c>
       <c r="J58" s="3">
-        <v>298000</v>
+        <v>605000</v>
       </c>
       <c r="K58" s="3">
         <v>291400</v>
@@ -2346,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1709700</v>
+        <v>3471200</v>
       </c>
       <c r="E59" s="3">
-        <v>3036000</v>
+        <v>6164100</v>
       </c>
       <c r="F59" s="3">
-        <v>1296100</v>
+        <v>2631400</v>
       </c>
       <c r="G59" s="3">
-        <v>1019900</v>
+        <v>2070700</v>
       </c>
       <c r="H59" s="3">
-        <v>895700</v>
+        <v>1818600</v>
       </c>
       <c r="I59" s="3">
-        <v>1042300</v>
+        <v>2116300</v>
       </c>
       <c r="J59" s="3">
-        <v>1028700</v>
+        <v>2088700</v>
       </c>
       <c r="K59" s="3">
         <v>1178600</v>
@@ -2382,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1848700</v>
+        <v>3753400</v>
       </c>
       <c r="E60" s="3">
-        <v>3154100</v>
+        <v>6403800</v>
       </c>
       <c r="F60" s="3">
-        <v>2947600</v>
+        <v>5984600</v>
       </c>
       <c r="G60" s="3">
-        <v>2561000</v>
+        <v>5199800</v>
       </c>
       <c r="H60" s="3">
-        <v>1680100</v>
+        <v>3411100</v>
       </c>
       <c r="I60" s="3">
-        <v>1749100</v>
+        <v>3551200</v>
       </c>
       <c r="J60" s="3">
-        <v>1406800</v>
+        <v>2856300</v>
       </c>
       <c r="K60" s="3">
         <v>1588100</v>
@@ -2418,25 +2423,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22100</v>
+        <v>44800</v>
       </c>
       <c r="E61" s="3">
-        <v>103400</v>
+        <v>209900</v>
       </c>
       <c r="F61" s="3">
-        <v>149800</v>
+        <v>304100</v>
       </c>
       <c r="G61" s="3">
-        <v>30500</v>
+        <v>61800</v>
       </c>
       <c r="H61" s="3">
-        <v>130600</v>
+        <v>265200</v>
       </c>
       <c r="I61" s="3">
-        <v>34400</v>
+        <v>69800</v>
       </c>
       <c r="J61" s="3">
-        <v>104400</v>
+        <v>212000</v>
       </c>
       <c r="K61" s="3">
         <v>171900</v>
@@ -2454,25 +2459,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3787100</v>
+        <v>7689200</v>
       </c>
       <c r="E62" s="3">
-        <v>3217000</v>
+        <v>6531700</v>
       </c>
       <c r="F62" s="3">
-        <v>2514400</v>
+        <v>5105000</v>
       </c>
       <c r="G62" s="3">
-        <v>2364100</v>
+        <v>4799900</v>
       </c>
       <c r="H62" s="3">
-        <v>1955800</v>
+        <v>3971000</v>
       </c>
       <c r="I62" s="3">
-        <v>1927400</v>
+        <v>3913300</v>
       </c>
       <c r="J62" s="3">
-        <v>1629400</v>
+        <v>3308300</v>
       </c>
       <c r="K62" s="3">
         <v>2478500</v>
@@ -2598,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5660500</v>
+        <v>11492800</v>
       </c>
       <c r="E66" s="3">
-        <v>6477000</v>
+        <v>13150400</v>
       </c>
       <c r="F66" s="3">
-        <v>5614000</v>
+        <v>11398300</v>
       </c>
       <c r="G66" s="3">
-        <v>4957900</v>
+        <v>10066300</v>
       </c>
       <c r="H66" s="3">
-        <v>3768500</v>
+        <v>7651300</v>
       </c>
       <c r="I66" s="3">
-        <v>3712300</v>
+        <v>7537300</v>
       </c>
       <c r="J66" s="3">
-        <v>3142000</v>
+        <v>6379300</v>
       </c>
       <c r="K66" s="3">
         <v>4240800</v>
@@ -2794,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39135700</v>
+        <v>79458800</v>
       </c>
       <c r="E72" s="3">
-        <v>33511600</v>
+        <v>68040000</v>
       </c>
       <c r="F72" s="3">
-        <v>33329600</v>
+        <v>67670500</v>
       </c>
       <c r="G72" s="3">
-        <v>26897600</v>
+        <v>54611200</v>
       </c>
       <c r="H72" s="3">
-        <v>25570800</v>
+        <v>51917500</v>
       </c>
       <c r="I72" s="3">
-        <v>26656600</v>
+        <v>54122000</v>
       </c>
       <c r="J72" s="3">
-        <v>21328800</v>
+        <v>43304700</v>
       </c>
       <c r="K72" s="3">
         <v>24329200</v>
@@ -2938,25 +2943,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40816200</v>
+        <v>82870700</v>
       </c>
       <c r="E76" s="3">
-        <v>35192100</v>
+        <v>71452000</v>
       </c>
       <c r="F76" s="3">
-        <v>35010100</v>
+        <v>71082500</v>
       </c>
       <c r="G76" s="3">
-        <v>28578000</v>
+        <v>58023200</v>
       </c>
       <c r="H76" s="3">
-        <v>27251300</v>
+        <v>55329400</v>
       </c>
       <c r="I76" s="3">
-        <v>28337100</v>
+        <v>57534000</v>
       </c>
       <c r="J76" s="3">
-        <v>23009200</v>
+        <v>46716600</v>
       </c>
       <c r="K76" s="3">
         <v>27121800</v>
@@ -3051,25 +3056,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5466700</v>
+        <v>11099300</v>
       </c>
       <c r="E81" s="3">
-        <v>780600</v>
+        <v>1585000</v>
       </c>
       <c r="F81" s="3">
-        <v>6262000</v>
+        <v>12714100</v>
       </c>
       <c r="G81" s="3">
-        <v>1455700</v>
+        <v>2955500</v>
       </c>
       <c r="H81" s="3">
-        <v>-491200</v>
+        <v>-997300</v>
       </c>
       <c r="I81" s="3">
-        <v>5602300</v>
+        <v>11374700</v>
       </c>
       <c r="J81" s="3">
-        <v>6498800</v>
+        <v>13194800</v>
       </c>
       <c r="K81" s="3">
         <v>3430700</v>
@@ -3103,25 +3108,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>662700</v>
+        <v>1345500</v>
       </c>
       <c r="E83" s="3">
-        <v>562200</v>
+        <v>1141400</v>
       </c>
       <c r="F83" s="3">
-        <v>527100</v>
+        <v>1070300</v>
       </c>
       <c r="G83" s="3">
-        <v>524400</v>
+        <v>1064700</v>
       </c>
       <c r="H83" s="3">
-        <v>610000</v>
+        <v>1238500</v>
       </c>
       <c r="I83" s="3">
-        <v>558600</v>
+        <v>1134200</v>
       </c>
       <c r="J83" s="3">
-        <v>590200</v>
+        <v>1198300</v>
       </c>
       <c r="K83" s="3">
         <v>637200</v>
@@ -3319,25 +3324,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1023800</v>
+        <v>2078600</v>
       </c>
       <c r="E89" s="3">
-        <v>3316500</v>
+        <v>6733600</v>
       </c>
       <c r="F89" s="3">
-        <v>2772600</v>
+        <v>5629300</v>
       </c>
       <c r="G89" s="3">
-        <v>2816600</v>
+        <v>5718700</v>
       </c>
       <c r="H89" s="3">
-        <v>2075800</v>
+        <v>4214700</v>
       </c>
       <c r="I89" s="3">
-        <v>1574100</v>
+        <v>3196000</v>
       </c>
       <c r="J89" s="3">
-        <v>1433100</v>
+        <v>2909800</v>
       </c>
       <c r="K89" s="3">
         <v>3386300</v>
@@ -3371,25 +3376,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1354900</v>
+        <v>-2750900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1259400</v>
+        <v>-2557000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1196700</v>
+        <v>-2429700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1267000</v>
+        <v>-2572500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1430000</v>
+        <v>-2903500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1351400</v>
+        <v>-2743800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1258900</v>
+        <v>-2556000</v>
       </c>
       <c r="K91" s="3">
         <v>-2324800</v>
@@ -3479,25 +3484,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1118300</v>
+        <v>-2270500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1726800</v>
+        <v>-3506100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2287700</v>
+        <v>-4644800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2296200</v>
+        <v>-4662200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1589700</v>
+        <v>-3227700</v>
       </c>
       <c r="I94" s="3">
-        <v>-491100</v>
+        <v>-997100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1332700</v>
+        <v>-2705900</v>
       </c>
       <c r="K94" s="3">
         <v>-3196000</v>
@@ -3531,25 +3536,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-242400</v>
+        <v>-492200</v>
       </c>
       <c r="E96" s="3">
-        <v>-643400</v>
+        <v>-1306200</v>
       </c>
       <c r="F96" s="3">
-        <v>-267100</v>
+        <v>-542300</v>
       </c>
       <c r="G96" s="3">
-        <v>-206400</v>
+        <v>-419100</v>
       </c>
       <c r="H96" s="3">
-        <v>-587100</v>
+        <v>-1192000</v>
       </c>
       <c r="I96" s="3">
-        <v>-678200</v>
+        <v>-1377000</v>
       </c>
       <c r="J96" s="3">
-        <v>-311800</v>
+        <v>-633000</v>
       </c>
       <c r="K96" s="3">
         <v>-383100</v>
@@ -3675,25 +3680,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1626200</v>
+        <v>-3301800</v>
       </c>
       <c r="E100" s="3">
-        <v>-504500</v>
+        <v>-1024300</v>
       </c>
       <c r="F100" s="3">
-        <v>-154800</v>
+        <v>-314200</v>
       </c>
       <c r="G100" s="3">
-        <v>347800</v>
+        <v>706200</v>
       </c>
       <c r="H100" s="3">
-        <v>-444500</v>
+        <v>-902500</v>
       </c>
       <c r="I100" s="3">
-        <v>-482400</v>
+        <v>-979300</v>
       </c>
       <c r="J100" s="3">
-        <v>-224100</v>
+        <v>-454900</v>
       </c>
       <c r="K100" s="3">
         <v>-297700</v>
@@ -3711,25 +3716,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-10300</v>
+        <v>-20800</v>
       </c>
       <c r="F101" s="3">
-        <v>8800</v>
+        <v>17900</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="H101" s="3">
-        <v>-27700</v>
+        <v>-56200</v>
       </c>
       <c r="I101" s="3">
-        <v>14500</v>
+        <v>29500</v>
       </c>
       <c r="J101" s="3">
-        <v>83600</v>
+        <v>169700</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3747,25 +3752,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1719800</v>
+        <v>-3491800</v>
       </c>
       <c r="E102" s="3">
-        <v>1074900</v>
+        <v>2182400</v>
       </c>
       <c r="F102" s="3">
-        <v>338900</v>
+        <v>688100</v>
       </c>
       <c r="G102" s="3">
-        <v>870500</v>
+        <v>1767400</v>
       </c>
       <c r="H102" s="3">
-        <v>13900</v>
+        <v>28200</v>
       </c>
       <c r="I102" s="3">
-        <v>615200</v>
+        <v>1249100</v>
       </c>
       <c r="J102" s="3">
-        <v>-40100</v>
+        <v>-81400</v>
       </c>
       <c r="K102" s="3">
         <v>-104900</v>
